--- a/saved_file_headE1.xlsx
+++ b/saved_file_headE1.xlsx
@@ -481,7 +481,7 @@
         <v>14</v>
       </c>
       <c r="E2" s="2">
-        <v>44775.54166666666</v>
+        <v>44775.5416666667</v>
       </c>
       <c r="F2">
         <v>1037.7</v>
@@ -516,7 +516,7 @@
         <v>14</v>
       </c>
       <c r="E3" s="2">
-        <v>44775.58333333334</v>
+        <v>44775.5833333333</v>
       </c>
       <c r="F3">
         <v>1037.65</v>
@@ -586,7 +586,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="2">
-        <v>44775.66666666666</v>
+        <v>44775.6666666667</v>
       </c>
       <c r="F5">
         <v>1036.025</v>
@@ -621,7 +621,7 @@
         <v>14</v>
       </c>
       <c r="E6" s="2">
-        <v>44775.70833333334</v>
+        <v>44775.7083333333</v>
       </c>
       <c r="F6">
         <v>1035.825</v>
@@ -691,7 +691,7 @@
         <v>14</v>
       </c>
       <c r="E8" s="2">
-        <v>44775.79166666666</v>
+        <v>44775.7916666667</v>
       </c>
       <c r="F8">
         <v>1035.075</v>
@@ -726,7 +726,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="2">
-        <v>44775.83333333334</v>
+        <v>44775.8333333333</v>
       </c>
       <c r="F9">
         <v>1035.2</v>
@@ -796,7 +796,7 @@
         <v>14</v>
       </c>
       <c r="E11" s="2">
-        <v>44775.91666666666</v>
+        <v>44775.9166666667</v>
       </c>
       <c r="F11">
         <v>1035.5</v>
@@ -831,7 +831,7 @@
         <v>14</v>
       </c>
       <c r="E12" s="2">
-        <v>44775.95833333334</v>
+        <v>44775.9583333333</v>
       </c>
       <c r="F12">
         <v>1035.55</v>
@@ -901,7 +901,7 @@
         <v>14</v>
       </c>
       <c r="E14" s="2">
-        <v>44776.04166666666</v>
+        <v>44776.0416666667</v>
       </c>
       <c r="F14">
         <v>1035.8</v>
@@ -936,7 +936,7 @@
         <v>14</v>
       </c>
       <c r="E15" s="2">
-        <v>44776.08333333334</v>
+        <v>44776.0833333333</v>
       </c>
       <c r="F15">
         <v>1035.425</v>
@@ -1006,7 +1006,7 @@
         <v>14</v>
       </c>
       <c r="E17" s="2">
-        <v>44776.16666666666</v>
+        <v>44776.1666666667</v>
       </c>
       <c r="F17">
         <v>1034.675</v>
@@ -1041,7 +1041,7 @@
         <v>14</v>
       </c>
       <c r="E18" s="2">
-        <v>44776.20833333334</v>
+        <v>44776.2083333333</v>
       </c>
       <c r="F18">
         <v>1034.875</v>
@@ -1111,7 +1111,7 @@
         <v>14</v>
       </c>
       <c r="E20" s="2">
-        <v>44776.29166666666</v>
+        <v>44776.2916666667</v>
       </c>
       <c r="F20">
         <v>1036.125</v>
@@ -1146,7 +1146,7 @@
         <v>14</v>
       </c>
       <c r="E21" s="2">
-        <v>44776.33333333334</v>
+        <v>44776.3333333333</v>
       </c>
       <c r="F21">
         <v>1036.375</v>
@@ -1216,7 +1216,7 @@
         <v>14</v>
       </c>
       <c r="E23" s="2">
-        <v>44776.41666666666</v>
+        <v>44776.4166666667</v>
       </c>
       <c r="F23">
         <v>1036.2</v>
@@ -1251,7 +1251,7 @@
         <v>14</v>
       </c>
       <c r="E24" s="2">
-        <v>44776.45833333334</v>
+        <v>44776.4583333333</v>
       </c>
       <c r="F24">
         <v>1035.875</v>
@@ -1321,7 +1321,7 @@
         <v>14</v>
       </c>
       <c r="E26" s="2">
-        <v>44776.54166666666</v>
+        <v>44776.5416666667</v>
       </c>
       <c r="F26">
         <v>1034.825</v>
@@ -1356,7 +1356,7 @@
         <v>14</v>
       </c>
       <c r="E27" s="2">
-        <v>44776.58333333334</v>
+        <v>44776.5833333333</v>
       </c>
       <c r="F27">
         <v>1034.375</v>
@@ -1426,7 +1426,7 @@
         <v>14</v>
       </c>
       <c r="E29" s="2">
-        <v>44776.66666666666</v>
+        <v>44776.6666666667</v>
       </c>
       <c r="F29">
         <v>1033.5</v>
@@ -1461,7 +1461,7 @@
         <v>14</v>
       </c>
       <c r="E30" s="2">
-        <v>44776.70833333334</v>
+        <v>44776.7083333333</v>
       </c>
       <c r="F30">
         <v>1032.625</v>
@@ -1531,7 +1531,7 @@
         <v>14</v>
       </c>
       <c r="E32" s="2">
-        <v>44776.79166666666</v>
+        <v>44776.7916666667</v>
       </c>
       <c r="F32">
         <v>1032.5</v>
@@ -1566,7 +1566,7 @@
         <v>14</v>
       </c>
       <c r="E33" s="2">
-        <v>44776.83333333334</v>
+        <v>44776.8333333333</v>
       </c>
       <c r="F33">
         <v>1032.75</v>
@@ -1636,7 +1636,7 @@
         <v>14</v>
       </c>
       <c r="E35" s="2">
-        <v>44776.91666666666</v>
+        <v>44776.9166666667</v>
       </c>
       <c r="F35">
         <v>1033.05</v>
@@ -1671,7 +1671,7 @@
         <v>14</v>
       </c>
       <c r="E36" s="2">
-        <v>44776.95833333334</v>
+        <v>44776.9583333333</v>
       </c>
       <c r="F36">
         <v>1032.925</v>
@@ -1741,7 +1741,7 @@
         <v>14</v>
       </c>
       <c r="E38" s="2">
-        <v>44777.04166666666</v>
+        <v>44777.0416666667</v>
       </c>
       <c r="F38">
         <v>1032.675</v>
@@ -1776,7 +1776,7 @@
         <v>14</v>
       </c>
       <c r="E39" s="2">
-        <v>44777.08333333334</v>
+        <v>44777.0833333333</v>
       </c>
       <c r="F39">
         <v>1032.55</v>
@@ -1846,7 +1846,7 @@
         <v>14</v>
       </c>
       <c r="E41" s="2">
-        <v>44777.16666666666</v>
+        <v>44777.1666666667</v>
       </c>
       <c r="F41">
         <v>1031.8</v>
@@ -1881,7 +1881,7 @@
         <v>14</v>
       </c>
       <c r="E42" s="2">
-        <v>44777.20833333334</v>
+        <v>44777.2083333333</v>
       </c>
       <c r="F42">
         <v>1032.25</v>
@@ -1951,7 +1951,7 @@
         <v>14</v>
       </c>
       <c r="E44" s="2">
-        <v>44777.29166666666</v>
+        <v>44777.2916666667</v>
       </c>
       <c r="F44">
         <v>1033.55</v>
@@ -1986,7 +1986,7 @@
         <v>14</v>
       </c>
       <c r="E45" s="2">
-        <v>44777.33333333334</v>
+        <v>44777.3333333333</v>
       </c>
       <c r="F45">
         <v>1034</v>
@@ -2056,7 +2056,7 @@
         <v>14</v>
       </c>
       <c r="E47" s="2">
-        <v>44777.41666666666</v>
+        <v>44777.4166666667</v>
       </c>
       <c r="F47">
         <v>1034.425</v>
@@ -2091,7 +2091,7 @@
         <v>14</v>
       </c>
       <c r="E48" s="2">
-        <v>44777.45833333334</v>
+        <v>44777.4583333333</v>
       </c>
       <c r="F48">
         <v>1034.7</v>
@@ -2161,7 +2161,7 @@
         <v>14</v>
       </c>
       <c r="E50" s="2">
-        <v>44777.54166666666</v>
+        <v>44777.5416666667</v>
       </c>
       <c r="F50">
         <v>1034.45</v>
@@ -2196,7 +2196,7 @@
         <v>14</v>
       </c>
       <c r="E51" s="2">
-        <v>44777.58333333334</v>
+        <v>44777.5833333333</v>
       </c>
       <c r="F51">
         <v>1034.375</v>
@@ -2266,7 +2266,7 @@
         <v>14</v>
       </c>
       <c r="E53" s="2">
-        <v>44777.66666666666</v>
+        <v>44777.6666666667</v>
       </c>
       <c r="F53">
         <v>1033.325</v>
@@ -2301,7 +2301,7 @@
         <v>14</v>
       </c>
       <c r="E54" s="2">
-        <v>44777.70833333334</v>
+        <v>44777.7083333333</v>
       </c>
       <c r="F54">
         <v>1034.075</v>
@@ -2371,7 +2371,7 @@
         <v>14</v>
       </c>
       <c r="E56" s="2">
-        <v>44777.79166666666</v>
+        <v>44777.7916666667</v>
       </c>
       <c r="F56">
         <v>1034.625</v>
@@ -2406,7 +2406,7 @@
         <v>14</v>
       </c>
       <c r="E57" s="2">
-        <v>44777.83333333334</v>
+        <v>44777.8333333333</v>
       </c>
       <c r="F57">
         <v>1034.8</v>
@@ -2476,7 +2476,7 @@
         <v>14</v>
       </c>
       <c r="E59" s="2">
-        <v>44777.91666666666</v>
+        <v>44777.9166666667</v>
       </c>
       <c r="F59">
         <v>1035.3</v>
@@ -2511,7 +2511,7 @@
         <v>14</v>
       </c>
       <c r="E60" s="2">
-        <v>44777.95833333334</v>
+        <v>44777.9583333333</v>
       </c>
       <c r="F60">
         <v>1035.25</v>
@@ -2581,7 +2581,7 @@
         <v>14</v>
       </c>
       <c r="E62" s="2">
-        <v>44778.04166666666</v>
+        <v>44778.0416666667</v>
       </c>
       <c r="F62">
         <v>1035</v>
@@ -2616,7 +2616,7 @@
         <v>14</v>
       </c>
       <c r="E63" s="2">
-        <v>44778.08333333334</v>
+        <v>44778.0833333333</v>
       </c>
       <c r="F63">
         <v>1035.125</v>
@@ -2686,7 +2686,7 @@
         <v>14</v>
       </c>
       <c r="E65" s="2">
-        <v>44778.16666666666</v>
+        <v>44778.1666666667</v>
       </c>
       <c r="F65">
         <v>1035.625</v>
@@ -2721,7 +2721,7 @@
         <v>14</v>
       </c>
       <c r="E66" s="2">
-        <v>44778.20833333334</v>
+        <v>44778.2083333333</v>
       </c>
       <c r="F66">
         <v>1035.375</v>
@@ -2791,7 +2791,7 @@
         <v>14</v>
       </c>
       <c r="E68" s="2">
-        <v>44778.29166666666</v>
+        <v>44778.2916666667</v>
       </c>
       <c r="F68">
         <v>1037.375</v>
@@ -2826,7 +2826,7 @@
         <v>14</v>
       </c>
       <c r="E69" s="2">
-        <v>44778.33333333334</v>
+        <v>44778.3333333333</v>
       </c>
       <c r="F69">
         <v>1037.825</v>
@@ -2896,7 +2896,7 @@
         <v>14</v>
       </c>
       <c r="E71" s="2">
-        <v>44778.41666666666</v>
+        <v>44778.4166666667</v>
       </c>
       <c r="F71">
         <v>1039.025</v>
@@ -2931,7 +2931,7 @@
         <v>14</v>
       </c>
       <c r="E72" s="2">
-        <v>44778.45833333334</v>
+        <v>44778.4583333333</v>
       </c>
       <c r="F72">
         <v>1039.475</v>
@@ -3001,7 +3001,7 @@
         <v>14</v>
       </c>
       <c r="E74" s="2">
-        <v>44778.54166666666</v>
+        <v>44778.5416666667</v>
       </c>
       <c r="F74">
         <v>1040.4</v>
@@ -3036,7 +3036,7 @@
         <v>14</v>
       </c>
       <c r="E75" s="2">
-        <v>44778.58333333334</v>
+        <v>44778.5833333333</v>
       </c>
       <c r="F75">
         <v>1040.9</v>
@@ -3106,7 +3106,7 @@
         <v>14</v>
       </c>
       <c r="E77" s="2">
-        <v>44778.66666666666</v>
+        <v>44778.6666666667</v>
       </c>
       <c r="F77">
         <v>1042.05</v>
@@ -3141,7 +3141,7 @@
         <v>14</v>
       </c>
       <c r="E78" s="2">
-        <v>44778.70833333334</v>
+        <v>44778.7083333333</v>
       </c>
       <c r="F78">
         <v>1042.55</v>
@@ -3211,7 +3211,7 @@
         <v>14</v>
       </c>
       <c r="E80" s="2">
-        <v>44778.79166666666</v>
+        <v>44778.7916666667</v>
       </c>
       <c r="F80">
         <v>1043.325</v>
@@ -3246,7 +3246,7 @@
         <v>14</v>
       </c>
       <c r="E81" s="2">
-        <v>44778.83333333334</v>
+        <v>44778.8333333333</v>
       </c>
       <c r="F81">
         <v>1043.8</v>
@@ -3316,7 +3316,7 @@
         <v>14</v>
       </c>
       <c r="E83" s="2">
-        <v>44778.91666666666</v>
+        <v>44778.9166666667</v>
       </c>
       <c r="F83">
         <v>1045.575</v>
@@ -3351,7 +3351,7 @@
         <v>14</v>
       </c>
       <c r="E84" s="2">
-        <v>44778.95833333334</v>
+        <v>44778.9583333333</v>
       </c>
       <c r="F84">
         <v>1046.075</v>
@@ -3421,7 +3421,7 @@
         <v>14</v>
       </c>
       <c r="E86" s="2">
-        <v>44779.04166666666</v>
+        <v>44779.0416666667</v>
       </c>
       <c r="F86">
         <v>1047.025</v>
@@ -3456,7 +3456,7 @@
         <v>14</v>
       </c>
       <c r="E87" s="2">
-        <v>44779.08333333334</v>
+        <v>44779.0833333333</v>
       </c>
       <c r="F87">
         <v>1047.775</v>
@@ -3526,7 +3526,7 @@
         <v>14</v>
       </c>
       <c r="E89" s="2">
-        <v>44779.16666666666</v>
+        <v>44779.1666666667</v>
       </c>
       <c r="F89">
         <v>1047.7</v>
@@ -3561,7 +3561,7 @@
         <v>14</v>
       </c>
       <c r="E90" s="2">
-        <v>44779.20833333334</v>
+        <v>44779.2083333333</v>
       </c>
       <c r="F90">
         <v>1048</v>
@@ -3631,7 +3631,7 @@
         <v>14</v>
       </c>
       <c r="E92" s="2">
-        <v>44779.29166666666</v>
+        <v>44779.2916666667</v>
       </c>
       <c r="F92">
         <v>1049.675</v>
@@ -3666,7 +3666,7 @@
         <v>14</v>
       </c>
       <c r="E93" s="2">
-        <v>44779.33333333334</v>
+        <v>44779.3333333333</v>
       </c>
       <c r="F93">
         <v>1049.9</v>
@@ -3736,7 +3736,7 @@
         <v>14</v>
       </c>
       <c r="E95" s="2">
-        <v>44779.41666666666</v>
+        <v>44779.4166666667</v>
       </c>
       <c r="F95">
         <v>1049.4</v>
@@ -3771,7 +3771,7 @@
         <v>14</v>
       </c>
       <c r="E96" s="2">
-        <v>44779.45833333334</v>
+        <v>44779.4583333333</v>
       </c>
       <c r="F96">
         <v>1049.525</v>
@@ -3841,7 +3841,7 @@
         <v>14</v>
       </c>
       <c r="E98" s="2">
-        <v>44779.54166666666</v>
+        <v>44779.5416666667</v>
       </c>
       <c r="F98">
         <v>1048.5</v>
@@ -3876,7 +3876,7 @@
         <v>14</v>
       </c>
       <c r="E99" s="2">
-        <v>44779.58333333334</v>
+        <v>44779.5833333333</v>
       </c>
       <c r="F99">
         <v>1047.825</v>
@@ -3946,7 +3946,7 @@
         <v>14</v>
       </c>
       <c r="E101" s="2">
-        <v>44779.66666666666</v>
+        <v>44779.6666666667</v>
       </c>
       <c r="F101">
         <v>1047.5</v>
@@ -3981,7 +3981,7 @@
         <v>14</v>
       </c>
       <c r="E102" s="2">
-        <v>44779.70833333334</v>
+        <v>44779.7083333333</v>
       </c>
       <c r="F102">
         <v>1047.025</v>
@@ -4051,7 +4051,7 @@
         <v>14</v>
       </c>
       <c r="E104" s="2">
-        <v>44779.79166666666</v>
+        <v>44779.7916666667</v>
       </c>
       <c r="F104">
         <v>1046.7</v>
@@ -4086,7 +4086,7 @@
         <v>14</v>
       </c>
       <c r="E105" s="2">
-        <v>44779.83333333334</v>
+        <v>44779.8333333333</v>
       </c>
       <c r="F105">
         <v>1046.9</v>
@@ -4156,7 +4156,7 @@
         <v>14</v>
       </c>
       <c r="E107" s="2">
-        <v>44779.91666666666</v>
+        <v>44779.9166666667</v>
       </c>
       <c r="F107">
         <v>1047.8</v>
@@ -4191,7 +4191,7 @@
         <v>14</v>
       </c>
       <c r="E108" s="2">
-        <v>44779.95833333334</v>
+        <v>44779.9583333333</v>
       </c>
       <c r="F108">
         <v>1048</v>
@@ -4261,7 +4261,7 @@
         <v>14</v>
       </c>
       <c r="E110" s="2">
-        <v>44780.04166666666</v>
+        <v>44780.0416666667</v>
       </c>
       <c r="F110">
         <v>1047.45</v>
@@ -4296,7 +4296,7 @@
         <v>14</v>
       </c>
       <c r="E111" s="2">
-        <v>44780.08333333334</v>
+        <v>44780.0833333333</v>
       </c>
       <c r="F111">
         <v>1047.075</v>
@@ -4366,7 +4366,7 @@
         <v>14</v>
       </c>
       <c r="E113" s="2">
-        <v>44780.16666666666</v>
+        <v>44780.1666666667</v>
       </c>
       <c r="F113">
         <v>1046.9</v>
@@ -4401,7 +4401,7 @@
         <v>14</v>
       </c>
       <c r="E114" s="2">
-        <v>44780.20833333334</v>
+        <v>44780.2083333333</v>
       </c>
       <c r="F114">
         <v>1046.95</v>
@@ -4471,7 +4471,7 @@
         <v>14</v>
       </c>
       <c r="E116" s="2">
-        <v>44780.29166666666</v>
+        <v>44780.2916666667</v>
       </c>
       <c r="F116">
         <v>1048.05</v>
@@ -4506,7 +4506,7 @@
         <v>14</v>
       </c>
       <c r="E117" s="2">
-        <v>44780.33333333334</v>
+        <v>44780.3333333333</v>
       </c>
       <c r="F117">
         <v>1047.7</v>
@@ -4576,7 +4576,7 @@
         <v>14</v>
       </c>
       <c r="E119" s="2">
-        <v>44780.41666666666</v>
+        <v>44780.4166666667</v>
       </c>
       <c r="F119">
         <v>1047.525</v>
@@ -4611,7 +4611,7 @@
         <v>14</v>
       </c>
       <c r="E120" s="2">
-        <v>44780.45833333334</v>
+        <v>44780.4583333333</v>
       </c>
       <c r="F120">
         <v>1046.525</v>
@@ -4681,7 +4681,7 @@
         <v>14</v>
       </c>
       <c r="E122" s="2">
-        <v>44780.54166666666</v>
+        <v>44780.5416666667</v>
       </c>
       <c r="F122">
         <v>1044.325</v>
@@ -4716,7 +4716,7 @@
         <v>14</v>
       </c>
       <c r="E123" s="2">
-        <v>44780.58333333334</v>
+        <v>44780.5833333333</v>
       </c>
       <c r="F123">
         <v>1043.45</v>
@@ -4786,7 +4786,7 @@
         <v>14</v>
       </c>
       <c r="E125" s="2">
-        <v>44780.66666666666</v>
+        <v>44780.6666666667</v>
       </c>
       <c r="F125">
         <v>1043.425</v>
@@ -4821,7 +4821,7 @@
         <v>14</v>
       </c>
       <c r="E126" s="2">
-        <v>44780.70833333334</v>
+        <v>44780.7083333333</v>
       </c>
       <c r="F126">
         <v>1043.05</v>
@@ -4891,7 +4891,7 @@
         <v>14</v>
       </c>
       <c r="E128" s="2">
-        <v>44780.79166666666</v>
+        <v>44780.7916666667</v>
       </c>
       <c r="F128">
         <v>1043.525</v>
@@ -4926,7 +4926,7 @@
         <v>14</v>
       </c>
       <c r="E129" s="2">
-        <v>44780.83333333334</v>
+        <v>44780.8333333333</v>
       </c>
       <c r="F129">
         <v>1044.025</v>
@@ -4996,7 +4996,7 @@
         <v>14</v>
       </c>
       <c r="E131" s="2">
-        <v>44780.91666666666</v>
+        <v>44780.9166666667</v>
       </c>
       <c r="F131">
         <v>1044.75</v>
@@ -5031,7 +5031,7 @@
         <v>14</v>
       </c>
       <c r="E132" s="2">
-        <v>44780.95833333334</v>
+        <v>44780.9583333333</v>
       </c>
       <c r="F132">
         <v>1044.875</v>
@@ -5101,7 +5101,7 @@
         <v>14</v>
       </c>
       <c r="E134" s="2">
-        <v>44781.04166666666</v>
+        <v>44781.0416666667</v>
       </c>
       <c r="F134">
         <v>1045.4</v>
@@ -5136,7 +5136,7 @@
         <v>14</v>
       </c>
       <c r="E135" s="2">
-        <v>44781.08333333334</v>
+        <v>44781.0833333333</v>
       </c>
       <c r="F135">
         <v>1045.275</v>
@@ -5206,7 +5206,7 @@
         <v>14</v>
       </c>
       <c r="E137" s="2">
-        <v>44781.16666666666</v>
+        <v>44781.1666666667</v>
       </c>
       <c r="F137">
         <v>1045.325</v>
@@ -5241,7 +5241,7 @@
         <v>14</v>
       </c>
       <c r="E138" s="2">
-        <v>44781.20833333334</v>
+        <v>44781.2083333333</v>
       </c>
       <c r="F138">
         <v>1045.775</v>
@@ -5311,7 +5311,7 @@
         <v>14</v>
       </c>
       <c r="E140" s="2">
-        <v>44781.29166666666</v>
+        <v>44781.2916666667</v>
       </c>
       <c r="F140">
         <v>1047.3</v>
@@ -5346,7 +5346,7 @@
         <v>14</v>
       </c>
       <c r="E141" s="2">
-        <v>44781.33333333334</v>
+        <v>44781.3333333333</v>
       </c>
       <c r="F141">
         <v>1047.275</v>
@@ -5416,7 +5416,7 @@
         <v>14</v>
       </c>
       <c r="E143" s="2">
-        <v>44781.41666666666</v>
+        <v>44781.4166666667</v>
       </c>
       <c r="F143">
         <v>1047.75</v>
@@ -5451,7 +5451,7 @@
         <v>14</v>
       </c>
       <c r="E144" s="2">
-        <v>44781.45833333334</v>
+        <v>44781.4583333333</v>
       </c>
       <c r="F144">
         <v>1046.95</v>
@@ -5521,7 +5521,7 @@
         <v>14</v>
       </c>
       <c r="E146" s="2">
-        <v>44781.54166666666</v>
+        <v>44781.5416666667</v>
       </c>
       <c r="F146">
         <v>1045.3</v>
@@ -5556,7 +5556,7 @@
         <v>14</v>
       </c>
       <c r="E147" s="2">
-        <v>44781.58333333334</v>
+        <v>44781.5833333333</v>
       </c>
       <c r="F147">
         <v>1045.175</v>
@@ -5626,7 +5626,7 @@
         <v>14</v>
       </c>
       <c r="E149" s="2">
-        <v>44781.66666666666</v>
+        <v>44781.6666666667</v>
       </c>
       <c r="F149">
         <v>1044.675</v>
@@ -5661,7 +5661,7 @@
         <v>14</v>
       </c>
       <c r="E150" s="2">
-        <v>44781.70833333334</v>
+        <v>44781.7083333333</v>
       </c>
       <c r="F150">
         <v>1044.675</v>
@@ -5731,7 +5731,7 @@
         <v>14</v>
       </c>
       <c r="E152" s="2">
-        <v>44781.79166666666</v>
+        <v>44781.7916666667</v>
       </c>
       <c r="F152">
         <v>1045.2</v>
@@ -5766,7 +5766,7 @@
         <v>14</v>
       </c>
       <c r="E153" s="2">
-        <v>44781.83333333334</v>
+        <v>44781.8333333333</v>
       </c>
       <c r="F153">
         <v>1045.95</v>
@@ -5836,7 +5836,7 @@
         <v>14</v>
       </c>
       <c r="E155" s="2">
-        <v>44781.91666666666</v>
+        <v>44781.9166666667</v>
       </c>
       <c r="F155">
         <v>1046.8</v>
@@ -5871,7 +5871,7 @@
         <v>14</v>
       </c>
       <c r="E156" s="2">
-        <v>44781.95833333334</v>
+        <v>44781.9583333333</v>
       </c>
       <c r="F156">
         <v>1046.675</v>
@@ -5941,7 +5941,7 @@
         <v>14</v>
       </c>
       <c r="E158" s="2">
-        <v>44782.04166666666</v>
+        <v>44782.0416666667</v>
       </c>
       <c r="F158">
         <v>1047.25</v>
@@ -5976,7 +5976,7 @@
         <v>14</v>
       </c>
       <c r="E159" s="2">
-        <v>44782.08333333334</v>
+        <v>44782.0833333333</v>
       </c>
       <c r="F159">
         <v>1047.05</v>
@@ -6046,7 +6046,7 @@
         <v>14</v>
       </c>
       <c r="E161" s="2">
-        <v>44782.16666666666</v>
+        <v>44782.1666666667</v>
       </c>
       <c r="F161">
         <v>1047.3</v>
@@ -6081,7 +6081,7 @@
         <v>14</v>
       </c>
       <c r="E162" s="2">
-        <v>44782.20833333334</v>
+        <v>44782.2083333333</v>
       </c>
       <c r="F162">
         <v>1046.925</v>
@@ -6151,7 +6151,7 @@
         <v>14</v>
       </c>
       <c r="E164" s="2">
-        <v>44782.29166666666</v>
+        <v>44782.2916666667</v>
       </c>
       <c r="F164">
         <v>1048.675</v>
@@ -6186,7 +6186,7 @@
         <v>14</v>
       </c>
       <c r="E165" s="2">
-        <v>44782.33333333334</v>
+        <v>44782.3333333333</v>
       </c>
       <c r="F165">
         <v>1048.65</v>
@@ -6256,7 +6256,7 @@
         <v>14</v>
       </c>
       <c r="E167" s="2">
-        <v>44782.41666666666</v>
+        <v>44782.4166666667</v>
       </c>
       <c r="F167">
         <v>1048.5</v>
@@ -6291,7 +6291,7 @@
         <v>14</v>
       </c>
       <c r="E168" s="2">
-        <v>44782.45833333334</v>
+        <v>44782.4583333333</v>
       </c>
       <c r="F168">
         <v>1047.975</v>
@@ -6361,7 +6361,7 @@
         <v>14</v>
       </c>
       <c r="E170" s="2">
-        <v>44782.54166666666</v>
+        <v>44782.5416666667</v>
       </c>
       <c r="F170">
         <v>1047.1</v>
@@ -6396,7 +6396,7 @@
         <v>14</v>
       </c>
       <c r="E171" s="2">
-        <v>44782.58333333334</v>
+        <v>44782.5833333333</v>
       </c>
       <c r="F171">
         <v>1046.275</v>
@@ -6466,7 +6466,7 @@
         <v>14</v>
       </c>
       <c r="E173" s="2">
-        <v>44782.66666666666</v>
+        <v>44782.6666666667</v>
       </c>
       <c r="F173">
         <v>1045.25</v>
@@ -6501,7 +6501,7 @@
         <v>14</v>
       </c>
       <c r="E174" s="2">
-        <v>44782.70833333334</v>
+        <v>44782.7083333333</v>
       </c>
       <c r="F174">
         <v>1044.925</v>
@@ -6571,7 +6571,7 @@
         <v>14</v>
       </c>
       <c r="E176" s="2">
-        <v>44782.79166666666</v>
+        <v>44782.7916666667</v>
       </c>
       <c r="F176">
         <v>1045.275</v>
@@ -6606,7 +6606,7 @@
         <v>14</v>
       </c>
       <c r="E177" s="2">
-        <v>44782.83333333334</v>
+        <v>44782.8333333333</v>
       </c>
       <c r="F177">
         <v>1045.775</v>
@@ -6676,7 +6676,7 @@
         <v>14</v>
       </c>
       <c r="E179" s="2">
-        <v>44782.91666666666</v>
+        <v>44782.9166666667</v>
       </c>
       <c r="F179">
         <v>1046.175</v>
@@ -6711,7 +6711,7 @@
         <v>14</v>
       </c>
       <c r="E180" s="2">
-        <v>44782.95833333334</v>
+        <v>44782.9583333333</v>
       </c>
       <c r="F180">
         <v>1046.425</v>
@@ -6781,7 +6781,7 @@
         <v>14</v>
       </c>
       <c r="E182" s="2">
-        <v>44783.04166666666</v>
+        <v>44783.0416666667</v>
       </c>
       <c r="F182">
         <v>1046</v>
@@ -6816,7 +6816,7 @@
         <v>14</v>
       </c>
       <c r="E183" s="2">
-        <v>44783.08333333334</v>
+        <v>44783.0833333333</v>
       </c>
       <c r="F183">
         <v>1045.875</v>
@@ -6886,7 +6886,7 @@
         <v>14</v>
       </c>
       <c r="E185" s="2">
-        <v>44783.16666666666</v>
+        <v>44783.1666666667</v>
       </c>
       <c r="F185">
         <v>1045.675</v>
@@ -6921,7 +6921,7 @@
         <v>14</v>
       </c>
       <c r="E186" s="2">
-        <v>44783.20833333334</v>
+        <v>44783.2083333333</v>
       </c>
       <c r="F186">
         <v>1045.625</v>
@@ -6991,7 +6991,7 @@
         <v>14</v>
       </c>
       <c r="E188" s="2">
-        <v>44783.29166666666</v>
+        <v>44783.2916666667</v>
       </c>
       <c r="F188">
         <v>1046.5</v>
@@ -7026,7 +7026,7 @@
         <v>14</v>
       </c>
       <c r="E189" s="2">
-        <v>44783.33333333334</v>
+        <v>44783.3333333333</v>
       </c>
       <c r="F189">
         <v>1046.45</v>
@@ -7096,7 +7096,7 @@
         <v>14</v>
       </c>
       <c r="E191" s="2">
-        <v>44783.41666666666</v>
+        <v>44783.4166666667</v>
       </c>
       <c r="F191">
         <v>1045.675</v>
@@ -7131,7 +7131,7 @@
         <v>14</v>
       </c>
       <c r="E192" s="2">
-        <v>44783.45833333334</v>
+        <v>44783.4583333333</v>
       </c>
       <c r="F192">
         <v>1044.85</v>
@@ -7201,7 +7201,7 @@
         <v>14</v>
       </c>
       <c r="E194" s="2">
-        <v>44783.54166666666</v>
+        <v>44783.5416666667</v>
       </c>
       <c r="F194">
         <v>1043.825</v>
@@ -7236,7 +7236,7 @@
         <v>14</v>
       </c>
       <c r="E195" s="2">
-        <v>44783.58333333334</v>
+        <v>44783.5833333333</v>
       </c>
       <c r="F195">
         <v>1042.7</v>
@@ -7306,7 +7306,7 @@
         <v>14</v>
       </c>
       <c r="E197" s="2">
-        <v>44783.66666666666</v>
+        <v>44783.6666666667</v>
       </c>
       <c r="F197">
         <v>1041.6</v>
@@ -7341,7 +7341,7 @@
         <v>14</v>
       </c>
       <c r="E198" s="2">
-        <v>44783.70833333334</v>
+        <v>44783.7083333333</v>
       </c>
       <c r="F198">
         <v>1041.275</v>
@@ -7411,7 +7411,7 @@
         <v>14</v>
       </c>
       <c r="E200" s="2">
-        <v>44783.79166666666</v>
+        <v>44783.7916666667</v>
       </c>
       <c r="F200">
         <v>1041.225</v>
@@ -7446,7 +7446,7 @@
         <v>14</v>
       </c>
       <c r="E201" s="2">
-        <v>44783.83333333334</v>
+        <v>44783.8333333333</v>
       </c>
       <c r="F201">
         <v>1041.325</v>
@@ -7516,7 +7516,7 @@
         <v>14</v>
       </c>
       <c r="E203" s="2">
-        <v>44783.91666666666</v>
+        <v>44783.9166666667</v>
       </c>
       <c r="F203">
         <v>1042</v>
@@ -7551,7 +7551,7 @@
         <v>14</v>
       </c>
       <c r="E204" s="2">
-        <v>44783.95833333334</v>
+        <v>44783.9583333333</v>
       </c>
       <c r="F204">
         <v>1041.875</v>
@@ -7621,7 +7621,7 @@
         <v>14</v>
       </c>
       <c r="E206" s="2">
-        <v>44784.04166666666</v>
+        <v>44784.0416666667</v>
       </c>
       <c r="F206">
         <v>1041.55</v>
@@ -7656,7 +7656,7 @@
         <v>14</v>
       </c>
       <c r="E207" s="2">
-        <v>44784.08333333334</v>
+        <v>44784.0833333333</v>
       </c>
       <c r="F207">
         <v>1041.675</v>
@@ -7726,7 +7726,7 @@
         <v>14</v>
       </c>
       <c r="E209" s="2">
-        <v>44784.16666666666</v>
+        <v>44784.1666666667</v>
       </c>
       <c r="F209">
         <v>1041.425</v>
@@ -7761,7 +7761,7 @@
         <v>14</v>
       </c>
       <c r="E210" s="2">
-        <v>44784.20833333334</v>
+        <v>44784.2083333333</v>
       </c>
       <c r="F210">
         <v>1041.375</v>
@@ -7831,7 +7831,7 @@
         <v>14</v>
       </c>
       <c r="E212" s="2">
-        <v>44784.29166666666</v>
+        <v>44784.2916666667</v>
       </c>
       <c r="F212">
         <v>1042.55</v>
@@ -7866,7 +7866,7 @@
         <v>14</v>
       </c>
       <c r="E213" s="2">
-        <v>44784.33333333334</v>
+        <v>44784.3333333333</v>
       </c>
       <c r="F213">
         <v>1042.45</v>
@@ -7936,7 +7936,7 @@
         <v>14</v>
       </c>
       <c r="E215" s="2">
-        <v>44784.41666666666</v>
+        <v>44784.4166666667</v>
       </c>
       <c r="F215">
         <v>1041.825</v>
@@ -7971,7 +7971,7 @@
         <v>14</v>
       </c>
       <c r="E216" s="2">
-        <v>44784.45833333334</v>
+        <v>44784.4583333333</v>
       </c>
       <c r="F216">
         <v>1040.55</v>
@@ -8041,7 +8041,7 @@
         <v>14</v>
       </c>
       <c r="E218" s="2">
-        <v>44784.54166666666</v>
+        <v>44784.5416666667</v>
       </c>
       <c r="F218">
         <v>1039.075</v>
@@ -8076,7 +8076,7 @@
         <v>14</v>
       </c>
       <c r="E219" s="2">
-        <v>44784.58333333334</v>
+        <v>44784.5833333333</v>
       </c>
       <c r="F219">
         <v>1038.675</v>
@@ -8146,7 +8146,7 @@
         <v>14</v>
       </c>
       <c r="E221" s="2">
-        <v>44784.66666666666</v>
+        <v>44784.6666666667</v>
       </c>
       <c r="F221">
         <v>1037.475</v>
@@ -8181,7 +8181,7 @@
         <v>14</v>
       </c>
       <c r="E222" s="2">
-        <v>44784.70833333334</v>
+        <v>44784.7083333333</v>
       </c>
       <c r="F222">
         <v>1037.275</v>
@@ -8251,7 +8251,7 @@
         <v>14</v>
       </c>
       <c r="E224" s="2">
-        <v>44784.79166666666</v>
+        <v>44784.7916666667</v>
       </c>
       <c r="F224">
         <v>1037.325</v>
@@ -8286,7 +8286,7 @@
         <v>14</v>
       </c>
       <c r="E225" s="2">
-        <v>44784.83333333334</v>
+        <v>44784.8333333333</v>
       </c>
       <c r="F225">
         <v>1037.825</v>
@@ -8356,7 +8356,7 @@
         <v>14</v>
       </c>
       <c r="E227" s="2">
-        <v>44784.91666666666</v>
+        <v>44784.9166666667</v>
       </c>
       <c r="F227">
         <v>1038.55</v>
@@ -8391,7 +8391,7 @@
         <v>14</v>
       </c>
       <c r="E228" s="2">
-        <v>44784.95833333334</v>
+        <v>44784.9583333333</v>
       </c>
       <c r="F228">
         <v>1038.425</v>
@@ -8461,7 +8461,7 @@
         <v>14</v>
       </c>
       <c r="E230" s="2">
-        <v>44785.04166666666</v>
+        <v>44785.0416666667</v>
       </c>
       <c r="F230">
         <v>1038.5</v>
@@ -8496,7 +8496,7 @@
         <v>14</v>
       </c>
       <c r="E231" s="2">
-        <v>44785.08333333334</v>
+        <v>44785.0833333333</v>
       </c>
       <c r="F231">
         <v>1038.425</v>
@@ -8566,7 +8566,7 @@
         <v>14</v>
       </c>
       <c r="E233" s="2">
-        <v>44785.16666666666</v>
+        <v>44785.1666666667</v>
       </c>
       <c r="F233">
         <v>1038.05</v>
@@ -8601,7 +8601,7 @@
         <v>14</v>
       </c>
       <c r="E234" s="2">
-        <v>44785.20833333334</v>
+        <v>44785.2083333333</v>
       </c>
       <c r="F234">
         <v>1038</v>
@@ -8671,7 +8671,7 @@
         <v>14</v>
       </c>
       <c r="E236" s="2">
-        <v>44785.29166666666</v>
+        <v>44785.2916666667</v>
       </c>
       <c r="F236">
         <v>1039.05</v>
@@ -8706,7 +8706,7 @@
         <v>14</v>
       </c>
       <c r="E237" s="2">
-        <v>44785.33333333334</v>
+        <v>44785.3333333333</v>
       </c>
       <c r="F237">
         <v>1038.95</v>
@@ -8776,7 +8776,7 @@
         <v>14</v>
       </c>
       <c r="E239" s="2">
-        <v>44785.41666666666</v>
+        <v>44785.4166666667</v>
       </c>
       <c r="F239">
         <v>1038.525</v>
@@ -8811,7 +8811,7 @@
         <v>14</v>
       </c>
       <c r="E240" s="2">
-        <v>44785.45833333334</v>
+        <v>44785.4583333333</v>
       </c>
       <c r="F240">
         <v>1038.275</v>
@@ -8881,7 +8881,7 @@
         <v>14</v>
       </c>
       <c r="E242" s="2">
-        <v>44785.54166666666</v>
+        <v>44785.5416666667</v>
       </c>
       <c r="F242">
         <v>1036.325</v>
@@ -8916,7 +8916,7 @@
         <v>14</v>
       </c>
       <c r="E243" s="2">
-        <v>44785.58333333334</v>
+        <v>44785.5833333333</v>
       </c>
       <c r="F243">
         <v>1036.2</v>
@@ -8986,7 +8986,7 @@
         <v>14</v>
       </c>
       <c r="E245" s="2">
-        <v>44785.66666666666</v>
+        <v>44785.6666666667</v>
       </c>
       <c r="F245">
         <v>1035.2</v>
@@ -9021,7 +9021,7 @@
         <v>14</v>
       </c>
       <c r="E246" s="2">
-        <v>44785.70833333334</v>
+        <v>44785.7083333333</v>
       </c>
       <c r="F246">
         <v>1034.45</v>
@@ -9091,7 +9091,7 @@
         <v>14</v>
       </c>
       <c r="E248" s="2">
-        <v>44785.79166666666</v>
+        <v>44785.7916666667</v>
       </c>
       <c r="F248">
         <v>1034.45</v>
@@ -9126,7 +9126,7 @@
         <v>14</v>
       </c>
       <c r="E249" s="2">
-        <v>44785.83333333334</v>
+        <v>44785.8333333333</v>
       </c>
       <c r="F249">
         <v>1034.325</v>
@@ -9196,7 +9196,7 @@
         <v>14</v>
       </c>
       <c r="E251" s="2">
-        <v>44785.91666666666</v>
+        <v>44785.9166666667</v>
       </c>
       <c r="F251">
         <v>1034.925</v>
@@ -9231,7 +9231,7 @@
         <v>14</v>
       </c>
       <c r="E252" s="2">
-        <v>44785.95833333334</v>
+        <v>44785.9583333333</v>
       </c>
       <c r="F252">
         <v>1035.125</v>
@@ -9301,7 +9301,7 @@
         <v>14</v>
       </c>
       <c r="E254" s="2">
-        <v>44786.04166666666</v>
+        <v>44786.0416666667</v>
       </c>
       <c r="F254">
         <v>1034.875</v>
@@ -9336,7 +9336,7 @@
         <v>14</v>
       </c>
       <c r="E255" s="2">
-        <v>44786.08333333334</v>
+        <v>44786.0833333333</v>
       </c>
       <c r="F255">
         <v>1035</v>
@@ -9406,7 +9406,7 @@
         <v>14</v>
       </c>
       <c r="E257" s="2">
-        <v>44786.16666666666</v>
+        <v>44786.1666666667</v>
       </c>
       <c r="F257">
         <v>1035.05</v>
@@ -9441,7 +9441,7 @@
         <v>14</v>
       </c>
       <c r="E258" s="2">
-        <v>44786.20833333334</v>
+        <v>44786.2083333333</v>
       </c>
       <c r="F258">
         <v>1035.05</v>
@@ -9511,7 +9511,7 @@
         <v>14</v>
       </c>
       <c r="E260" s="2">
-        <v>44786.29166666666</v>
+        <v>44786.2916666667</v>
       </c>
       <c r="F260">
         <v>1036.325</v>
@@ -9546,7 +9546,7 @@
         <v>14</v>
       </c>
       <c r="E261" s="2">
-        <v>44786.33333333334</v>
+        <v>44786.3333333333</v>
       </c>
       <c r="F261">
         <v>1036.075</v>
@@ -9616,7 +9616,7 @@
         <v>14</v>
       </c>
       <c r="E263" s="2">
-        <v>44786.41666666666</v>
+        <v>44786.4166666667</v>
       </c>
       <c r="F263">
         <v>1035.875</v>
@@ -9651,7 +9651,7 @@
         <v>14</v>
       </c>
       <c r="E264" s="2">
-        <v>44786.45833333334</v>
+        <v>44786.4583333333</v>
       </c>
       <c r="F264">
         <v>1035.45</v>
@@ -9721,7 +9721,7 @@
         <v>14</v>
       </c>
       <c r="E266" s="2">
-        <v>44786.54166666666</v>
+        <v>44786.5416666667</v>
       </c>
       <c r="F266">
         <v>1034.075</v>
@@ -9756,7 +9756,7 @@
         <v>14</v>
       </c>
       <c r="E267" s="2">
-        <v>44786.58333333334</v>
+        <v>44786.5833333333</v>
       </c>
       <c r="F267">
         <v>1034.2</v>
@@ -9826,7 +9826,7 @@
         <v>14</v>
       </c>
       <c r="E269" s="2">
-        <v>44786.66666666666</v>
+        <v>44786.6666666667</v>
       </c>
       <c r="F269">
         <v>1032.8</v>
@@ -9861,7 +9861,7 @@
         <v>14</v>
       </c>
       <c r="E270" s="2">
-        <v>44786.70833333334</v>
+        <v>44786.7083333333</v>
       </c>
       <c r="F270">
         <v>1032.05</v>
@@ -9931,7 +9931,7 @@
         <v>14</v>
       </c>
       <c r="E272" s="2">
-        <v>44786.79166666666</v>
+        <v>44786.7916666667</v>
       </c>
       <c r="F272">
         <v>1031.925</v>
@@ -9966,7 +9966,7 @@
         <v>14</v>
       </c>
       <c r="E273" s="2">
-        <v>44786.83333333334</v>
+        <v>44786.8333333333</v>
       </c>
       <c r="F273">
         <v>1031.425</v>
@@ -10036,7 +10036,7 @@
         <v>14</v>
       </c>
       <c r="E275" s="2">
-        <v>44786.91666666666</v>
+        <v>44786.9166666667</v>
       </c>
       <c r="F275">
         <v>1031.425</v>
@@ -10071,7 +10071,7 @@
         <v>14</v>
       </c>
       <c r="E276" s="2">
-        <v>44786.95833333334</v>
+        <v>44786.9583333333</v>
       </c>
       <c r="F276">
         <v>1031.425</v>
@@ -10141,7 +10141,7 @@
         <v>14</v>
       </c>
       <c r="E278" s="2">
-        <v>44787.04166666666</v>
+        <v>44787.0416666667</v>
       </c>
       <c r="F278">
         <v>1030.425</v>
@@ -10176,7 +10176,7 @@
         <v>14</v>
       </c>
       <c r="E279" s="2">
-        <v>44787.08333333334</v>
+        <v>44787.0833333333</v>
       </c>
       <c r="F279">
         <v>1029.675</v>
@@ -10246,7 +10246,7 @@
         <v>14</v>
       </c>
       <c r="E281" s="2">
-        <v>44787.16666666666</v>
+        <v>44787.1666666667</v>
       </c>
       <c r="F281">
         <v>1028.875</v>
@@ -10281,7 +10281,7 @@
         <v>14</v>
       </c>
       <c r="E282" s="2">
-        <v>44787.20833333334</v>
+        <v>44787.2083333333</v>
       </c>
       <c r="F282">
         <v>1028.625</v>
@@ -10351,7 +10351,7 @@
         <v>14</v>
       </c>
       <c r="E284" s="2">
-        <v>44787.29166666666</v>
+        <v>44787.2916666667</v>
       </c>
       <c r="F284">
         <v>1029.175</v>
@@ -10386,7 +10386,7 @@
         <v>14</v>
       </c>
       <c r="E285" s="2">
-        <v>44787.33333333334</v>
+        <v>44787.3333333333</v>
       </c>
       <c r="F285">
         <v>1029.05</v>
@@ -10456,7 +10456,7 @@
         <v>14</v>
       </c>
       <c r="E287" s="2">
-        <v>44787.41666666666</v>
+        <v>44787.4166666667</v>
       </c>
       <c r="F287">
         <v>1027.8</v>
@@ -10491,7 +10491,7 @@
         <v>14</v>
       </c>
       <c r="E288" s="2">
-        <v>44787.45833333334</v>
+        <v>44787.4583333333</v>
       </c>
       <c r="F288">
         <v>1027.05</v>
@@ -10561,7 +10561,7 @@
         <v>14</v>
       </c>
       <c r="E290" s="2">
-        <v>44787.54166666666</v>
+        <v>44787.5416666667</v>
       </c>
       <c r="F290">
         <v>1025.475</v>
@@ -10596,7 +10596,7 @@
         <v>14</v>
       </c>
       <c r="E291" s="2">
-        <v>44787.58333333334</v>
+        <v>44787.5833333333</v>
       </c>
       <c r="F291">
         <v>1025.225</v>
@@ -10666,7 +10666,7 @@
         <v>14</v>
       </c>
       <c r="E293" s="2">
-        <v>44787.66666666666</v>
+        <v>44787.6666666667</v>
       </c>
       <c r="F293">
         <v>1023.85</v>
@@ -10701,7 +10701,7 @@
         <v>14</v>
       </c>
       <c r="E294" s="2">
-        <v>44787.70833333334</v>
+        <v>44787.7083333333</v>
       </c>
       <c r="F294">
         <v>1023.725</v>
@@ -10771,7 +10771,7 @@
         <v>14</v>
       </c>
       <c r="E296" s="2">
-        <v>44787.79166666666</v>
+        <v>44787.7916666667</v>
       </c>
       <c r="F296">
         <v>1023.15</v>
@@ -10806,7 +10806,7 @@
         <v>14</v>
       </c>
       <c r="E297" s="2">
-        <v>44787.83333333334</v>
+        <v>44787.8333333333</v>
       </c>
       <c r="F297">
         <v>1023.425</v>
@@ -10876,7 +10876,7 @@
         <v>14</v>
       </c>
       <c r="E299" s="2">
-        <v>44787.91666666666</v>
+        <v>44787.9166666667</v>
       </c>
       <c r="F299">
         <v>1024.175</v>
@@ -10911,7 +10911,7 @@
         <v>14</v>
       </c>
       <c r="E300" s="2">
-        <v>44787.95833333334</v>
+        <v>44787.9583333333</v>
       </c>
       <c r="F300">
         <v>1024.625</v>
@@ -10981,7 +10981,7 @@
         <v>14</v>
       </c>
       <c r="E302" s="2">
-        <v>44788.04166666666</v>
+        <v>44788.0416666667</v>
       </c>
       <c r="F302">
         <v>1024</v>
@@ -11016,7 +11016,7 @@
         <v>14</v>
       </c>
       <c r="E303" s="2">
-        <v>44788.08333333334</v>
+        <v>44788.0833333333</v>
       </c>
       <c r="F303">
         <v>1023.675</v>
@@ -11086,7 +11086,7 @@
         <v>14</v>
       </c>
       <c r="E305" s="2">
-        <v>44788.16666666666</v>
+        <v>44788.1666666667</v>
       </c>
       <c r="F305">
         <v>1023.55</v>
@@ -11121,7 +11121,7 @@
         <v>14</v>
       </c>
       <c r="E306" s="2">
-        <v>44788.20833333334</v>
+        <v>44788.2083333333</v>
       </c>
       <c r="F306">
         <v>1023.5</v>
@@ -11191,7 +11191,7 @@
         <v>14</v>
       </c>
       <c r="E308" s="2">
-        <v>44788.29166666666</v>
+        <v>44788.2916666667</v>
       </c>
       <c r="F308">
         <v>1023.8</v>
@@ -11226,7 +11226,7 @@
         <v>14</v>
       </c>
       <c r="E309" s="2">
-        <v>44788.33333333334</v>
+        <v>44788.3333333333</v>
       </c>
       <c r="F309">
         <v>1024.3</v>
@@ -11296,7 +11296,7 @@
         <v>14</v>
       </c>
       <c r="E311" s="2">
-        <v>44788.41666666666</v>
+        <v>44788.4166666667</v>
       </c>
       <c r="F311">
         <v>1024.675</v>
@@ -11331,7 +11331,7 @@
         <v>14</v>
       </c>
       <c r="E312" s="2">
-        <v>44788.45833333334</v>
+        <v>44788.4583333333</v>
       </c>
       <c r="F312">
         <v>1023.725</v>
@@ -11401,7 +11401,7 @@
         <v>14</v>
       </c>
       <c r="E314" s="2">
-        <v>44788.54166666666</v>
+        <v>44788.5416666667</v>
       </c>
       <c r="F314">
         <v>1023.85</v>
@@ -11436,7 +11436,7 @@
         <v>14</v>
       </c>
       <c r="E315" s="2">
-        <v>44788.58333333334</v>
+        <v>44788.5833333333</v>
       </c>
       <c r="F315">
         <v>1023.025</v>
@@ -11506,7 +11506,7 @@
         <v>14</v>
       </c>
       <c r="E317" s="2">
-        <v>44788.66666666666</v>
+        <v>44788.6666666667</v>
       </c>
       <c r="F317">
         <v>1023.35</v>
@@ -11541,7 +11541,7 @@
         <v>14</v>
       </c>
       <c r="E318" s="2">
-        <v>44788.70833333334</v>
+        <v>44788.7083333333</v>
       </c>
       <c r="F318">
         <v>1022.85</v>
@@ -11611,7 +11611,7 @@
         <v>14</v>
       </c>
       <c r="E320" s="2">
-        <v>44788.79166666666</v>
+        <v>44788.7916666667</v>
       </c>
       <c r="F320">
         <v>1023.5</v>
@@ -11646,7 +11646,7 @@
         <v>14</v>
       </c>
       <c r="E321" s="2">
-        <v>44788.83333333334</v>
+        <v>44788.8333333333</v>
       </c>
       <c r="F321">
         <v>1024.05</v>
@@ -11716,7 +11716,7 @@
         <v>14</v>
       </c>
       <c r="E323" s="2">
-        <v>44788.91666666666</v>
+        <v>44788.9166666667</v>
       </c>
       <c r="F323">
         <v>1025.3</v>
@@ -11751,7 +11751,7 @@
         <v>14</v>
       </c>
       <c r="E324" s="2">
-        <v>44788.95833333334</v>
+        <v>44788.9583333333</v>
       </c>
       <c r="F324">
         <v>1025.8</v>
@@ -11821,7 +11821,7 @@
         <v>14</v>
       </c>
       <c r="E326" s="2">
-        <v>44789.04166666666</v>
+        <v>44789.0416666667</v>
       </c>
       <c r="F326">
         <v>1026.05</v>
@@ -11856,7 +11856,7 @@
         <v>14</v>
       </c>
       <c r="E327" s="2">
-        <v>44789.08333333334</v>
+        <v>44789.0833333333</v>
       </c>
       <c r="F327">
         <v>1025.75</v>
@@ -11926,7 +11926,7 @@
         <v>14</v>
       </c>
       <c r="E329" s="2">
-        <v>44789.16666666666</v>
+        <v>44789.1666666667</v>
       </c>
       <c r="F329">
         <v>1026.175</v>
@@ -11961,7 +11961,7 @@
         <v>14</v>
       </c>
       <c r="E330" s="2">
-        <v>44789.20833333334</v>
+        <v>44789.2083333333</v>
       </c>
       <c r="F330">
         <v>1026.3</v>
@@ -12031,7 +12031,7 @@
         <v>14</v>
       </c>
       <c r="E332" s="2">
-        <v>44789.29166666666</v>
+        <v>44789.2916666667</v>
       </c>
       <c r="F332">
         <v>1027.875</v>
@@ -12066,7 +12066,7 @@
         <v>14</v>
       </c>
       <c r="E333" s="2">
-        <v>44789.33333333334</v>
+        <v>44789.3333333333</v>
       </c>
       <c r="F333">
         <v>1027.5</v>
@@ -12136,7 +12136,7 @@
         <v>14</v>
       </c>
       <c r="E335" s="2">
-        <v>44789.41666666666</v>
+        <v>44789.4166666667</v>
       </c>
       <c r="F335">
         <v>1028.25</v>
@@ -12171,7 +12171,7 @@
         <v>14</v>
       </c>
       <c r="E336" s="2">
-        <v>44789.45833333334</v>
+        <v>44789.4583333333</v>
       </c>
       <c r="F336">
         <v>1028.925</v>
@@ -12241,7 +12241,7 @@
         <v>14</v>
       </c>
       <c r="E338" s="2">
-        <v>44789.54166666666</v>
+        <v>44789.5416666667</v>
       </c>
       <c r="F338">
         <v>1029.225</v>
@@ -12276,7 +12276,7 @@
         <v>14</v>
       </c>
       <c r="E339" s="2">
-        <v>44789.58333333334</v>
+        <v>44789.5833333333</v>
       </c>
       <c r="F339">
         <v>1028.475</v>
@@ -12346,7 +12346,7 @@
         <v>14</v>
       </c>
       <c r="E341" s="2">
-        <v>44789.66666666666</v>
+        <v>44789.6666666667</v>
       </c>
       <c r="F341">
         <v>1028.3</v>
@@ -12381,7 +12381,7 @@
         <v>14</v>
       </c>
       <c r="E342" s="2">
-        <v>44789.70833333334</v>
+        <v>44789.7083333333</v>
       </c>
       <c r="F342">
         <v>1028.35</v>
@@ -12451,7 +12451,7 @@
         <v>14</v>
       </c>
       <c r="E344" s="2">
-        <v>44789.79166666666</v>
+        <v>44789.7916666667</v>
       </c>
       <c r="F344">
         <v>1027.975</v>
@@ -12486,7 +12486,7 @@
         <v>14</v>
       </c>
       <c r="E345" s="2">
-        <v>44789.83333333334</v>
+        <v>44789.8333333333</v>
       </c>
       <c r="F345">
         <v>1028.375</v>
@@ -12556,7 +12556,7 @@
         <v>14</v>
       </c>
       <c r="E347" s="2">
-        <v>44789.91666666666</v>
+        <v>44789.9166666667</v>
       </c>
       <c r="F347">
         <v>1029.125</v>
@@ -12591,7 +12591,7 @@
         <v>14</v>
       </c>
       <c r="E348" s="2">
-        <v>44789.95833333334</v>
+        <v>44789.9583333333</v>
       </c>
       <c r="F348">
         <v>1030.425</v>
@@ -12661,7 +12661,7 @@
         <v>14</v>
       </c>
       <c r="E350" s="2">
-        <v>44790.04166666666</v>
+        <v>44790.0416666667</v>
       </c>
       <c r="F350">
         <v>1028.875</v>
@@ -12696,7 +12696,7 @@
         <v>14</v>
       </c>
       <c r="E351" s="2">
-        <v>44790.08333333334</v>
+        <v>44790.0833333333</v>
       </c>
       <c r="F351">
         <v>1028.625</v>
@@ -12766,7 +12766,7 @@
         <v>14</v>
       </c>
       <c r="E353" s="2">
-        <v>44790.16666666666</v>
+        <v>44790.1666666667</v>
       </c>
       <c r="F353">
         <v>1028.5</v>
@@ -12801,7 +12801,7 @@
         <v>14</v>
       </c>
       <c r="E354" s="2">
-        <v>44790.20833333334</v>
+        <v>44790.2083333333</v>
       </c>
       <c r="F354">
         <v>1029.125</v>
@@ -12871,7 +12871,7 @@
         <v>14</v>
       </c>
       <c r="E356" s="2">
-        <v>44790.29166666666</v>
+        <v>44790.2916666667</v>
       </c>
       <c r="F356">
         <v>1029.8</v>
@@ -12906,7 +12906,7 @@
         <v>14</v>
       </c>
       <c r="E357" s="2">
-        <v>44790.33333333334</v>
+        <v>44790.3333333333</v>
       </c>
       <c r="F357">
         <v>1030.375</v>
@@ -12976,7 +12976,7 @@
         <v>14</v>
       </c>
       <c r="E359" s="2">
-        <v>44790.41666666666</v>
+        <v>44790.4166666667</v>
       </c>
       <c r="F359">
         <v>1030.75</v>
@@ -13011,7 +13011,7 @@
         <v>14</v>
       </c>
       <c r="E360" s="2">
-        <v>44790.45833333334</v>
+        <v>44790.4583333333</v>
       </c>
       <c r="F360">
         <v>1030.8</v>
@@ -13081,7 +13081,7 @@
         <v>14</v>
       </c>
       <c r="E362" s="2">
-        <v>44790.54166666666</v>
+        <v>44790.5416666667</v>
       </c>
       <c r="F362">
         <v>1031.55</v>
@@ -13116,7 +13116,7 @@
         <v>14</v>
       </c>
       <c r="E363" s="2">
-        <v>44790.58333333334</v>
+        <v>44790.5833333333</v>
       </c>
       <c r="F363">
         <v>1031.625</v>
@@ -13186,7 +13186,7 @@
         <v>14</v>
       </c>
       <c r="E365" s="2">
-        <v>44790.66666666666</v>
+        <v>44790.6666666667</v>
       </c>
       <c r="F365">
         <v>1031.55</v>
@@ -13221,7 +13221,7 @@
         <v>14</v>
       </c>
       <c r="E366" s="2">
-        <v>44790.70833333334</v>
+        <v>44790.7083333333</v>
       </c>
       <c r="F366">
         <v>1032.05</v>
@@ -13291,7 +13291,7 @@
         <v>14</v>
       </c>
       <c r="E368" s="2">
-        <v>44790.79166666666</v>
+        <v>44790.7916666667</v>
       </c>
       <c r="F368">
         <v>1031.3</v>
@@ -13326,7 +13326,7 @@
         <v>14</v>
       </c>
       <c r="E369" s="2">
-        <v>44790.83333333334</v>
+        <v>44790.8333333333</v>
       </c>
       <c r="F369">
         <v>1031.55</v>
@@ -13396,7 +13396,7 @@
         <v>14</v>
       </c>
       <c r="E371" s="2">
-        <v>44790.91666666666</v>
+        <v>44790.9166666667</v>
       </c>
       <c r="F371">
         <v>1032.8</v>
@@ -13431,7 +13431,7 @@
         <v>14</v>
       </c>
       <c r="E372" s="2">
-        <v>44790.95833333334</v>
+        <v>44790.9583333333</v>
       </c>
       <c r="F372">
         <v>1033.25</v>
@@ -13501,7 +13501,7 @@
         <v>14</v>
       </c>
       <c r="E374" s="2">
-        <v>44791.04166666666</v>
+        <v>44791.0416666667</v>
       </c>
       <c r="F374">
         <v>1033</v>
@@ -13536,7 +13536,7 @@
         <v>14</v>
       </c>
       <c r="E375" s="2">
-        <v>44791.08333333334</v>
+        <v>44791.0833333333</v>
       </c>
       <c r="F375">
         <v>1033.05</v>
@@ -13606,7 +13606,7 @@
         <v>14</v>
       </c>
       <c r="E377" s="2">
-        <v>44791.16666666666</v>
+        <v>44791.1666666667</v>
       </c>
       <c r="F377">
         <v>1034</v>
@@ -13641,7 +13641,7 @@
         <v>14</v>
       </c>
       <c r="E378" s="2">
-        <v>44791.20833333334</v>
+        <v>44791.2083333333</v>
       </c>
       <c r="F378">
         <v>1033.625</v>
@@ -13711,7 +13711,7 @@
         <v>14</v>
       </c>
       <c r="E380" s="2">
-        <v>44791.29166666666</v>
+        <v>44791.2916666667</v>
       </c>
       <c r="F380">
         <v>1034.175</v>
@@ -13746,7 +13746,7 @@
         <v>14</v>
       </c>
       <c r="E381" s="2">
-        <v>44791.33333333334</v>
+        <v>44791.3333333333</v>
       </c>
       <c r="F381">
         <v>1034.5</v>
@@ -13816,7 +13816,7 @@
         <v>14</v>
       </c>
       <c r="E383" s="2">
-        <v>44791.41666666666</v>
+        <v>44791.4166666667</v>
       </c>
       <c r="F383">
         <v>1035.25</v>
@@ -13851,7 +13851,7 @@
         <v>14</v>
       </c>
       <c r="E384" s="2">
-        <v>44791.45833333334</v>
+        <v>44791.4583333333</v>
       </c>
       <c r="F384">
         <v>1035.075</v>
@@ -13921,7 +13921,7 @@
         <v>14</v>
       </c>
       <c r="E386" s="2">
-        <v>44791.54166666666</v>
+        <v>44791.5416666667</v>
       </c>
       <c r="F386">
         <v>1034.075</v>
@@ -13956,7 +13956,7 @@
         <v>14</v>
       </c>
       <c r="E387" s="2">
-        <v>44791.58333333334</v>
+        <v>44791.5833333333</v>
       </c>
       <c r="F387">
         <v>1033.825</v>
@@ -14026,7 +14026,7 @@
         <v>14</v>
       </c>
       <c r="E389" s="2">
-        <v>44791.66666666666</v>
+        <v>44791.6666666667</v>
       </c>
       <c r="F389">
         <v>1033.45</v>
@@ -14061,7 +14061,7 @@
         <v>14</v>
       </c>
       <c r="E390" s="2">
-        <v>44791.70833333334</v>
+        <v>44791.7083333333</v>
       </c>
       <c r="F390">
         <v>1033.575</v>
@@ -14131,7 +14131,7 @@
         <v>14</v>
       </c>
       <c r="E392" s="2">
-        <v>44791.79166666666</v>
+        <v>44791.7916666667</v>
       </c>
       <c r="F392">
         <v>1032.925</v>
@@ -14166,7 +14166,7 @@
         <v>14</v>
       </c>
       <c r="E393" s="2">
-        <v>44791.83333333334</v>
+        <v>44791.8333333333</v>
       </c>
       <c r="F393">
         <v>1033.25</v>
@@ -14236,7 +14236,7 @@
         <v>14</v>
       </c>
       <c r="E395" s="2">
-        <v>44791.91666666666</v>
+        <v>44791.9166666667</v>
       </c>
       <c r="F395">
         <v>1033.875</v>
@@ -14271,7 +14271,7 @@
         <v>14</v>
       </c>
       <c r="E396" s="2">
-        <v>44791.95833333334</v>
+        <v>44791.9583333333</v>
       </c>
       <c r="F396">
         <v>1033.925</v>
@@ -14341,7 +14341,7 @@
         <v>14</v>
       </c>
       <c r="E398" s="2">
-        <v>44792.04166666666</v>
+        <v>44792.0416666667</v>
       </c>
       <c r="F398">
         <v>1034</v>
@@ -14376,7 +14376,7 @@
         <v>14</v>
       </c>
       <c r="E399" s="2">
-        <v>44792.08333333334</v>
+        <v>44792.0833333333</v>
       </c>
       <c r="F399">
         <v>1034.175</v>
@@ -14446,7 +14446,7 @@
         <v>14</v>
       </c>
       <c r="E401" s="2">
-        <v>44792.16666666666</v>
+        <v>44792.1666666667</v>
       </c>
       <c r="F401">
         <v>1034.3</v>
@@ -14481,7 +14481,7 @@
         <v>14</v>
       </c>
       <c r="E402" s="2">
-        <v>44792.20833333334</v>
+        <v>44792.2083333333</v>
       </c>
       <c r="F402">
         <v>1034.25</v>
@@ -14551,7 +14551,7 @@
         <v>14</v>
       </c>
       <c r="E404" s="2">
-        <v>44792.29166666666</v>
+        <v>44792.2916666667</v>
       </c>
       <c r="F404">
         <v>1035.175</v>
@@ -14586,7 +14586,7 @@
         <v>14</v>
       </c>
       <c r="E405" s="2">
-        <v>44792.33333333334</v>
+        <v>44792.3333333333</v>
       </c>
       <c r="F405">
         <v>1035.175</v>
@@ -14656,7 +14656,7 @@
         <v>14</v>
       </c>
       <c r="E407" s="2">
-        <v>44792.41666666666</v>
+        <v>44792.4166666667</v>
       </c>
       <c r="F407">
         <v>1035.375</v>
@@ -14691,7 +14691,7 @@
         <v>14</v>
       </c>
       <c r="E408" s="2">
-        <v>44792.45833333334</v>
+        <v>44792.4583333333</v>
       </c>
       <c r="F408">
         <v>1035.8</v>
@@ -14761,7 +14761,7 @@
         <v>14</v>
       </c>
       <c r="E410" s="2">
-        <v>44792.54166666666</v>
+        <v>44792.5416666667</v>
       </c>
       <c r="F410">
         <v>1035.625</v>
@@ -14796,7 +14796,7 @@
         <v>14</v>
       </c>
       <c r="E411" s="2">
-        <v>44792.58333333334</v>
+        <v>44792.5833333333</v>
       </c>
       <c r="F411">
         <v>1036.075</v>
@@ -14866,7 +14866,7 @@
         <v>14</v>
       </c>
       <c r="E413" s="2">
-        <v>44792.66666666666</v>
+        <v>44792.6666666667</v>
       </c>
       <c r="F413">
         <v>1035.375</v>
@@ -14901,7 +14901,7 @@
         <v>14</v>
       </c>
       <c r="E414" s="2">
-        <v>44792.70833333334</v>
+        <v>44792.7083333333</v>
       </c>
       <c r="F414">
         <v>1034.8</v>
@@ -14971,7 +14971,7 @@
         <v>14</v>
       </c>
       <c r="E416" s="2">
-        <v>44792.79166666666</v>
+        <v>44792.7916666667</v>
       </c>
       <c r="F416">
         <v>1034.75</v>
@@ -15006,7 +15006,7 @@
         <v>14</v>
       </c>
       <c r="E417" s="2">
-        <v>44792.83333333334</v>
+        <v>44792.8333333333</v>
       </c>
       <c r="F417">
         <v>1035.375</v>
@@ -15076,7 +15076,7 @@
         <v>14</v>
       </c>
       <c r="E419" s="2">
-        <v>44792.91666666666</v>
+        <v>44792.9166666667</v>
       </c>
       <c r="F419">
         <v>1035.925</v>
@@ -15111,7 +15111,7 @@
         <v>14</v>
       </c>
       <c r="E420" s="2">
-        <v>44792.95833333334</v>
+        <v>44792.9583333333</v>
       </c>
       <c r="F420">
         <v>1035.75</v>
@@ -15181,7 +15181,7 @@
         <v>14</v>
       </c>
       <c r="E422" s="2">
-        <v>44793.04166666666</v>
+        <v>44793.0416666667</v>
       </c>
       <c r="F422">
         <v>1036.25</v>
@@ -15216,7 +15216,7 @@
         <v>14</v>
       </c>
       <c r="E423" s="2">
-        <v>44793.08333333334</v>
+        <v>44793.0833333333</v>
       </c>
       <c r="F423">
         <v>1036.05</v>
@@ -15286,7 +15286,7 @@
         <v>14</v>
       </c>
       <c r="E425" s="2">
-        <v>44793.16666666666</v>
+        <v>44793.1666666667</v>
       </c>
       <c r="F425">
         <v>1036.3</v>
@@ -15321,7 +15321,7 @@
         <v>14</v>
       </c>
       <c r="E426" s="2">
-        <v>44793.20833333334</v>
+        <v>44793.2083333333</v>
       </c>
       <c r="F426">
         <v>1036.55</v>
@@ -15391,7 +15391,7 @@
         <v>14</v>
       </c>
       <c r="E428" s="2">
-        <v>44793.29166666666</v>
+        <v>44793.2916666667</v>
       </c>
       <c r="F428">
         <v>1038.425</v>
@@ -15426,7 +15426,7 @@
         <v>14</v>
       </c>
       <c r="E429" s="2">
-        <v>44793.33333333334</v>
+        <v>44793.3333333333</v>
       </c>
       <c r="F429">
         <v>1038.825</v>
@@ -15496,7 +15496,7 @@
         <v>14</v>
       </c>
       <c r="E431" s="2">
-        <v>44793.41666666666</v>
+        <v>44793.4166666667</v>
       </c>
       <c r="F431">
         <v>1039.25</v>
@@ -15531,7 +15531,7 @@
         <v>14</v>
       </c>
       <c r="E432" s="2">
-        <v>44793.45833333334</v>
+        <v>44793.4583333333</v>
       </c>
       <c r="F432">
         <v>1038.95</v>
@@ -15601,7 +15601,7 @@
         <v>14</v>
       </c>
       <c r="E434" s="2">
-        <v>44793.54166666666</v>
+        <v>44793.5416666667</v>
       </c>
       <c r="F434">
         <v>1038.75</v>
@@ -15636,7 +15636,7 @@
         <v>14</v>
       </c>
       <c r="E435" s="2">
-        <v>44793.58333333334</v>
+        <v>44793.5833333333</v>
       </c>
       <c r="F435">
         <v>1038.5</v>
@@ -15706,7 +15706,7 @@
         <v>14</v>
       </c>
       <c r="E437" s="2">
-        <v>44793.66666666666</v>
+        <v>44793.6666666667</v>
       </c>
       <c r="F437">
         <v>1038.7</v>
@@ -15741,7 +15741,7 @@
         <v>14</v>
       </c>
       <c r="E438" s="2">
-        <v>44793.70833333334</v>
+        <v>44793.7083333333</v>
       </c>
       <c r="F438">
         <v>1037.575</v>
@@ -15811,7 +15811,7 @@
         <v>14</v>
       </c>
       <c r="E440" s="2">
-        <v>44793.79166666666</v>
+        <v>44793.7916666667</v>
       </c>
       <c r="F440">
         <v>1037.75</v>
@@ -15846,7 +15846,7 @@
         <v>14</v>
       </c>
       <c r="E441" s="2">
-        <v>44793.83333333334</v>
+        <v>44793.8333333333</v>
       </c>
       <c r="F441">
         <v>1037.675</v>
@@ -15916,7 +15916,7 @@
         <v>14</v>
       </c>
       <c r="E443" s="2">
-        <v>44793.91666666666</v>
+        <v>44793.9166666667</v>
       </c>
       <c r="F443">
         <v>1037.875</v>
@@ -15951,7 +15951,7 @@
         <v>14</v>
       </c>
       <c r="E444" s="2">
-        <v>44793.95833333334</v>
+        <v>44793.9583333333</v>
       </c>
       <c r="F444">
         <v>1037.875</v>
@@ -16021,7 +16021,7 @@
         <v>14</v>
       </c>
       <c r="E446" s="2">
-        <v>44794.04166666666</v>
+        <v>44794.0416666667</v>
       </c>
       <c r="F446">
         <v>1037.5</v>
@@ -16056,7 +16056,7 @@
         <v>14</v>
       </c>
       <c r="E447" s="2">
-        <v>44794.08333333334</v>
+        <v>44794.0833333333</v>
       </c>
       <c r="F447">
         <v>1037.425</v>
@@ -16126,7 +16126,7 @@
         <v>14</v>
       </c>
       <c r="E449" s="2">
-        <v>44794.16666666666</v>
+        <v>44794.1666666667</v>
       </c>
       <c r="F449">
         <v>1037.25</v>
@@ -16161,7 +16161,7 @@
         <v>14</v>
       </c>
       <c r="E450" s="2">
-        <v>44794.20833333334</v>
+        <v>44794.2083333333</v>
       </c>
       <c r="F450">
         <v>1037.05</v>
@@ -16231,7 +16231,7 @@
         <v>14</v>
       </c>
       <c r="E452" s="2">
-        <v>44794.29166666666</v>
+        <v>44794.2916666667</v>
       </c>
       <c r="F452">
         <v>1038.375</v>
@@ -16266,7 +16266,7 @@
         <v>14</v>
       </c>
       <c r="E453" s="2">
-        <v>44794.33333333334</v>
+        <v>44794.3333333333</v>
       </c>
       <c r="F453">
         <v>1038.25</v>
@@ -16336,7 +16336,7 @@
         <v>14</v>
       </c>
       <c r="E455" s="2">
-        <v>44794.41666666666</v>
+        <v>44794.4166666667</v>
       </c>
       <c r="F455">
         <v>1037.9</v>
@@ -16371,7 +16371,7 @@
         <v>14</v>
       </c>
       <c r="E456" s="2">
-        <v>44794.45833333334</v>
+        <v>44794.4583333333</v>
       </c>
       <c r="F456">
         <v>1037.25</v>
@@ -16441,7 +16441,7 @@
         <v>14</v>
       </c>
       <c r="E458" s="2">
-        <v>44794.54166666666</v>
+        <v>44794.5416666667</v>
       </c>
       <c r="F458">
         <v>1037.325</v>
@@ -16476,7 +16476,7 @@
         <v>14</v>
       </c>
       <c r="E459" s="2">
-        <v>44794.58333333334</v>
+        <v>44794.5833333333</v>
       </c>
       <c r="F459">
         <v>1036.875</v>
@@ -16546,7 +16546,7 @@
         <v>14</v>
       </c>
       <c r="E461" s="2">
-        <v>44794.66666666666</v>
+        <v>44794.6666666667</v>
       </c>
       <c r="F461">
         <v>1036.375</v>
@@ -16581,7 +16581,7 @@
         <v>14</v>
       </c>
       <c r="E462" s="2">
-        <v>44794.70833333334</v>
+        <v>44794.7083333333</v>
       </c>
       <c r="F462">
         <v>1036.4</v>
@@ -16651,7 +16651,7 @@
         <v>14</v>
       </c>
       <c r="E464" s="2">
-        <v>44794.79166666666</v>
+        <v>44794.7916666667</v>
       </c>
       <c r="F464">
         <v>1035.625</v>
@@ -16686,7 +16686,7 @@
         <v>14</v>
       </c>
       <c r="E465" s="2">
-        <v>44794.83333333334</v>
+        <v>44794.8333333333</v>
       </c>
       <c r="F465">
         <v>1036.075</v>
@@ -16756,7 +16756,7 @@
         <v>14</v>
       </c>
       <c r="E467" s="2">
-        <v>44794.91666666666</v>
+        <v>44794.9166666667</v>
       </c>
       <c r="F467">
         <v>1036.05</v>
@@ -16791,7 +16791,7 @@
         <v>14</v>
       </c>
       <c r="E468" s="2">
-        <v>44794.95833333334</v>
+        <v>44794.9583333333</v>
       </c>
       <c r="F468">
         <v>1036</v>
@@ -16861,7 +16861,7 @@
         <v>14</v>
       </c>
       <c r="E470" s="2">
-        <v>44795.04166666666</v>
+        <v>44795.0416666667</v>
       </c>
       <c r="F470">
         <v>1036.125</v>
@@ -16896,7 +16896,7 @@
         <v>14</v>
       </c>
       <c r="E471" s="2">
-        <v>44795.08333333334</v>
+        <v>44795.0833333333</v>
       </c>
       <c r="F471">
         <v>1035.675</v>
@@ -16966,7 +16966,7 @@
         <v>14</v>
       </c>
       <c r="E473" s="2">
-        <v>44795.16666666666</v>
+        <v>44795.1666666667</v>
       </c>
       <c r="F473">
         <v>1035.375</v>
@@ -17001,7 +17001,7 @@
         <v>14</v>
       </c>
       <c r="E474" s="2">
-        <v>44795.20833333334</v>
+        <v>44795.2083333333</v>
       </c>
       <c r="F474">
         <v>1035.175</v>
@@ -17071,7 +17071,7 @@
         <v>14</v>
       </c>
       <c r="E476" s="2">
-        <v>44795.29166666666</v>
+        <v>44795.2916666667</v>
       </c>
       <c r="F476">
         <v>1035.375</v>
@@ -17106,7 +17106,7 @@
         <v>14</v>
       </c>
       <c r="E477" s="2">
-        <v>44795.33333333334</v>
+        <v>44795.3333333333</v>
       </c>
       <c r="F477">
         <v>1036.125</v>
@@ -17176,7 +17176,7 @@
         <v>14</v>
       </c>
       <c r="E479" s="2">
-        <v>44795.41666666666</v>
+        <v>44795.4166666667</v>
       </c>
       <c r="F479">
         <v>1035.75</v>
@@ -17211,7 +17211,7 @@
         <v>14</v>
       </c>
       <c r="E480" s="2">
-        <v>44795.45833333334</v>
+        <v>44795.4583333333</v>
       </c>
       <c r="F480">
         <v>1035.125</v>
@@ -17281,7 +17281,7 @@
         <v>14</v>
       </c>
       <c r="E482" s="2">
-        <v>44795.54166666666</v>
+        <v>44795.5416666667</v>
       </c>
       <c r="F482">
         <v>1034.125</v>
@@ -17316,7 +17316,7 @@
         <v>14</v>
       </c>
       <c r="E483" s="2">
-        <v>44795.58333333334</v>
+        <v>44795.5833333333</v>
       </c>
       <c r="F483">
         <v>1033</v>
@@ -17386,7 +17386,7 @@
         <v>14</v>
       </c>
       <c r="E485" s="2">
-        <v>44795.66666666666</v>
+        <v>44795.6666666667</v>
       </c>
       <c r="F485">
         <v>1032.625</v>
@@ -17421,7 +17421,7 @@
         <v>14</v>
       </c>
       <c r="E486" s="2">
-        <v>44795.70833333334</v>
+        <v>44795.7083333333</v>
       </c>
       <c r="F486">
         <v>1032.175</v>
@@ -17491,7 +17491,7 @@
         <v>14</v>
       </c>
       <c r="E488" s="2">
-        <v>44795.79166666666</v>
+        <v>44795.7916666667</v>
       </c>
       <c r="F488">
         <v>1032.675</v>
@@ -17526,7 +17526,7 @@
         <v>14</v>
       </c>
       <c r="E489" s="2">
-        <v>44795.83333333334</v>
+        <v>44795.8333333333</v>
       </c>
       <c r="F489">
         <v>1033.3</v>
@@ -17596,7 +17596,7 @@
         <v>14</v>
       </c>
       <c r="E491" s="2">
-        <v>44795.91666666666</v>
+        <v>44795.9166666667</v>
       </c>
       <c r="F491">
         <v>1033.75</v>
@@ -17631,7 +17631,7 @@
         <v>14</v>
       </c>
       <c r="E492" s="2">
-        <v>44795.95833333334</v>
+        <v>44795.9583333333</v>
       </c>
       <c r="F492">
         <v>1034</v>
@@ -17701,7 +17701,7 @@
         <v>14</v>
       </c>
       <c r="E494" s="2">
-        <v>44796.04166666666</v>
+        <v>44796.0416666667</v>
       </c>
       <c r="F494">
         <v>1033.925</v>
@@ -17736,7 +17736,7 @@
         <v>14</v>
       </c>
       <c r="E495" s="2">
-        <v>44796.08333333334</v>
+        <v>44796.0833333333</v>
       </c>
       <c r="F495">
         <v>1033.625</v>
@@ -17806,7 +17806,7 @@
         <v>14</v>
       </c>
       <c r="E497" s="2">
-        <v>44796.16666666666</v>
+        <v>44796.1666666667</v>
       </c>
       <c r="F497">
         <v>1034</v>
@@ -17841,7 +17841,7 @@
         <v>14</v>
       </c>
       <c r="E498" s="2">
-        <v>44796.20833333334</v>
+        <v>44796.2083333333</v>
       </c>
       <c r="F498">
         <v>1034.55</v>
@@ -17911,7 +17911,7 @@
         <v>14</v>
       </c>
       <c r="E500" s="2">
-        <v>44796.29166666666</v>
+        <v>44796.2916666667</v>
       </c>
       <c r="F500">
         <v>1035.925</v>
@@ -17946,7 +17946,7 @@
         <v>14</v>
       </c>
       <c r="E501" s="2">
-        <v>44796.33333333334</v>
+        <v>44796.3333333333</v>
       </c>
       <c r="F501">
         <v>1035.925</v>
@@ -18016,7 +18016,7 @@
         <v>14</v>
       </c>
       <c r="E503" s="2">
-        <v>44796.41666666666</v>
+        <v>44796.4166666667</v>
       </c>
       <c r="F503">
         <v>1036.575</v>
@@ -18051,7 +18051,7 @@
         <v>14</v>
       </c>
       <c r="E504" s="2">
-        <v>44796.45833333334</v>
+        <v>44796.4583333333</v>
       </c>
       <c r="F504">
         <v>1035.575</v>
@@ -18121,7 +18121,7 @@
         <v>14</v>
       </c>
       <c r="E506" s="2">
-        <v>44796.54166666666</v>
+        <v>44796.5416666667</v>
       </c>
       <c r="F506">
         <v>1035.625</v>
@@ -18156,7 +18156,7 @@
         <v>14</v>
       </c>
       <c r="E507" s="2">
-        <v>44796.58333333334</v>
+        <v>44796.5833333333</v>
       </c>
       <c r="F507">
         <v>1035.95</v>
@@ -18226,7 +18226,7 @@
         <v>14</v>
       </c>
       <c r="E509" s="2">
-        <v>44796.66666666666</v>
+        <v>44796.6666666667</v>
       </c>
       <c r="F509">
         <v>1035.575</v>
@@ -18261,7 +18261,7 @@
         <v>14</v>
       </c>
       <c r="E510" s="2">
-        <v>44796.70833333334</v>
+        <v>44796.7083333333</v>
       </c>
       <c r="F510">
         <v>1035.375</v>
@@ -18331,7 +18331,7 @@
         <v>14</v>
       </c>
       <c r="E512" s="2">
-        <v>44796.79166666666</v>
+        <v>44796.7916666667</v>
       </c>
       <c r="F512">
         <v>1035.675</v>
@@ -18366,7 +18366,7 @@
         <v>14</v>
       </c>
       <c r="E513" s="2">
-        <v>44796.83333333334</v>
+        <v>44796.8333333333</v>
       </c>
       <c r="F513">
         <v>1036.575</v>
@@ -18436,7 +18436,7 @@
         <v>14</v>
       </c>
       <c r="E515" s="2">
-        <v>44796.91666666666</v>
+        <v>44796.9166666667</v>
       </c>
       <c r="F515">
         <v>1037</v>
@@ -18471,7 +18471,7 @@
         <v>14</v>
       </c>
       <c r="E516" s="2">
-        <v>44796.95833333334</v>
+        <v>44796.9583333333</v>
       </c>
       <c r="F516">
         <v>1037</v>
@@ -18541,7 +18541,7 @@
         <v>14</v>
       </c>
       <c r="E518" s="2">
-        <v>44797.04166666666</v>
+        <v>44797.0416666667</v>
       </c>
       <c r="F518">
         <v>1037.05</v>
@@ -18576,7 +18576,7 @@
         <v>14</v>
       </c>
       <c r="E519" s="2">
-        <v>44797.08333333334</v>
+        <v>44797.0833333333</v>
       </c>
       <c r="F519">
         <v>1037.25</v>
@@ -18646,7 +18646,7 @@
         <v>14</v>
       </c>
       <c r="E521" s="2">
-        <v>44797.16666666666</v>
+        <v>44797.1666666667</v>
       </c>
       <c r="F521">
         <v>1037.25</v>
@@ -18681,7 +18681,7 @@
         <v>14</v>
       </c>
       <c r="E522" s="2">
-        <v>44797.20833333334</v>
+        <v>44797.2083333333</v>
       </c>
       <c r="F522">
         <v>1037.3</v>
@@ -18751,7 +18751,7 @@
         <v>14</v>
       </c>
       <c r="E524" s="2">
-        <v>44797.29166666666</v>
+        <v>44797.2916666667</v>
       </c>
       <c r="F524">
         <v>1038.375</v>
@@ -18786,7 +18786,7 @@
         <v>14</v>
       </c>
       <c r="E525" s="2">
-        <v>44797.33333333334</v>
+        <v>44797.3333333333</v>
       </c>
       <c r="F525">
         <v>1038.825</v>
@@ -18856,7 +18856,7 @@
         <v>14</v>
       </c>
       <c r="E527" s="2">
-        <v>44797.41666666666</v>
+        <v>44797.4166666667</v>
       </c>
       <c r="F527">
         <v>1038.9</v>
@@ -18891,7 +18891,7 @@
         <v>14</v>
       </c>
       <c r="E528" s="2">
-        <v>44797.45833333334</v>
+        <v>44797.4583333333</v>
       </c>
       <c r="F528">
         <v>1038.525</v>
@@ -18961,7 +18961,7 @@
         <v>14</v>
       </c>
       <c r="E530" s="2">
-        <v>44797.54166666666</v>
+        <v>44797.5416666667</v>
       </c>
       <c r="F530">
         <v>1037.2</v>
@@ -18996,7 +18996,7 @@
         <v>14</v>
       </c>
       <c r="E531" s="2">
-        <v>44797.58333333334</v>
+        <v>44797.5833333333</v>
       </c>
       <c r="F531">
         <v>1036.65</v>
@@ -19066,7 +19066,7 @@
         <v>14</v>
       </c>
       <c r="E533" s="2">
-        <v>44797.66666666666</v>
+        <v>44797.6666666667</v>
       </c>
       <c r="F533">
         <v>1036.275</v>
@@ -19101,7 +19101,7 @@
         <v>14</v>
       </c>
       <c r="E534" s="2">
-        <v>44797.70833333334</v>
+        <v>44797.7083333333</v>
       </c>
       <c r="F534">
         <v>1035.95</v>
@@ -19171,7 +19171,7 @@
         <v>14</v>
       </c>
       <c r="E536" s="2">
-        <v>44797.79166666666</v>
+        <v>44797.7916666667</v>
       </c>
       <c r="F536">
         <v>1035.825</v>
@@ -19206,7 +19206,7 @@
         <v>14</v>
       </c>
       <c r="E537" s="2">
-        <v>44797.83333333334</v>
+        <v>44797.8333333333</v>
       </c>
       <c r="F537">
         <v>1036.2</v>
@@ -19276,7 +19276,7 @@
         <v>14</v>
       </c>
       <c r="E539" s="2">
-        <v>44797.91666666666</v>
+        <v>44797.9166666667</v>
       </c>
       <c r="F539">
         <v>1036.125</v>
@@ -19311,7 +19311,7 @@
         <v>14</v>
       </c>
       <c r="E540" s="2">
-        <v>44797.95833333334</v>
+        <v>44797.9583333333</v>
       </c>
       <c r="F540">
         <v>1036.25</v>
@@ -19381,7 +19381,7 @@
         <v>14</v>
       </c>
       <c r="E542" s="2">
-        <v>44798.04166666666</v>
+        <v>44798.0416666667</v>
       </c>
       <c r="F542">
         <v>1035.8</v>
@@ -19416,7 +19416,7 @@
         <v>14</v>
       </c>
       <c r="E543" s="2">
-        <v>44798.08333333334</v>
+        <v>44798.0833333333</v>
       </c>
       <c r="F543">
         <v>1035.175</v>
@@ -19486,7 +19486,7 @@
         <v>14</v>
       </c>
       <c r="E545" s="2">
-        <v>44798.16666666666</v>
+        <v>44798.1666666667</v>
       </c>
       <c r="F545">
         <v>1034.8</v>
@@ -19521,7 +19521,7 @@
         <v>14</v>
       </c>
       <c r="E546" s="2">
-        <v>44798.20833333334</v>
+        <v>44798.2083333333</v>
       </c>
       <c r="F546">
         <v>1034.175</v>
@@ -19591,7 +19591,7 @@
         <v>14</v>
       </c>
       <c r="E548" s="2">
-        <v>44798.29166666666</v>
+        <v>44798.2916666667</v>
       </c>
       <c r="F548">
         <v>1035.425</v>
@@ -19626,7 +19626,7 @@
         <v>14</v>
       </c>
       <c r="E549" s="2">
-        <v>44798.33333333334</v>
+        <v>44798.3333333333</v>
       </c>
       <c r="F549">
         <v>1035.05</v>
@@ -19696,7 +19696,7 @@
         <v>14</v>
       </c>
       <c r="E551" s="2">
-        <v>44798.41666666666</v>
+        <v>44798.4166666667</v>
       </c>
       <c r="F551">
         <v>1034.95</v>
@@ -19731,7 +19731,7 @@
         <v>14</v>
       </c>
       <c r="E552" s="2">
-        <v>44798.45833333334</v>
+        <v>44798.4583333333</v>
       </c>
       <c r="F552">
         <v>1034</v>
@@ -19801,7 +19801,7 @@
         <v>14</v>
       </c>
       <c r="E554" s="2">
-        <v>44798.54166666666</v>
+        <v>44798.5416666667</v>
       </c>
       <c r="F554">
         <v>1033.325</v>
@@ -19836,7 +19836,7 @@
         <v>14</v>
       </c>
       <c r="E555" s="2">
-        <v>44798.58333333334</v>
+        <v>44798.5833333333</v>
       </c>
       <c r="F555">
         <v>1033.5</v>
@@ -19906,7 +19906,7 @@
         <v>14</v>
       </c>
       <c r="E557" s="2">
-        <v>44798.66666666666</v>
+        <v>44798.6666666667</v>
       </c>
       <c r="F557">
         <v>1033.95</v>
@@ -19941,7 +19941,7 @@
         <v>14</v>
       </c>
       <c r="E558" s="2">
-        <v>44798.70833333334</v>
+        <v>44798.7083333333</v>
       </c>
       <c r="F558">
         <v>1034.2</v>
@@ -20011,7 +20011,7 @@
         <v>14</v>
       </c>
       <c r="E560" s="2">
-        <v>44798.79166666666</v>
+        <v>44798.7916666667</v>
       </c>
       <c r="F560">
         <v>1034.425</v>
@@ -20046,7 +20046,7 @@
         <v>14</v>
       </c>
       <c r="E561" s="2">
-        <v>44798.83333333334</v>
+        <v>44798.8333333333</v>
       </c>
       <c r="F561">
         <v>1035.05</v>
@@ -20116,7 +20116,7 @@
         <v>14</v>
       </c>
       <c r="E563" s="2">
-        <v>44798.91666666666</v>
+        <v>44798.9166666667</v>
       </c>
       <c r="F563">
         <v>1036</v>
@@ -20151,7 +20151,7 @@
         <v>14</v>
       </c>
       <c r="E564" s="2">
-        <v>44798.95833333334</v>
+        <v>44798.9583333333</v>
       </c>
       <c r="F564">
         <v>1036.55</v>
@@ -20221,7 +20221,7 @@
         <v>14</v>
       </c>
       <c r="E566" s="2">
-        <v>44799.04166666666</v>
+        <v>44799.0416666667</v>
       </c>
       <c r="F566">
         <v>1036.575</v>
@@ -20256,7 +20256,7 @@
         <v>14</v>
       </c>
       <c r="E567" s="2">
-        <v>44799.08333333334</v>
+        <v>44799.0833333333</v>
       </c>
       <c r="F567">
         <v>1036.625</v>
@@ -20326,7 +20326,7 @@
         <v>14</v>
       </c>
       <c r="E569" s="2">
-        <v>44799.16666666666</v>
+        <v>44799.1666666667</v>
       </c>
       <c r="F569">
         <v>1036.925</v>
@@ -20361,7 +20361,7 @@
         <v>14</v>
       </c>
       <c r="E570" s="2">
-        <v>44799.20833333334</v>
+        <v>44799.2083333333</v>
       </c>
       <c r="F570">
         <v>1036.55</v>
@@ -20431,7 +20431,7 @@
         <v>14</v>
       </c>
       <c r="E572" s="2">
-        <v>44799.29166666666</v>
+        <v>44799.2916666667</v>
       </c>
       <c r="F572">
         <v>1037.125</v>
@@ -20466,7 +20466,7 @@
         <v>14</v>
       </c>
       <c r="E573" s="2">
-        <v>44799.33333333334</v>
+        <v>44799.3333333333</v>
       </c>
       <c r="F573">
         <v>1037.825</v>
@@ -20536,7 +20536,7 @@
         <v>14</v>
       </c>
       <c r="E575" s="2">
-        <v>44799.41666666666</v>
+        <v>44799.4166666667</v>
       </c>
       <c r="F575">
         <v>1038.325</v>
@@ -20571,7 +20571,7 @@
         <v>14</v>
       </c>
       <c r="E576" s="2">
-        <v>44799.45833333334</v>
+        <v>44799.4583333333</v>
       </c>
       <c r="F576">
         <v>1038</v>
@@ -20641,7 +20641,7 @@
         <v>14</v>
       </c>
       <c r="E578" s="2">
-        <v>44799.54166666666</v>
+        <v>44799.5416666667</v>
       </c>
       <c r="F578">
         <v>1037.875</v>
@@ -20676,7 +20676,7 @@
         <v>14</v>
       </c>
       <c r="E579" s="2">
-        <v>44799.58333333334</v>
+        <v>44799.5833333333</v>
       </c>
       <c r="F579">
         <v>1037.5</v>
@@ -20746,7 +20746,7 @@
         <v>14</v>
       </c>
       <c r="E581" s="2">
-        <v>44799.66666666666</v>
+        <v>44799.6666666667</v>
       </c>
       <c r="F581">
         <v>1036.75</v>
@@ -20781,7 +20781,7 @@
         <v>14</v>
       </c>
       <c r="E582" s="2">
-        <v>44799.70833333334</v>
+        <v>44799.7083333333</v>
       </c>
       <c r="F582">
         <v>1037.125</v>
@@ -20851,7 +20851,7 @@
         <v>14</v>
       </c>
       <c r="E584" s="2">
-        <v>44799.79166666666</v>
+        <v>44799.7916666667</v>
       </c>
       <c r="F584">
         <v>1036.825</v>
@@ -20886,7 +20886,7 @@
         <v>14</v>
       </c>
       <c r="E585" s="2">
-        <v>44799.83333333334</v>
+        <v>44799.8333333333</v>
       </c>
       <c r="F585">
         <v>1036.8</v>
@@ -20956,7 +20956,7 @@
         <v>14</v>
       </c>
       <c r="E587" s="2">
-        <v>44799.91666666666</v>
+        <v>44799.9166666667</v>
       </c>
       <c r="F587">
         <v>1037.75</v>
@@ -20991,7 +20991,7 @@
         <v>14</v>
       </c>
       <c r="E588" s="2">
-        <v>44799.95833333334</v>
+        <v>44799.9583333333</v>
       </c>
       <c r="F588">
         <v>1037.875</v>
@@ -21061,7 +21061,7 @@
         <v>14</v>
       </c>
       <c r="E590" s="2">
-        <v>44800.04166666666</v>
+        <v>44800.0416666667</v>
       </c>
       <c r="F590">
         <v>1037.8</v>
@@ -21096,7 +21096,7 @@
         <v>14</v>
       </c>
       <c r="E591" s="2">
-        <v>44800.08333333334</v>
+        <v>44800.0833333333</v>
       </c>
       <c r="F591">
         <v>1038</v>
@@ -21166,7 +21166,7 @@
         <v>14</v>
       </c>
       <c r="E593" s="2">
-        <v>44800.16666666666</v>
+        <v>44800.1666666667</v>
       </c>
       <c r="F593">
         <v>1037.75</v>
@@ -21201,7 +21201,7 @@
         <v>14</v>
       </c>
       <c r="E594" s="2">
-        <v>44800.20833333334</v>
+        <v>44800.2083333333</v>
       </c>
       <c r="F594">
         <v>1037.55</v>
@@ -21236,7 +21236,7 @@
         <v>14</v>
       </c>
       <c r="E595" s="2">
-        <v>44800.41666666666</v>
+        <v>44800.4166666667</v>
       </c>
       <c r="F595">
         <v>1038.2</v>
@@ -21271,7 +21271,7 @@
         <v>14</v>
       </c>
       <c r="E596" s="2">
-        <v>44800.66666666666</v>
+        <v>44800.6666666667</v>
       </c>
       <c r="F596">
         <v>1036.875</v>
@@ -21306,7 +21306,7 @@
         <v>14</v>
       </c>
       <c r="E597" s="2">
-        <v>44800.70833333334</v>
+        <v>44800.7083333333</v>
       </c>
       <c r="F597">
         <v>1037</v>
@@ -21376,7 +21376,7 @@
         <v>14</v>
       </c>
       <c r="E599" s="2">
-        <v>44800.79166666666</v>
+        <v>44800.7916666667</v>
       </c>
       <c r="F599">
         <v>1037.25</v>
@@ -21446,7 +21446,7 @@
         <v>14</v>
       </c>
       <c r="E601" s="2">
-        <v>44800.91666666666</v>
+        <v>44800.9166666667</v>
       </c>
       <c r="F601">
         <v>1038.5</v>
@@ -21481,7 +21481,7 @@
         <v>14</v>
       </c>
       <c r="E602" s="2">
-        <v>44800.95833333334</v>
+        <v>44800.9583333333</v>
       </c>
       <c r="F602">
         <v>1038.55</v>
@@ -21551,7 +21551,7 @@
         <v>14</v>
       </c>
       <c r="E604" s="2">
-        <v>44801.04166666666</v>
+        <v>44801.0416666667</v>
       </c>
       <c r="F604">
         <v>1038.875</v>
@@ -21621,7 +21621,7 @@
         <v>14</v>
       </c>
       <c r="E606" s="2">
-        <v>44801.16666666666</v>
+        <v>44801.1666666667</v>
       </c>
       <c r="F606">
         <v>1039.375</v>
@@ -21656,7 +21656,7 @@
         <v>14</v>
       </c>
       <c r="E607" s="2">
-        <v>44801.20833333334</v>
+        <v>44801.2083333333</v>
       </c>
       <c r="F607">
         <v>1039.55</v>
@@ -21726,7 +21726,7 @@
         <v>14</v>
       </c>
       <c r="E609" s="2">
-        <v>44801.54166666666</v>
+        <v>44801.5416666667</v>
       </c>
       <c r="F609">
         <v>1040.825</v>
@@ -21761,7 +21761,7 @@
         <v>14</v>
       </c>
       <c r="E610" s="2">
-        <v>44801.66666666666</v>
+        <v>44801.6666666667</v>
       </c>
       <c r="F610">
         <v>1040.225</v>
@@ -21796,7 +21796,7 @@
         <v>14</v>
       </c>
       <c r="E611" s="2">
-        <v>44801.70833333334</v>
+        <v>44801.7083333333</v>
       </c>
       <c r="F611">
         <v>1039.625</v>
@@ -21866,7 +21866,7 @@
         <v>14</v>
       </c>
       <c r="E613" s="2">
-        <v>44801.79166666666</v>
+        <v>44801.7916666667</v>
       </c>
       <c r="F613">
         <v>1039.7</v>
@@ -21901,7 +21901,7 @@
         <v>14</v>
       </c>
       <c r="E614" s="2">
-        <v>44801.83333333334</v>
+        <v>44801.8333333333</v>
       </c>
       <c r="F614">
         <v>1040.425</v>
@@ -21971,7 +21971,7 @@
         <v>14</v>
       </c>
       <c r="E616" s="2">
-        <v>44801.91666666666</v>
+        <v>44801.9166666667</v>
       </c>
       <c r="F616">
         <v>1041.175</v>
@@ -22006,7 +22006,7 @@
         <v>14</v>
       </c>
       <c r="E617" s="2">
-        <v>44801.95833333334</v>
+        <v>44801.9583333333</v>
       </c>
       <c r="F617">
         <v>1041.425</v>
@@ -22076,7 +22076,7 @@
         <v>14</v>
       </c>
       <c r="E619" s="2">
-        <v>44802.04166666666</v>
+        <v>44802.0416666667</v>
       </c>
       <c r="F619">
         <v>1041.675</v>
@@ -22111,7 +22111,7 @@
         <v>14</v>
       </c>
       <c r="E620" s="2">
-        <v>44802.08333333334</v>
+        <v>44802.0833333333</v>
       </c>
       <c r="F620">
         <v>1041.625</v>
@@ -22181,7 +22181,7 @@
         <v>14</v>
       </c>
       <c r="E622" s="2">
-        <v>44802.79166666666</v>
+        <v>44802.7916666667</v>
       </c>
       <c r="F622">
         <v>1039.5</v>
@@ -22216,7 +22216,7 @@
         <v>14</v>
       </c>
       <c r="E623" s="2">
-        <v>44802.83333333334</v>
+        <v>44802.8333333333</v>
       </c>
       <c r="F623">
         <v>1039.625</v>
@@ -22251,7 +22251,7 @@
         <v>14</v>
       </c>
       <c r="E624" s="2">
-        <v>44803.20833333334</v>
+        <v>44803.2083333333</v>
       </c>
       <c r="F624">
         <v>1039.5</v>
@@ -22286,7 +22286,7 @@
         <v>14</v>
       </c>
       <c r="E625" s="2">
-        <v>44803.54166666666</v>
+        <v>44803.5416666667</v>
       </c>
       <c r="F625">
         <v>1039.475</v>
@@ -22321,7 +22321,7 @@
         <v>14</v>
       </c>
       <c r="E626" s="2">
-        <v>44803.70833333334</v>
+        <v>44803.7083333333</v>
       </c>
       <c r="F626">
         <v>1038.2</v>
@@ -22391,7 +22391,7 @@
         <v>14</v>
       </c>
       <c r="E628" s="2">
-        <v>44803.79166666666</v>
+        <v>44803.7916666667</v>
       </c>
       <c r="F628">
         <v>1038.875</v>
@@ -22426,7 +22426,7 @@
         <v>14</v>
       </c>
       <c r="E629" s="2">
-        <v>44803.83333333334</v>
+        <v>44803.8333333333</v>
       </c>
       <c r="F629">
         <v>1039.5</v>
@@ -22496,7 +22496,7 @@
         <v>14</v>
       </c>
       <c r="E631" s="2">
-        <v>44803.91666666666</v>
+        <v>44803.9166666667</v>
       </c>
       <c r="F631">
         <v>1040.25</v>
@@ -22531,7 +22531,7 @@
         <v>14</v>
       </c>
       <c r="E632" s="2">
-        <v>44803.95833333334</v>
+        <v>44803.9583333333</v>
       </c>
       <c r="F632">
         <v>1040.25</v>
@@ -22601,7 +22601,7 @@
         <v>14</v>
       </c>
       <c r="E634" s="2">
-        <v>44804.04166666666</v>
+        <v>44804.0416666667</v>
       </c>
       <c r="F634">
         <v>1040.3</v>
@@ -22636,7 +22636,7 @@
         <v>14</v>
       </c>
       <c r="E635" s="2">
-        <v>44804.08333333334</v>
+        <v>44804.0833333333</v>
       </c>
       <c r="F635">
         <v>1040.05</v>
@@ -22706,7 +22706,7 @@
         <v>14</v>
       </c>
       <c r="E637" s="2">
-        <v>44804.16666666666</v>
+        <v>44804.1666666667</v>
       </c>
       <c r="F637">
         <v>1040</v>
@@ -22741,7 +22741,7 @@
         <v>14</v>
       </c>
       <c r="E638" s="2">
-        <v>44804.20833333334</v>
+        <v>44804.2083333333</v>
       </c>
       <c r="F638">
         <v>1040.3</v>
@@ -22811,7 +22811,7 @@
         <v>14</v>
       </c>
       <c r="E640" s="2">
-        <v>44804.29166666666</v>
+        <v>44804.2916666667</v>
       </c>
       <c r="F640">
         <v>1040.75</v>
@@ -22846,7 +22846,7 @@
         <v>14</v>
       </c>
       <c r="E641" s="2">
-        <v>44804.54166666666</v>
+        <v>44804.5416666667</v>
       </c>
       <c r="F641">
         <v>1040.475</v>
@@ -22916,7 +22916,7 @@
         <v>14</v>
       </c>
       <c r="E643" s="2">
-        <v>44804.66666666666</v>
+        <v>44804.6666666667</v>
       </c>
       <c r="F643">
         <v>1039.475</v>
@@ -22951,7 +22951,7 @@
         <v>14</v>
       </c>
       <c r="E644" s="2">
-        <v>44804.70833333334</v>
+        <v>44804.7083333333</v>
       </c>
       <c r="F644">
         <v>1039.1</v>
@@ -23021,7 +23021,7 @@
         <v>14</v>
       </c>
       <c r="E646" s="2">
-        <v>44804.79166666666</v>
+        <v>44804.7916666667</v>
       </c>
       <c r="F646">
         <v>1038.575</v>
@@ -23056,7 +23056,7 @@
         <v>14</v>
       </c>
       <c r="E647" s="2">
-        <v>44804.83333333334</v>
+        <v>44804.8333333333</v>
       </c>
       <c r="F647">
         <v>1039.075</v>
@@ -23126,7 +23126,7 @@
         <v>14</v>
       </c>
       <c r="E649" s="2">
-        <v>44804.91666666666</v>
+        <v>44804.9166666667</v>
       </c>
       <c r="F649">
         <v>1039.325</v>
@@ -23161,7 +23161,7 @@
         <v>14</v>
       </c>
       <c r="E650" s="2">
-        <v>44804.95833333334</v>
+        <v>44804.9583333333</v>
       </c>
       <c r="F650">
         <v>1039.425</v>
@@ -23231,7 +23231,7 @@
         <v>14</v>
       </c>
       <c r="E652" s="2">
-        <v>44805.04166666666</v>
+        <v>44805.0416666667</v>
       </c>
       <c r="F652">
         <v>1039.05</v>
@@ -23266,7 +23266,7 @@
         <v>14</v>
       </c>
       <c r="E653" s="2">
-        <v>44805.08333333334</v>
+        <v>44805.0833333333</v>
       </c>
       <c r="F653">
         <v>1039.25</v>
@@ -23336,7 +23336,7 @@
         <v>14</v>
       </c>
       <c r="E655" s="2">
-        <v>44805.16666666666</v>
+        <v>44805.1666666667</v>
       </c>
       <c r="F655">
         <v>1038.925</v>
@@ -23371,7 +23371,7 @@
         <v>14</v>
       </c>
       <c r="E656" s="2">
-        <v>44805.20833333334</v>
+        <v>44805.2083333333</v>
       </c>
       <c r="F656">
         <v>1038.75</v>
@@ -23511,7 +23511,7 @@
         <v>14</v>
       </c>
       <c r="E660" s="2">
-        <v>44805.70833333334</v>
+        <v>44805.7083333333</v>
       </c>
       <c r="F660">
         <v>1036.4</v>
@@ -23581,7 +23581,7 @@
         <v>14</v>
       </c>
       <c r="E662" s="2">
-        <v>44805.79166666666</v>
+        <v>44805.7916666667</v>
       </c>
       <c r="F662">
         <v>1036.075</v>
@@ -23616,7 +23616,7 @@
         <v>14</v>
       </c>
       <c r="E663" s="2">
-        <v>44805.83333333334</v>
+        <v>44805.8333333333</v>
       </c>
       <c r="F663">
         <v>1036.425</v>
@@ -23686,7 +23686,7 @@
         <v>14</v>
       </c>
       <c r="E665" s="2">
-        <v>44805.91666666666</v>
+        <v>44805.9166666667</v>
       </c>
       <c r="F665">
         <v>1036.25</v>
@@ -23721,7 +23721,7 @@
         <v>14</v>
       </c>
       <c r="E666" s="2">
-        <v>44805.95833333334</v>
+        <v>44805.9583333333</v>
       </c>
       <c r="F666">
         <v>1036</v>
@@ -23756,7 +23756,7 @@
         <v>14</v>
       </c>
       <c r="E667" s="2">
-        <v>44806.04166666666</v>
+        <v>44806.0416666667</v>
       </c>
       <c r="F667">
         <v>1035.175</v>
@@ -23791,7 +23791,7 @@
         <v>14</v>
       </c>
       <c r="E668" s="2">
-        <v>44806.08333333334</v>
+        <v>44806.0833333333</v>
       </c>
       <c r="F668">
         <v>1035</v>
@@ -23861,7 +23861,7 @@
         <v>14</v>
       </c>
       <c r="E670" s="2">
-        <v>44806.16666666666</v>
+        <v>44806.1666666667</v>
       </c>
       <c r="F670">
         <v>1034.375</v>
@@ -23896,7 +23896,7 @@
         <v>14</v>
       </c>
       <c r="E671" s="2">
-        <v>44806.20833333334</v>
+        <v>44806.2083333333</v>
       </c>
       <c r="F671">
         <v>1034.25</v>
@@ -23931,7 +23931,7 @@
         <v>14</v>
       </c>
       <c r="E672" s="2">
-        <v>44806.58333333334</v>
+        <v>44806.5833333333</v>
       </c>
       <c r="F672">
         <v>1031</v>
@@ -24001,7 +24001,7 @@
         <v>14</v>
       </c>
       <c r="E674" s="2">
-        <v>44806.66666666666</v>
+        <v>44806.6666666667</v>
       </c>
       <c r="F674">
         <v>1029.6</v>
@@ -24036,7 +24036,7 @@
         <v>14</v>
       </c>
       <c r="E675" s="2">
-        <v>44806.70833333334</v>
+        <v>44806.7083333333</v>
       </c>
       <c r="F675">
         <v>1029.6</v>
@@ -24106,7 +24106,7 @@
         <v>14</v>
       </c>
       <c r="E677" s="2">
-        <v>44806.79166666666</v>
+        <v>44806.7916666667</v>
       </c>
       <c r="F677">
         <v>1029.425</v>
@@ -24141,7 +24141,7 @@
         <v>14</v>
       </c>
       <c r="E678" s="2">
-        <v>44806.83333333334</v>
+        <v>44806.8333333333</v>
       </c>
       <c r="F678">
         <v>1029.75</v>
@@ -24211,7 +24211,7 @@
         <v>14</v>
       </c>
       <c r="E680" s="2">
-        <v>44806.91666666666</v>
+        <v>44806.9166666667</v>
       </c>
       <c r="F680">
         <v>1029.25</v>
@@ -24246,7 +24246,7 @@
         <v>14</v>
       </c>
       <c r="E681" s="2">
-        <v>44806.95833333334</v>
+        <v>44806.9583333333</v>
       </c>
       <c r="F681">
         <v>1029.425</v>
@@ -24316,7 +24316,7 @@
         <v>14</v>
       </c>
       <c r="E683" s="2">
-        <v>44807.66666666666</v>
+        <v>44807.6666666667</v>
       </c>
       <c r="F683">
         <v>1030.175</v>
@@ -24351,7 +24351,7 @@
         <v>14</v>
       </c>
       <c r="E684" s="2">
-        <v>44807.79166666666</v>
+        <v>44807.7916666667</v>
       </c>
       <c r="F684">
         <v>1030.625</v>
@@ -24386,7 +24386,7 @@
         <v>14</v>
       </c>
       <c r="E685" s="2">
-        <v>44807.83333333334</v>
+        <v>44807.8333333333</v>
       </c>
       <c r="F685">
         <v>1031.625</v>
@@ -24456,7 +24456,7 @@
         <v>14</v>
       </c>
       <c r="E687" s="2">
-        <v>44807.91666666666</v>
+        <v>44807.9166666667</v>
       </c>
       <c r="F687">
         <v>1032.375</v>
@@ -24491,7 +24491,7 @@
         <v>14</v>
       </c>
       <c r="E688" s="2">
-        <v>44807.95833333334</v>
+        <v>44807.9583333333</v>
       </c>
       <c r="F688">
         <v>1032.75</v>
@@ -24561,7 +24561,7 @@
         <v>14</v>
       </c>
       <c r="E690" s="2">
-        <v>44808.04166666666</v>
+        <v>44808.0416666667</v>
       </c>
       <c r="F690">
         <v>1033.3</v>
@@ -24596,7 +24596,7 @@
         <v>14</v>
       </c>
       <c r="E691" s="2">
-        <v>44808.08333333334</v>
+        <v>44808.0833333333</v>
       </c>
       <c r="F691">
         <v>1033.375</v>
@@ -24666,7 +24666,7 @@
         <v>14</v>
       </c>
       <c r="E693" s="2">
-        <v>44808.16666666666</v>
+        <v>44808.1666666667</v>
       </c>
       <c r="F693">
         <v>1034.625</v>
@@ -24701,7 +24701,7 @@
         <v>14</v>
       </c>
       <c r="E694" s="2">
-        <v>44808.20833333334</v>
+        <v>44808.2083333333</v>
       </c>
       <c r="F694">
         <v>1034.925</v>
@@ -24771,7 +24771,7 @@
         <v>14</v>
       </c>
       <c r="E696" s="2">
-        <v>44808.66666666666</v>
+        <v>44808.6666666667</v>
       </c>
       <c r="F696">
         <v>1037.45</v>
@@ -24806,7 +24806,7 @@
         <v>14</v>
       </c>
       <c r="E697" s="2">
-        <v>44808.79166666666</v>
+        <v>44808.7916666667</v>
       </c>
       <c r="F697">
         <v>1036.7</v>
@@ -24841,7 +24841,7 @@
         <v>14</v>
       </c>
       <c r="E698" s="2">
-        <v>44808.83333333334</v>
+        <v>44808.8333333333</v>
       </c>
       <c r="F698">
         <v>1037.125</v>
@@ -24911,7 +24911,7 @@
         <v>14</v>
       </c>
       <c r="E700" s="2">
-        <v>44808.91666666666</v>
+        <v>44808.9166666667</v>
       </c>
       <c r="F700">
         <v>1037.375</v>
@@ -24946,7 +24946,7 @@
         <v>14</v>
       </c>
       <c r="E701" s="2">
-        <v>44808.95833333334</v>
+        <v>44808.9583333333</v>
       </c>
       <c r="F701">
         <v>1037.8</v>
@@ -24981,7 +24981,7 @@
         <v>14</v>
       </c>
       <c r="E702" s="2">
-        <v>44809.04166666666</v>
+        <v>44809.0416666667</v>
       </c>
       <c r="F702">
         <v>1037.675</v>
@@ -25016,7 +25016,7 @@
         <v>14</v>
       </c>
       <c r="E703" s="2">
-        <v>44809.08333333334</v>
+        <v>44809.0833333333</v>
       </c>
       <c r="F703">
         <v>1037.3</v>
@@ -25086,7 +25086,7 @@
         <v>14</v>
       </c>
       <c r="E705" s="2">
-        <v>44809.16666666666</v>
+        <v>44809.1666666667</v>
       </c>
       <c r="F705">
         <v>1037.175</v>
@@ -25121,7 +25121,7 @@
         <v>14</v>
       </c>
       <c r="E706" s="2">
-        <v>44809.45833333334</v>
+        <v>44809.4583333333</v>
       </c>
       <c r="F706">
         <v>1038.075</v>
@@ -25191,7 +25191,7 @@
         <v>14</v>
       </c>
       <c r="E708" s="2">
-        <v>44809.58333333334</v>
+        <v>44809.5833333333</v>
       </c>
       <c r="F708">
         <v>1037.2</v>
@@ -25261,7 +25261,7 @@
         <v>14</v>
       </c>
       <c r="E710" s="2">
-        <v>44809.66666666666</v>
+        <v>44809.6666666667</v>
       </c>
       <c r="F710">
         <v>1035.95</v>
@@ -25296,7 +25296,7 @@
         <v>14</v>
       </c>
       <c r="E711" s="2">
-        <v>44809.70833333334</v>
+        <v>44809.7083333333</v>
       </c>
       <c r="F711">
         <v>1035.625</v>
@@ -25366,7 +25366,7 @@
         <v>14</v>
       </c>
       <c r="E713" s="2">
-        <v>44809.79166666666</v>
+        <v>44809.7916666667</v>
       </c>
       <c r="F713">
         <v>1036.375</v>
@@ -25401,7 +25401,7 @@
         <v>14</v>
       </c>
       <c r="E714" s="2">
-        <v>44809.83333333334</v>
+        <v>44809.8333333333</v>
       </c>
       <c r="F714">
         <v>1035.675</v>
@@ -25471,7 +25471,7 @@
         <v>14</v>
       </c>
       <c r="E716" s="2">
-        <v>44809.91666666666</v>
+        <v>44809.9166666667</v>
       </c>
       <c r="F716">
         <v>1034.875</v>
@@ -25506,7 +25506,7 @@
         <v>14</v>
       </c>
       <c r="E717" s="2">
-        <v>44809.95833333334</v>
+        <v>44809.9583333333</v>
       </c>
       <c r="F717">
         <v>1035.625</v>
@@ -25576,7 +25576,7 @@
         <v>14</v>
       </c>
       <c r="E719" s="2">
-        <v>44810.04166666666</v>
+        <v>44810.0416666667</v>
       </c>
       <c r="F719">
         <v>1034.425</v>
@@ -25611,7 +25611,7 @@
         <v>14</v>
       </c>
       <c r="E720" s="2">
-        <v>44810.08333333334</v>
+        <v>44810.0833333333</v>
       </c>
       <c r="F720">
         <v>1034.675</v>
@@ -25681,7 +25681,7 @@
         <v>14</v>
       </c>
       <c r="E722" s="2">
-        <v>44810.20833333334</v>
+        <v>44810.2083333333</v>
       </c>
       <c r="F722">
         <v>1034.125</v>
@@ -25751,7 +25751,7 @@
         <v>14</v>
       </c>
       <c r="E724" s="2">
-        <v>44810.58333333334</v>
+        <v>44810.5833333333</v>
       </c>
       <c r="F724">
         <v>1034.25</v>
@@ -25821,7 +25821,7 @@
         <v>14</v>
       </c>
       <c r="E726" s="2">
-        <v>44810.66666666666</v>
+        <v>44810.6666666667</v>
       </c>
       <c r="F726">
         <v>1033.175</v>
@@ -25856,7 +25856,7 @@
         <v>14</v>
       </c>
       <c r="E727" s="2">
-        <v>44810.70833333334</v>
+        <v>44810.7083333333</v>
       </c>
       <c r="F727">
         <v>1032.875</v>
@@ -25926,7 +25926,7 @@
         <v>14</v>
       </c>
       <c r="E729" s="2">
-        <v>44810.79166666666</v>
+        <v>44810.7916666667</v>
       </c>
       <c r="F729">
         <v>1031.5</v>
@@ -25961,7 +25961,7 @@
         <v>14</v>
       </c>
       <c r="E730" s="2">
-        <v>44810.83333333334</v>
+        <v>44810.8333333333</v>
       </c>
       <c r="F730">
         <v>1030.875</v>
@@ -26031,7 +26031,7 @@
         <v>14</v>
       </c>
       <c r="E732" s="2">
-        <v>44810.91666666666</v>
+        <v>44810.9166666667</v>
       </c>
       <c r="F732">
         <v>1032.55</v>
@@ -26066,7 +26066,7 @@
         <v>14</v>
       </c>
       <c r="E733" s="2">
-        <v>44810.95833333334</v>
+        <v>44810.9583333333</v>
       </c>
       <c r="F733">
         <v>1032.05</v>
@@ -26136,7 +26136,7 @@
         <v>14</v>
       </c>
       <c r="E735" s="2">
-        <v>44811.04166666666</v>
+        <v>44811.0416666667</v>
       </c>
       <c r="F735">
         <v>1032.375</v>
@@ -26171,7 +26171,7 @@
         <v>14</v>
       </c>
       <c r="E736" s="2">
-        <v>44811.08333333334</v>
+        <v>44811.0833333333</v>
       </c>
       <c r="F736">
         <v>1032.175</v>
@@ -26241,7 +26241,7 @@
         <v>14</v>
       </c>
       <c r="E738" s="2">
-        <v>44811.16666666666</v>
+        <v>44811.1666666667</v>
       </c>
       <c r="F738">
         <v>1032.5</v>
@@ -26276,7 +26276,7 @@
         <v>14</v>
       </c>
       <c r="E739" s="2">
-        <v>44811.20833333334</v>
+        <v>44811.2083333333</v>
       </c>
       <c r="F739">
         <v>1032.425</v>
@@ -26346,7 +26346,7 @@
         <v>14</v>
       </c>
       <c r="E741" s="2">
-        <v>44811.70833333334</v>
+        <v>44811.7083333333</v>
       </c>
       <c r="F741">
         <v>1030.375</v>
@@ -26416,7 +26416,7 @@
         <v>14</v>
       </c>
       <c r="E743" s="2">
-        <v>44812.08333333334</v>
+        <v>44812.0833333333</v>
       </c>
       <c r="F743">
         <v>1027.75</v>
@@ -26451,7 +26451,7 @@
         <v>14</v>
       </c>
       <c r="E744" s="2">
-        <v>44812.16666666666</v>
+        <v>44812.1666666667</v>
       </c>
       <c r="F744">
         <v>1027.625</v>
@@ -26486,7 +26486,7 @@
         <v>14</v>
       </c>
       <c r="E745" s="2">
-        <v>44812.20833333334</v>
+        <v>44812.2083333333</v>
       </c>
       <c r="F745">
         <v>1027.375</v>
@@ -26521,7 +26521,7 @@
         <v>14</v>
       </c>
       <c r="E746" s="2">
-        <v>44812.54166666666</v>
+        <v>44812.5416666667</v>
       </c>
       <c r="F746">
         <v>1027.425</v>
@@ -26556,7 +26556,7 @@
         <v>14</v>
       </c>
       <c r="E747" s="2">
-        <v>44812.66666666666</v>
+        <v>44812.6666666667</v>
       </c>
       <c r="F747">
         <v>1026.375</v>
@@ -26626,7 +26626,7 @@
         <v>14</v>
       </c>
       <c r="E749" s="2">
-        <v>44812.79166666666</v>
+        <v>44812.7916666667</v>
       </c>
       <c r="F749">
         <v>1026.5</v>
@@ -26696,7 +26696,7 @@
         <v>14</v>
       </c>
       <c r="E751" s="2">
-        <v>44812.95833333334</v>
+        <v>44812.9583333333</v>
       </c>
       <c r="F751">
         <v>1027.125</v>
@@ -26757,7 +26757,7 @@
         <v>751</v>
       </c>
       <c r="B753">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C753" t="s">
         <v>13</v>
@@ -26766,7 +26766,7 @@
         <v>14</v>
       </c>
       <c r="E753" s="2">
-        <v>44813.79166666666</v>
+        <v>44813.7916666667</v>
       </c>
       <c r="F753">
         <v>1027.875</v>
@@ -26792,7 +26792,7 @@
         <v>752</v>
       </c>
       <c r="B754">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C754" t="s">
         <v>13</v>
@@ -26801,7 +26801,7 @@
         <v>14</v>
       </c>
       <c r="E754" s="2">
-        <v>44813.83333333334</v>
+        <v>44813.8333333333</v>
       </c>
       <c r="F754">
         <v>1028.375</v>
@@ -26827,7 +26827,7 @@
         <v>753</v>
       </c>
       <c r="B755">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C755" t="s">
         <v>13</v>
@@ -26862,7 +26862,7 @@
         <v>754</v>
       </c>
       <c r="B756">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C756" t="s">
         <v>13</v>
@@ -26871,7 +26871,7 @@
         <v>14</v>
       </c>
       <c r="E756" s="2">
-        <v>44814.04166666666</v>
+        <v>44814.0416666667</v>
       </c>
       <c r="F756">
         <v>1029.375</v>
@@ -26897,7 +26897,7 @@
         <v>755</v>
       </c>
       <c r="B757">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C757" t="s">
         <v>13</v>
@@ -26906,7 +26906,7 @@
         <v>14</v>
       </c>
       <c r="E757" s="2">
-        <v>44814.20833333334</v>
+        <v>44814.2083333333</v>
       </c>
       <c r="F757">
         <v>1029.55</v>
@@ -26932,7 +26932,7 @@
         <v>756</v>
       </c>
       <c r="B758">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C758" t="s">
         <v>13</v>
@@ -26941,7 +26941,7 @@
         <v>14</v>
       </c>
       <c r="E758" s="2">
-        <v>44815.08333333334</v>
+        <v>44815.0833333333</v>
       </c>
       <c r="F758">
         <v>1037.925</v>
@@ -26967,7 +26967,7 @@
         <v>757</v>
       </c>
       <c r="B759">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C759" t="s">
         <v>13</v>
@@ -27002,7 +27002,7 @@
         <v>758</v>
       </c>
       <c r="B760">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C760" t="s">
         <v>13</v>
@@ -27011,7 +27011,7 @@
         <v>14</v>
       </c>
       <c r="E760" s="2">
-        <v>44815.20833333334</v>
+        <v>44815.2083333333</v>
       </c>
       <c r="F760">
         <v>1038.425</v>
@@ -27037,7 +27037,7 @@
         <v>759</v>
       </c>
       <c r="B761">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C761" t="s">
         <v>13</v>
@@ -27046,7 +27046,7 @@
         <v>14</v>
       </c>
       <c r="E761" s="2">
-        <v>44815.54166666666</v>
+        <v>44815.5416666667</v>
       </c>
       <c r="F761">
         <v>1038.95</v>
@@ -27072,7 +27072,7 @@
         <v>760</v>
       </c>
       <c r="B762">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C762" t="s">
         <v>13</v>
@@ -27081,7 +27081,7 @@
         <v>14</v>
       </c>
       <c r="E762" s="2">
-        <v>44815.70833333334</v>
+        <v>44815.7083333333</v>
       </c>
       <c r="F762">
         <v>1037.375</v>
@@ -27107,7 +27107,7 @@
         <v>761</v>
       </c>
       <c r="B763">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C763" t="s">
         <v>13</v>
@@ -27116,7 +27116,7 @@
         <v>14</v>
       </c>
       <c r="E763" s="2">
-        <v>44815.79166666666</v>
+        <v>44815.7916666667</v>
       </c>
       <c r="F763">
         <v>1036.8</v>
@@ -27142,7 +27142,7 @@
         <v>762</v>
       </c>
       <c r="B764">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C764" t="s">
         <v>13</v>
@@ -27151,7 +27151,7 @@
         <v>14</v>
       </c>
       <c r="E764" s="2">
-        <v>44815.83333333334</v>
+        <v>44815.8333333333</v>
       </c>
       <c r="F764">
         <v>1037.175</v>
@@ -27177,7 +27177,7 @@
         <v>763</v>
       </c>
       <c r="B765">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C765" t="s">
         <v>13</v>
@@ -27186,7 +27186,7 @@
         <v>14</v>
       </c>
       <c r="E765" s="2">
-        <v>44815.91666666666</v>
+        <v>44815.9166666667</v>
       </c>
       <c r="F765">
         <v>1037.375</v>
@@ -27212,7 +27212,7 @@
         <v>764</v>
       </c>
       <c r="B766">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C766" t="s">
         <v>13</v>
@@ -27221,7 +27221,7 @@
         <v>14</v>
       </c>
       <c r="E766" s="2">
-        <v>44815.95833333334</v>
+        <v>44815.9583333333</v>
       </c>
       <c r="F766">
         <v>1037.05</v>
@@ -27247,7 +27247,7 @@
         <v>765</v>
       </c>
       <c r="B767">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C767" t="s">
         <v>13</v>
@@ -27256,7 +27256,7 @@
         <v>14</v>
       </c>
       <c r="E767" s="2">
-        <v>44816.83333333334</v>
+        <v>44816.8333333333</v>
       </c>
       <c r="F767">
         <v>1030.425</v>
@@ -27282,7 +27282,7 @@
         <v>766</v>
       </c>
       <c r="B768">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C768" t="s">
         <v>13</v>
@@ -27291,7 +27291,7 @@
         <v>14</v>
       </c>
       <c r="E768" s="2">
-        <v>44817.70833333334</v>
+        <v>44817.7083333333</v>
       </c>
       <c r="F768">
         <v>1028.875</v>
@@ -27317,7 +27317,7 @@
         <v>767</v>
       </c>
       <c r="B769">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C769" t="s">
         <v>13</v>
@@ -27326,7 +27326,7 @@
         <v>14</v>
       </c>
       <c r="E769" s="2">
-        <v>44817.79166666666</v>
+        <v>44817.7916666667</v>
       </c>
       <c r="F769">
         <v>1028.175</v>
@@ -27352,7 +27352,7 @@
         <v>768</v>
       </c>
       <c r="B770">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C770" t="s">
         <v>13</v>
@@ -27361,7 +27361,7 @@
         <v>14</v>
       </c>
       <c r="E770" s="2">
-        <v>44817.83333333334</v>
+        <v>44817.8333333333</v>
       </c>
       <c r="F770">
         <v>1028.5</v>
@@ -27387,7 +27387,7 @@
         <v>769</v>
       </c>
       <c r="B771">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C771" t="s">
         <v>13</v>
@@ -27422,7 +27422,7 @@
         <v>770</v>
       </c>
       <c r="B772">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C772" t="s">
         <v>13</v>
@@ -27431,7 +27431,7 @@
         <v>14</v>
       </c>
       <c r="E772" s="2">
-        <v>44817.95833333334</v>
+        <v>44817.9583333333</v>
       </c>
       <c r="F772">
         <v>1028.05</v>
@@ -27457,7 +27457,7 @@
         <v>771</v>
       </c>
       <c r="B773">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C773" t="s">
         <v>13</v>
@@ -27492,7 +27492,7 @@
         <v>772</v>
       </c>
       <c r="B774">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C774" t="s">
         <v>13</v>
@@ -27501,7 +27501,7 @@
         <v>14</v>
       </c>
       <c r="E774" s="2">
-        <v>44818.08333333334</v>
+        <v>44818.0833333333</v>
       </c>
       <c r="F774">
         <v>1026.75</v>
@@ -27527,7 +27527,7 @@
         <v>773</v>
       </c>
       <c r="B775">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C775" t="s">
         <v>13</v>
@@ -27562,7 +27562,7 @@
         <v>774</v>
       </c>
       <c r="B776">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C776" t="s">
         <v>13</v>
@@ -27571,7 +27571,7 @@
         <v>14</v>
       </c>
       <c r="E776" s="2">
-        <v>44818.20833333334</v>
+        <v>44818.2083333333</v>
       </c>
       <c r="F776">
         <v>1025.8</v>
@@ -27597,7 +27597,7 @@
         <v>775</v>
       </c>
       <c r="B777">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C777" t="s">
         <v>13</v>
@@ -27632,7 +27632,7 @@
         <v>776</v>
       </c>
       <c r="B778">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C778" t="s">
         <v>13</v>
@@ -27641,7 +27641,7 @@
         <v>14</v>
       </c>
       <c r="E778" s="2">
-        <v>44818.29166666666</v>
+        <v>44818.2916666667</v>
       </c>
       <c r="F778">
         <v>1024.925</v>
@@ -27667,7 +27667,7 @@
         <v>777</v>
       </c>
       <c r="B779">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C779" t="s">
         <v>13</v>
@@ -27676,7 +27676,7 @@
         <v>14</v>
       </c>
       <c r="E779" s="2">
-        <v>44819.45833333334</v>
+        <v>44819.4583333333</v>
       </c>
       <c r="F779">
         <v>1030.3</v>
@@ -27702,7 +27702,7 @@
         <v>778</v>
       </c>
       <c r="B780">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C780" t="s">
         <v>13</v>
@@ -27737,7 +27737,7 @@
         <v>779</v>
       </c>
       <c r="B781">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C781" t="s">
         <v>13</v>
@@ -27746,7 +27746,7 @@
         <v>14</v>
       </c>
       <c r="E781" s="2">
-        <v>44819.54166666666</v>
+        <v>44819.5416666667</v>
       </c>
       <c r="F781">
         <v>1030.8</v>
@@ -27772,7 +27772,7 @@
         <v>780</v>
       </c>
       <c r="B782">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C782" t="s">
         <v>13</v>
@@ -27781,7 +27781,7 @@
         <v>14</v>
       </c>
       <c r="E782" s="2">
-        <v>44819.58333333334</v>
+        <v>44819.5833333333</v>
       </c>
       <c r="F782">
         <v>1030.875</v>
@@ -27807,7 +27807,7 @@
         <v>781</v>
       </c>
       <c r="B783">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C783" t="s">
         <v>13</v>
@@ -27842,7 +27842,7 @@
         <v>782</v>
       </c>
       <c r="B784">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C784" t="s">
         <v>13</v>
@@ -27851,7 +27851,7 @@
         <v>14</v>
       </c>
       <c r="E784" s="2">
-        <v>44819.66666666666</v>
+        <v>44819.6666666667</v>
       </c>
       <c r="F784">
         <v>1031.05</v>
@@ -27877,7 +27877,7 @@
         <v>783</v>
       </c>
       <c r="B785">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C785" t="s">
         <v>13</v>
@@ -27912,7 +27912,7 @@
         <v>784</v>
       </c>
       <c r="B786">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C786" t="s">
         <v>13</v>
@@ -27921,7 +27921,7 @@
         <v>14</v>
       </c>
       <c r="E786" s="2">
-        <v>44819.79166666666</v>
+        <v>44819.7916666667</v>
       </c>
       <c r="F786">
         <v>1031.375</v>
@@ -27947,7 +27947,7 @@
         <v>785</v>
       </c>
       <c r="B787">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C787" t="s">
         <v>13</v>
@@ -27956,7 +27956,7 @@
         <v>14</v>
       </c>
       <c r="E787" s="2">
-        <v>44819.83333333334</v>
+        <v>44819.8333333333</v>
       </c>
       <c r="F787">
         <v>1031.625</v>
@@ -27982,7 +27982,7 @@
         <v>786</v>
       </c>
       <c r="B788">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C788" t="s">
         <v>13</v>
@@ -28017,7 +28017,7 @@
         <v>787</v>
       </c>
       <c r="B789">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C789" t="s">
         <v>13</v>
@@ -28026,7 +28026,7 @@
         <v>14</v>
       </c>
       <c r="E789" s="2">
-        <v>44819.91666666666</v>
+        <v>44819.9166666667</v>
       </c>
       <c r="F789">
         <v>1032.55</v>
@@ -28052,7 +28052,7 @@
         <v>788</v>
       </c>
       <c r="B790">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C790" t="s">
         <v>13</v>
@@ -28061,7 +28061,7 @@
         <v>14</v>
       </c>
       <c r="E790" s="2">
-        <v>44819.95833333334</v>
+        <v>44819.9583333333</v>
       </c>
       <c r="F790">
         <v>1032.55</v>
@@ -28087,7 +28087,7 @@
         <v>789</v>
       </c>
       <c r="B791">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C791" t="s">
         <v>13</v>
@@ -28122,7 +28122,7 @@
         <v>790</v>
       </c>
       <c r="B792">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C792" t="s">
         <v>13</v>
@@ -28131,7 +28131,7 @@
         <v>14</v>
       </c>
       <c r="E792" s="2">
-        <v>44820.04166666666</v>
+        <v>44820.0416666667</v>
       </c>
       <c r="F792">
         <v>1032.175</v>
@@ -28157,7 +28157,7 @@
         <v>791</v>
       </c>
       <c r="B793">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C793" t="s">
         <v>13</v>
@@ -28166,7 +28166,7 @@
         <v>14</v>
       </c>
       <c r="E793" s="2">
-        <v>44820.08333333334</v>
+        <v>44820.0833333333</v>
       </c>
       <c r="F793">
         <v>1032.375</v>
@@ -28192,7 +28192,7 @@
         <v>792</v>
       </c>
       <c r="B794">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C794" t="s">
         <v>13</v>
@@ -28227,7 +28227,7 @@
         <v>793</v>
       </c>
       <c r="B795">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C795" t="s">
         <v>13</v>
@@ -28236,7 +28236,7 @@
         <v>14</v>
       </c>
       <c r="E795" s="2">
-        <v>44820.16666666666</v>
+        <v>44820.1666666667</v>
       </c>
       <c r="F795">
         <v>1032.55</v>
@@ -28262,7 +28262,7 @@
         <v>794</v>
       </c>
       <c r="B796">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C796" t="s">
         <v>13</v>
@@ -28271,7 +28271,7 @@
         <v>14</v>
       </c>
       <c r="E796" s="2">
-        <v>44820.20833333334</v>
+        <v>44820.2083333333</v>
       </c>
       <c r="F796">
         <v>1032.8</v>
@@ -28297,7 +28297,7 @@
         <v>795</v>
       </c>
       <c r="B797">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C797" t="s">
         <v>13</v>
@@ -28332,7 +28332,7 @@
         <v>796</v>
       </c>
       <c r="B798">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C798" t="s">
         <v>13</v>
@@ -28341,7 +28341,7 @@
         <v>14</v>
       </c>
       <c r="E798" s="2">
-        <v>44820.29166666666</v>
+        <v>44820.2916666667</v>
       </c>
       <c r="F798">
         <v>1033.125</v>
@@ -28367,7 +28367,7 @@
         <v>797</v>
       </c>
       <c r="B799">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C799" t="s">
         <v>13</v>
@@ -28376,7 +28376,7 @@
         <v>14</v>
       </c>
       <c r="E799" s="2">
-        <v>44820.33333333334</v>
+        <v>44820.3333333333</v>
       </c>
       <c r="F799">
         <v>1033.675</v>
@@ -28402,7 +28402,7 @@
         <v>798</v>
       </c>
       <c r="B800">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C800" t="s">
         <v>13</v>
@@ -28437,7 +28437,7 @@
         <v>799</v>
       </c>
       <c r="B801">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C801" t="s">
         <v>13</v>
@@ -28446,7 +28446,7 @@
         <v>14</v>
       </c>
       <c r="E801" s="2">
-        <v>44820.41666666666</v>
+        <v>44820.4166666667</v>
       </c>
       <c r="F801">
         <v>1033.875</v>
@@ -28472,7 +28472,7 @@
         <v>800</v>
       </c>
       <c r="B802">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C802" t="s">
         <v>13</v>
@@ -28481,7 +28481,7 @@
         <v>14</v>
       </c>
       <c r="E802" s="2">
-        <v>44820.45833333334</v>
+        <v>44820.4583333333</v>
       </c>
       <c r="F802">
         <v>1034.05</v>
@@ -28507,7 +28507,7 @@
         <v>801</v>
       </c>
       <c r="B803">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C803" t="s">
         <v>13</v>
@@ -28542,7 +28542,7 @@
         <v>802</v>
       </c>
       <c r="B804">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C804" t="s">
         <v>13</v>
@@ -28551,7 +28551,7 @@
         <v>14</v>
       </c>
       <c r="E804" s="2">
-        <v>44820.54166666666</v>
+        <v>44820.5416666667</v>
       </c>
       <c r="F804">
         <v>1033.875</v>
@@ -28577,7 +28577,7 @@
         <v>803</v>
       </c>
       <c r="B805">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C805" t="s">
         <v>13</v>
@@ -28586,7 +28586,7 @@
         <v>14</v>
       </c>
       <c r="E805" s="2">
-        <v>44820.58333333334</v>
+        <v>44820.5833333333</v>
       </c>
       <c r="F805">
         <v>1034.25</v>
@@ -28612,7 +28612,7 @@
         <v>804</v>
       </c>
       <c r="B806">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C806" t="s">
         <v>13</v>
@@ -28647,7 +28647,7 @@
         <v>805</v>
       </c>
       <c r="B807">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C807" t="s">
         <v>13</v>
@@ -28656,7 +28656,7 @@
         <v>14</v>
       </c>
       <c r="E807" s="2">
-        <v>44820.66666666666</v>
+        <v>44820.6666666667</v>
       </c>
       <c r="F807">
         <v>1034.55</v>
@@ -28682,7 +28682,7 @@
         <v>806</v>
       </c>
       <c r="B808">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C808" t="s">
         <v>13</v>
@@ -28691,7 +28691,7 @@
         <v>14</v>
       </c>
       <c r="E808" s="2">
-        <v>44820.70833333334</v>
+        <v>44820.7083333333</v>
       </c>
       <c r="F808">
         <v>1035.125</v>
@@ -28717,7 +28717,7 @@
         <v>807</v>
       </c>
       <c r="B809">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C809" t="s">
         <v>13</v>
@@ -28752,7 +28752,7 @@
         <v>808</v>
       </c>
       <c r="B810">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C810" t="s">
         <v>13</v>
@@ -28761,7 +28761,7 @@
         <v>14</v>
       </c>
       <c r="E810" s="2">
-        <v>44820.79166666666</v>
+        <v>44820.7916666667</v>
       </c>
       <c r="F810">
         <v>1035.25</v>
@@ -28787,7 +28787,7 @@
         <v>809</v>
       </c>
       <c r="B811">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C811" t="s">
         <v>13</v>
@@ -28796,7 +28796,7 @@
         <v>14</v>
       </c>
       <c r="E811" s="2">
-        <v>44820.83333333334</v>
+        <v>44820.8333333333</v>
       </c>
       <c r="F811">
         <v>1035.675</v>
@@ -28822,7 +28822,7 @@
         <v>810</v>
       </c>
       <c r="B812">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C812" t="s">
         <v>13</v>
@@ -28857,7 +28857,7 @@
         <v>811</v>
       </c>
       <c r="B813">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C813" t="s">
         <v>13</v>
@@ -28866,7 +28866,7 @@
         <v>14</v>
       </c>
       <c r="E813" s="2">
-        <v>44820.91666666666</v>
+        <v>44820.9166666667</v>
       </c>
       <c r="F813">
         <v>1035.975</v>
@@ -28892,7 +28892,7 @@
         <v>812</v>
       </c>
       <c r="B814">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C814" t="s">
         <v>13</v>
@@ -28901,7 +28901,7 @@
         <v>14</v>
       </c>
       <c r="E814" s="2">
-        <v>44820.95833333334</v>
+        <v>44820.9583333333</v>
       </c>
       <c r="F814">
         <v>1036.5</v>
@@ -28927,7 +28927,7 @@
         <v>813</v>
       </c>
       <c r="B815">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C815" t="s">
         <v>13</v>
@@ -28962,7 +28962,7 @@
         <v>814</v>
       </c>
       <c r="B816">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C816" t="s">
         <v>13</v>
@@ -28971,7 +28971,7 @@
         <v>14</v>
       </c>
       <c r="E816" s="2">
-        <v>44821.04166666666</v>
+        <v>44821.0416666667</v>
       </c>
       <c r="F816">
         <v>1036.625</v>
@@ -28997,7 +28997,7 @@
         <v>815</v>
       </c>
       <c r="B817">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C817" t="s">
         <v>13</v>
@@ -29006,7 +29006,7 @@
         <v>14</v>
       </c>
       <c r="E817" s="2">
-        <v>44821.08333333334</v>
+        <v>44821.0833333333</v>
       </c>
       <c r="F817">
         <v>1036.625</v>
@@ -29032,7 +29032,7 @@
         <v>816</v>
       </c>
       <c r="B818">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="C818" t="s">
         <v>13</v>
@@ -29067,7 +29067,7 @@
         <v>817</v>
       </c>
       <c r="B819">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C819" t="s">
         <v>13</v>
@@ -29076,7 +29076,7 @@
         <v>14</v>
       </c>
       <c r="E819" s="2">
-        <v>44821.16666666666</v>
+        <v>44821.1666666667</v>
       </c>
       <c r="F819">
         <v>1036.725</v>
@@ -29102,7 +29102,7 @@
         <v>818</v>
       </c>
       <c r="B820">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C820" t="s">
         <v>13</v>
@@ -29111,7 +29111,7 @@
         <v>14</v>
       </c>
       <c r="E820" s="2">
-        <v>44821.20833333334</v>
+        <v>44821.2083333333</v>
       </c>
       <c r="F820">
         <v>1037.05</v>
@@ -29137,7 +29137,7 @@
         <v>819</v>
       </c>
       <c r="B821">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C821" t="s">
         <v>13</v>
@@ -29172,7 +29172,7 @@
         <v>820</v>
       </c>
       <c r="B822">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C822" t="s">
         <v>13</v>
@@ -29181,7 +29181,7 @@
         <v>14</v>
       </c>
       <c r="E822" s="2">
-        <v>44821.29166666666</v>
+        <v>44821.2916666667</v>
       </c>
       <c r="F822">
         <v>1037.675</v>
@@ -29207,7 +29207,7 @@
         <v>821</v>
       </c>
       <c r="B823">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="C823" t="s">
         <v>13</v>
@@ -29216,7 +29216,7 @@
         <v>14</v>
       </c>
       <c r="E823" s="2">
-        <v>44821.33333333334</v>
+        <v>44821.3333333333</v>
       </c>
       <c r="F823">
         <v>1038.125</v>
@@ -29242,7 +29242,7 @@
         <v>822</v>
       </c>
       <c r="B824">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C824" t="s">
         <v>13</v>
@@ -29277,7 +29277,7 @@
         <v>823</v>
       </c>
       <c r="B825">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C825" t="s">
         <v>13</v>
@@ -29286,7 +29286,7 @@
         <v>14</v>
       </c>
       <c r="E825" s="2">
-        <v>44821.41666666666</v>
+        <v>44821.4166666667</v>
       </c>
       <c r="F825">
         <v>1038.25</v>
@@ -29312,7 +29312,7 @@
         <v>824</v>
       </c>
       <c r="B826">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="C826" t="s">
         <v>13</v>
@@ -29321,7 +29321,7 @@
         <v>14</v>
       </c>
       <c r="E826" s="2">
-        <v>44821.45833333334</v>
+        <v>44821.4583333333</v>
       </c>
       <c r="F826">
         <v>1038.625</v>
@@ -29347,7 +29347,7 @@
         <v>825</v>
       </c>
       <c r="B827">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C827" t="s">
         <v>13</v>
@@ -29382,7 +29382,7 @@
         <v>826</v>
       </c>
       <c r="B828">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C828" t="s">
         <v>13</v>
@@ -29391,7 +29391,7 @@
         <v>14</v>
       </c>
       <c r="E828" s="2">
-        <v>44821.54166666666</v>
+        <v>44821.5416666667</v>
       </c>
       <c r="F828">
         <v>1038.3</v>
@@ -29417,7 +29417,7 @@
         <v>827</v>
       </c>
       <c r="B829">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="C829" t="s">
         <v>13</v>
@@ -29426,7 +29426,7 @@
         <v>14</v>
       </c>
       <c r="E829" s="2">
-        <v>44821.58333333334</v>
+        <v>44821.5833333333</v>
       </c>
       <c r="F829">
         <v>1038.45</v>
@@ -29452,7 +29452,7 @@
         <v>828</v>
       </c>
       <c r="B830">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C830" t="s">
         <v>13</v>
@@ -29487,7 +29487,7 @@
         <v>829</v>
       </c>
       <c r="B831">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C831" t="s">
         <v>13</v>
@@ -29496,7 +29496,7 @@
         <v>14</v>
       </c>
       <c r="E831" s="2">
-        <v>44821.66666666666</v>
+        <v>44821.6666666667</v>
       </c>
       <c r="F831">
         <v>1038.55</v>
@@ -29522,7 +29522,7 @@
         <v>830</v>
       </c>
       <c r="B832">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="C832" t="s">
         <v>13</v>
@@ -29531,7 +29531,7 @@
         <v>14</v>
       </c>
       <c r="E832" s="2">
-        <v>44821.70833333334</v>
+        <v>44821.7083333333</v>
       </c>
       <c r="F832">
         <v>1038.75</v>
@@ -29557,7 +29557,7 @@
         <v>831</v>
       </c>
       <c r="B833">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="C833" t="s">
         <v>13</v>
@@ -29592,7 +29592,7 @@
         <v>832</v>
       </c>
       <c r="B834">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C834" t="s">
         <v>13</v>
@@ -29601,7 +29601,7 @@
         <v>14</v>
       </c>
       <c r="E834" s="2">
-        <v>44821.79166666666</v>
+        <v>44821.7916666667</v>
       </c>
       <c r="F834">
         <v>1038.675</v>
@@ -29627,7 +29627,7 @@
         <v>833</v>
       </c>
       <c r="B835">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="C835" t="s">
         <v>13</v>
@@ -29636,7 +29636,7 @@
         <v>14</v>
       </c>
       <c r="E835" s="2">
-        <v>44821.83333333334</v>
+        <v>44821.8333333333</v>
       </c>
       <c r="F835">
         <v>1038.875</v>
@@ -29662,7 +29662,7 @@
         <v>834</v>
       </c>
       <c r="B836">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="C836" t="s">
         <v>13</v>
@@ -29697,7 +29697,7 @@
         <v>835</v>
       </c>
       <c r="B837">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C837" t="s">
         <v>13</v>
@@ -29706,7 +29706,7 @@
         <v>14</v>
       </c>
       <c r="E837" s="2">
-        <v>44821.91666666666</v>
+        <v>44821.9166666667</v>
       </c>
       <c r="F837">
         <v>1039.375</v>
@@ -29732,7 +29732,7 @@
         <v>836</v>
       </c>
       <c r="B838">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C838" t="s">
         <v>13</v>
@@ -29741,7 +29741,7 @@
         <v>14</v>
       </c>
       <c r="E838" s="2">
-        <v>44821.95833333334</v>
+        <v>44821.9583333333</v>
       </c>
       <c r="F838">
         <v>1039.05</v>
@@ -29767,7 +29767,7 @@
         <v>837</v>
       </c>
       <c r="B839">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C839" t="s">
         <v>13</v>
@@ -29802,7 +29802,7 @@
         <v>838</v>
       </c>
       <c r="B840">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C840" t="s">
         <v>13</v>
@@ -29811,7 +29811,7 @@
         <v>14</v>
       </c>
       <c r="E840" s="2">
-        <v>44822.04166666666</v>
+        <v>44822.0416666667</v>
       </c>
       <c r="F840">
         <v>1038.55</v>
@@ -29837,7 +29837,7 @@
         <v>839</v>
       </c>
       <c r="B841">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="C841" t="s">
         <v>13</v>
@@ -29846,7 +29846,7 @@
         <v>14</v>
       </c>
       <c r="E841" s="2">
-        <v>44822.08333333334</v>
+        <v>44822.0833333333</v>
       </c>
       <c r="F841">
         <v>1038.525</v>
@@ -29872,7 +29872,7 @@
         <v>840</v>
       </c>
       <c r="B842">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C842" t="s">
         <v>13</v>
@@ -29907,7 +29907,7 @@
         <v>841</v>
       </c>
       <c r="B843">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C843" t="s">
         <v>13</v>
@@ -29916,7 +29916,7 @@
         <v>14</v>
       </c>
       <c r="E843" s="2">
-        <v>44822.16666666666</v>
+        <v>44822.1666666667</v>
       </c>
       <c r="F843">
         <v>1038.25</v>
@@ -29942,7 +29942,7 @@
         <v>842</v>
       </c>
       <c r="B844">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C844" t="s">
         <v>13</v>
@@ -29951,7 +29951,7 @@
         <v>14</v>
       </c>
       <c r="E844" s="2">
-        <v>44822.20833333334</v>
+        <v>44822.2083333333</v>
       </c>
       <c r="F844">
         <v>1038.1</v>
@@ -29977,7 +29977,7 @@
         <v>843</v>
       </c>
       <c r="B845">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="C845" t="s">
         <v>13</v>
@@ -30012,7 +30012,7 @@
         <v>844</v>
       </c>
       <c r="B846">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C846" t="s">
         <v>13</v>
@@ -30021,7 +30021,7 @@
         <v>14</v>
       </c>
       <c r="E846" s="2">
-        <v>44822.29166666666</v>
+        <v>44822.2916666667</v>
       </c>
       <c r="F846">
         <v>1038.35</v>
@@ -30047,7 +30047,7 @@
         <v>845</v>
       </c>
       <c r="B847">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C847" t="s">
         <v>13</v>
@@ -30056,7 +30056,7 @@
         <v>14</v>
       </c>
       <c r="E847" s="2">
-        <v>44822.33333333334</v>
+        <v>44822.3333333333</v>
       </c>
       <c r="F847">
         <v>1038.375</v>
@@ -30082,7 +30082,7 @@
         <v>846</v>
       </c>
       <c r="B848">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C848" t="s">
         <v>13</v>
@@ -30117,7 +30117,7 @@
         <v>847</v>
       </c>
       <c r="B849">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C849" t="s">
         <v>13</v>
@@ -30126,7 +30126,7 @@
         <v>14</v>
       </c>
       <c r="E849" s="2">
-        <v>44822.41666666666</v>
+        <v>44822.4166666667</v>
       </c>
       <c r="F849">
         <v>1038.5</v>
@@ -30152,7 +30152,7 @@
         <v>848</v>
       </c>
       <c r="B850">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="C850" t="s">
         <v>13</v>
@@ -30161,7 +30161,7 @@
         <v>14</v>
       </c>
       <c r="E850" s="2">
-        <v>44822.45833333334</v>
+        <v>44822.4583333333</v>
       </c>
       <c r="F850">
         <v>1038.5</v>
@@ -30187,7 +30187,7 @@
         <v>849</v>
       </c>
       <c r="B851">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C851" t="s">
         <v>13</v>
@@ -30222,7 +30222,7 @@
         <v>850</v>
       </c>
       <c r="B852">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="C852" t="s">
         <v>13</v>
@@ -30231,7 +30231,7 @@
         <v>14</v>
       </c>
       <c r="E852" s="2">
-        <v>44822.54166666666</v>
+        <v>44822.5416666667</v>
       </c>
       <c r="F852">
         <v>1037.5</v>
@@ -30257,7 +30257,7 @@
         <v>851</v>
       </c>
       <c r="B853">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C853" t="s">
         <v>13</v>
@@ -30266,7 +30266,7 @@
         <v>14</v>
       </c>
       <c r="E853" s="2">
-        <v>44822.58333333334</v>
+        <v>44822.5833333333</v>
       </c>
       <c r="F853">
         <v>1037.625</v>
@@ -30292,7 +30292,7 @@
         <v>852</v>
       </c>
       <c r="B854">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="C854" t="s">
         <v>13</v>
@@ -30327,7 +30327,7 @@
         <v>853</v>
       </c>
       <c r="B855">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="C855" t="s">
         <v>13</v>
@@ -30336,7 +30336,7 @@
         <v>14</v>
       </c>
       <c r="E855" s="2">
-        <v>44822.66666666666</v>
+        <v>44822.6666666667</v>
       </c>
       <c r="F855">
         <v>1037.125</v>
@@ -30362,7 +30362,7 @@
         <v>854</v>
       </c>
       <c r="B856">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="C856" t="s">
         <v>13</v>
@@ -30371,7 +30371,7 @@
         <v>14</v>
       </c>
       <c r="E856" s="2">
-        <v>44822.70833333334</v>
+        <v>44822.7083333333</v>
       </c>
       <c r="F856">
         <v>1037.55</v>
@@ -30397,7 +30397,7 @@
         <v>855</v>
       </c>
       <c r="B857">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="C857" t="s">
         <v>13</v>
@@ -30432,7 +30432,7 @@
         <v>856</v>
       </c>
       <c r="B858">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C858" t="s">
         <v>13</v>
@@ -30441,7 +30441,7 @@
         <v>14</v>
       </c>
       <c r="E858" s="2">
-        <v>44822.79166666666</v>
+        <v>44822.7916666667</v>
       </c>
       <c r="F858">
         <v>1037.875</v>
@@ -30467,7 +30467,7 @@
         <v>857</v>
       </c>
       <c r="B859">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="C859" t="s">
         <v>13</v>
@@ -30476,7 +30476,7 @@
         <v>14</v>
       </c>
       <c r="E859" s="2">
-        <v>44822.83333333334</v>
+        <v>44822.8333333333</v>
       </c>
       <c r="F859">
         <v>1038.625</v>
@@ -30502,7 +30502,7 @@
         <v>858</v>
       </c>
       <c r="B860">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="C860" t="s">
         <v>13</v>
@@ -30537,7 +30537,7 @@
         <v>859</v>
       </c>
       <c r="B861">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C861" t="s">
         <v>13</v>
@@ -30546,7 +30546,7 @@
         <v>14</v>
       </c>
       <c r="E861" s="2">
-        <v>44822.91666666666</v>
+        <v>44822.9166666667</v>
       </c>
       <c r="F861">
         <v>1039.3</v>
@@ -30572,7 +30572,7 @@
         <v>860</v>
       </c>
       <c r="B862">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C862" t="s">
         <v>13</v>
@@ -30581,7 +30581,7 @@
         <v>14</v>
       </c>
       <c r="E862" s="2">
-        <v>44822.95833333334</v>
+        <v>44822.9583333333</v>
       </c>
       <c r="F862">
         <v>1039.675</v>
@@ -30607,7 +30607,7 @@
         <v>861</v>
       </c>
       <c r="B863">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C863" t="s">
         <v>13</v>
@@ -30642,7 +30642,7 @@
         <v>862</v>
       </c>
       <c r="B864">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C864" t="s">
         <v>13</v>
@@ -30651,7 +30651,7 @@
         <v>14</v>
       </c>
       <c r="E864" s="2">
-        <v>44823.04166666666</v>
+        <v>44823.0416666667</v>
       </c>
       <c r="F864">
         <v>1040.225</v>
@@ -30677,7 +30677,7 @@
         <v>863</v>
       </c>
       <c r="B865">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C865" t="s">
         <v>13</v>
@@ -30686,7 +30686,7 @@
         <v>14</v>
       </c>
       <c r="E865" s="2">
-        <v>44823.08333333334</v>
+        <v>44823.0833333333</v>
       </c>
       <c r="F865">
         <v>1040.475</v>
@@ -30712,7 +30712,7 @@
         <v>864</v>
       </c>
       <c r="B866">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C866" t="s">
         <v>13</v>
@@ -30747,7 +30747,7 @@
         <v>865</v>
       </c>
       <c r="B867">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C867" t="s">
         <v>13</v>
@@ -30756,7 +30756,7 @@
         <v>14</v>
       </c>
       <c r="E867" s="2">
-        <v>44823.16666666666</v>
+        <v>44823.1666666667</v>
       </c>
       <c r="F867">
         <v>1040.85</v>
@@ -30782,7 +30782,7 @@
         <v>866</v>
       </c>
       <c r="B868">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C868" t="s">
         <v>13</v>
@@ -30791,7 +30791,7 @@
         <v>14</v>
       </c>
       <c r="E868" s="2">
-        <v>44823.20833333334</v>
+        <v>44823.2083333333</v>
       </c>
       <c r="F868">
         <v>1041.15</v>
@@ -30817,7 +30817,7 @@
         <v>867</v>
       </c>
       <c r="B869">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C869" t="s">
         <v>13</v>
@@ -30852,7 +30852,7 @@
         <v>868</v>
       </c>
       <c r="B870">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C870" t="s">
         <v>13</v>
@@ -30861,7 +30861,7 @@
         <v>14</v>
       </c>
       <c r="E870" s="2">
-        <v>44823.29166666666</v>
+        <v>44823.2916666667</v>
       </c>
       <c r="F870">
         <v>1042.075</v>
@@ -30887,7 +30887,7 @@
         <v>869</v>
       </c>
       <c r="B871">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="C871" t="s">
         <v>13</v>
@@ -30896,7 +30896,7 @@
         <v>14</v>
       </c>
       <c r="E871" s="2">
-        <v>44823.33333333334</v>
+        <v>44823.3333333333</v>
       </c>
       <c r="F871">
         <v>1042.925</v>
@@ -30922,7 +30922,7 @@
         <v>870</v>
       </c>
       <c r="B872">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="C872" t="s">
         <v>13</v>
@@ -30957,7 +30957,7 @@
         <v>871</v>
       </c>
       <c r="B873">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="C873" t="s">
         <v>13</v>
@@ -30966,7 +30966,7 @@
         <v>14</v>
       </c>
       <c r="E873" s="2">
-        <v>44823.41666666666</v>
+        <v>44823.4166666667</v>
       </c>
       <c r="F873">
         <v>1043.375</v>
@@ -30992,7 +30992,7 @@
         <v>872</v>
       </c>
       <c r="B874">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="C874" t="s">
         <v>13</v>
@@ -31001,7 +31001,7 @@
         <v>14</v>
       </c>
       <c r="E874" s="2">
-        <v>44823.45833333334</v>
+        <v>44823.4583333333</v>
       </c>
       <c r="F874">
         <v>1043.425</v>
@@ -31027,7 +31027,7 @@
         <v>873</v>
       </c>
       <c r="B875">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="C875" t="s">
         <v>13</v>
@@ -31062,7 +31062,7 @@
         <v>874</v>
       </c>
       <c r="B876">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="C876" t="s">
         <v>13</v>
@@ -31071,7 +31071,7 @@
         <v>14</v>
       </c>
       <c r="E876" s="2">
-        <v>44823.54166666666</v>
+        <v>44823.5416666667</v>
       </c>
       <c r="F876">
         <v>1043.7</v>
@@ -31097,7 +31097,7 @@
         <v>875</v>
       </c>
       <c r="B877">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C877" t="s">
         <v>13</v>
@@ -31106,7 +31106,7 @@
         <v>14</v>
       </c>
       <c r="E877" s="2">
-        <v>44823.58333333334</v>
+        <v>44823.5833333333</v>
       </c>
       <c r="F877">
         <v>1042.95</v>
@@ -31132,7 +31132,7 @@
         <v>876</v>
       </c>
       <c r="B878">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C878" t="s">
         <v>13</v>
@@ -31167,7 +31167,7 @@
         <v>877</v>
       </c>
       <c r="B879">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C879" t="s">
         <v>13</v>
@@ -31176,7 +31176,7 @@
         <v>14</v>
       </c>
       <c r="E879" s="2">
-        <v>44823.66666666666</v>
+        <v>44823.6666666667</v>
       </c>
       <c r="F879">
         <v>1043.2</v>
@@ -31202,7 +31202,7 @@
         <v>878</v>
       </c>
       <c r="B880">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="C880" t="s">
         <v>13</v>
@@ -31211,7 +31211,7 @@
         <v>14</v>
       </c>
       <c r="E880" s="2">
-        <v>44823.70833333334</v>
+        <v>44823.7083333333</v>
       </c>
       <c r="F880">
         <v>1042.95</v>
@@ -31237,7 +31237,7 @@
         <v>879</v>
       </c>
       <c r="B881">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C881" t="s">
         <v>13</v>
@@ -31272,7 +31272,7 @@
         <v>880</v>
       </c>
       <c r="B882">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="C882" t="s">
         <v>13</v>
@@ -31281,7 +31281,7 @@
         <v>14</v>
       </c>
       <c r="E882" s="2">
-        <v>44823.79166666666</v>
+        <v>44823.7916666667</v>
       </c>
       <c r="F882">
         <v>1043</v>
@@ -31307,7 +31307,7 @@
         <v>881</v>
       </c>
       <c r="B883">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C883" t="s">
         <v>13</v>
@@ -31316,7 +31316,7 @@
         <v>14</v>
       </c>
       <c r="E883" s="2">
-        <v>44823.83333333334</v>
+        <v>44823.8333333333</v>
       </c>
       <c r="F883">
         <v>1043.625</v>
@@ -31342,7 +31342,7 @@
         <v>882</v>
       </c>
       <c r="B884">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C884" t="s">
         <v>13</v>
@@ -31377,7 +31377,7 @@
         <v>883</v>
       </c>
       <c r="B885">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="C885" t="s">
         <v>13</v>
@@ -31386,7 +31386,7 @@
         <v>14</v>
       </c>
       <c r="E885" s="2">
-        <v>44823.91666666666</v>
+        <v>44823.9166666667</v>
       </c>
       <c r="F885">
         <v>1044.125</v>
@@ -31412,7 +31412,7 @@
         <v>884</v>
       </c>
       <c r="B886">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C886" t="s">
         <v>13</v>
@@ -31421,7 +31421,7 @@
         <v>14</v>
       </c>
       <c r="E886" s="2">
-        <v>44823.95833333334</v>
+        <v>44823.9583333333</v>
       </c>
       <c r="F886">
         <v>1044.25</v>
@@ -31447,7 +31447,7 @@
         <v>885</v>
       </c>
       <c r="B887">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C887" t="s">
         <v>13</v>
@@ -31482,7 +31482,7 @@
         <v>886</v>
       </c>
       <c r="B888">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C888" t="s">
         <v>13</v>
@@ -31491,7 +31491,7 @@
         <v>14</v>
       </c>
       <c r="E888" s="2">
-        <v>44824.04166666666</v>
+        <v>44824.0416666667</v>
       </c>
       <c r="F888">
         <v>1044.15</v>
@@ -31517,7 +31517,7 @@
         <v>887</v>
       </c>
       <c r="B889">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C889" t="s">
         <v>13</v>
@@ -31526,7 +31526,7 @@
         <v>14</v>
       </c>
       <c r="E889" s="2">
-        <v>44824.08333333334</v>
+        <v>44824.0833333333</v>
       </c>
       <c r="F889">
         <v>1044.15</v>
@@ -31552,7 +31552,7 @@
         <v>888</v>
       </c>
       <c r="B890">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C890" t="s">
         <v>13</v>
@@ -31587,7 +31587,7 @@
         <v>889</v>
       </c>
       <c r="B891">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C891" t="s">
         <v>13</v>
@@ -31596,7 +31596,7 @@
         <v>14</v>
       </c>
       <c r="E891" s="2">
-        <v>44824.16666666666</v>
+        <v>44824.1666666667</v>
       </c>
       <c r="F891">
         <v>1043.825</v>
@@ -31622,7 +31622,7 @@
         <v>890</v>
       </c>
       <c r="B892">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C892" t="s">
         <v>13</v>
@@ -31631,7 +31631,7 @@
         <v>14</v>
       </c>
       <c r="E892" s="2">
-        <v>44824.20833333334</v>
+        <v>44824.2083333333</v>
       </c>
       <c r="F892">
         <v>1044.025</v>
@@ -31657,7 +31657,7 @@
         <v>891</v>
       </c>
       <c r="B893">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C893" t="s">
         <v>13</v>
@@ -31692,7 +31692,7 @@
         <v>892</v>
       </c>
       <c r="B894">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C894" t="s">
         <v>13</v>
@@ -31701,7 +31701,7 @@
         <v>14</v>
       </c>
       <c r="E894" s="2">
-        <v>44824.29166666666</v>
+        <v>44824.2916666667</v>
       </c>
       <c r="F894">
         <v>1044.275</v>
@@ -31727,7 +31727,7 @@
         <v>893</v>
       </c>
       <c r="B895">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C895" t="s">
         <v>13</v>
@@ -31736,7 +31736,7 @@
         <v>14</v>
       </c>
       <c r="E895" s="2">
-        <v>44824.33333333334</v>
+        <v>44824.3333333333</v>
       </c>
       <c r="F895">
         <v>1045.05</v>
@@ -31762,7 +31762,7 @@
         <v>894</v>
       </c>
       <c r="B896">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C896" t="s">
         <v>13</v>

--- a/saved_file_headE1.xlsx
+++ b/saved_file_headE1.xlsx
@@ -499,7 +499,7 @@
         <v>14.23333333332994</v>
       </c>
       <c r="N2">
-        <v>1937.23333333333</v>
+        <v>1922.23333333333</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -534,7 +534,7 @@
         <v>13.99166666666997</v>
       </c>
       <c r="N3">
-        <v>1936.99166666667</v>
+        <v>1921.99166666667</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -569,7 +569,7 @@
         <v>13.82500000000005</v>
       </c>
       <c r="N4">
-        <v>1936.825</v>
+        <v>1921.825</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -604,7 +604,7 @@
         <v>14.33333333332985</v>
       </c>
       <c r="N5">
-        <v>1937.33333333333</v>
+        <v>1922.33333333333</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -639,7 +639,7 @@
         <v>14.24166666666997</v>
       </c>
       <c r="N6">
-        <v>1937.24166666667</v>
+        <v>1922.24166666667</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -674,7 +674,7 @@
         <v>14.81666666667002</v>
       </c>
       <c r="N7">
-        <v>1937.81666666667</v>
+        <v>1922.81666666667</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -709,7 +709,7 @@
         <v>14.99166666666997</v>
       </c>
       <c r="N8">
-        <v>1937.99166666667</v>
+        <v>1922.99166666667</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -744,7 +744,7 @@
         <v>14.98333333332994</v>
       </c>
       <c r="N9">
-        <v>1937.98333333333</v>
+        <v>1922.98333333333</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -779,7 +779,7 @@
         <v>14.75833333333003</v>
       </c>
       <c r="N10">
-        <v>1937.75833333333</v>
+        <v>1922.75833333333</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -814,7 +814,7 @@
         <v>14.56666666667002</v>
       </c>
       <c r="N11">
-        <v>1937.56666666667</v>
+        <v>1922.56666666667</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -849,7 +849,7 @@
         <v>14.63333333333003</v>
       </c>
       <c r="N12">
-        <v>1937.63333333333</v>
+        <v>1922.63333333333</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -884,7 +884,7 @@
         <v>14.80833333332998</v>
       </c>
       <c r="N13">
-        <v>1937.80833333333</v>
+        <v>1922.80833333333</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -919,7 +919,7 @@
         <v>14.67499999999995</v>
       </c>
       <c r="N14">
-        <v>1937.675</v>
+        <v>1922.675</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,7 +954,7 @@
         <v>14.35000000000014</v>
       </c>
       <c r="N15">
-        <v>1937.35</v>
+        <v>1922.35</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -989,7 +989,7 @@
         <v>14.25833333333003</v>
       </c>
       <c r="N16">
-        <v>1937.25833333333</v>
+        <v>1922.25833333333</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1024,7 +1024,7 @@
         <v>14.34166666667011</v>
       </c>
       <c r="N17">
-        <v>1937.34166666667</v>
+        <v>1922.34166666667</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1059,7 +1059,7 @@
         <v>14.72499999999991</v>
       </c>
       <c r="N18">
-        <v>1937.725</v>
+        <v>1922.725</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1094,7 +1094,7 @@
         <v>13.97500000000014</v>
       </c>
       <c r="N19">
-        <v>1936.975</v>
+        <v>1921.975</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1129,7 +1129,7 @@
         <v>13.35833333332994</v>
       </c>
       <c r="N20">
-        <v>1936.35833333333</v>
+        <v>1921.35833333333</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1164,7 +1164,7 @@
         <v>13.40000000000009</v>
       </c>
       <c r="N21">
-        <v>1936.4</v>
+        <v>1921.4</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1199,7 +1199,7 @@
         <v>13.45000000000005</v>
       </c>
       <c r="N22">
-        <v>1936.45</v>
+        <v>1921.45</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1234,7 +1234,7 @@
         <v>13.28333333332989</v>
       </c>
       <c r="N23">
-        <v>1936.28333333333</v>
+        <v>1921.28333333333</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1269,7 +1269,7 @@
         <v>13.43333333332998</v>
       </c>
       <c r="N24">
-        <v>1936.43333333333</v>
+        <v>1921.43333333333</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1304,7 +1304,7 @@
         <v>13.51666666667006</v>
       </c>
       <c r="N25">
-        <v>1936.51666666667</v>
+        <v>1921.51666666667</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1339,7 +1339,7 @@
         <v>13.78333333332989</v>
       </c>
       <c r="N26">
-        <v>1936.78333333333</v>
+        <v>1921.78333333333</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -1374,7 +1374,7 @@
         <v>13.94166666667002</v>
       </c>
       <c r="N27">
-        <v>1936.94166666667</v>
+        <v>1921.94166666667</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -1409,7 +1409,7 @@
         <v>13.40833333332989</v>
       </c>
       <c r="N28">
-        <v>1936.40833333333</v>
+        <v>1921.40833333333</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1444,7 +1444,7 @@
         <v>13.94166666667002</v>
       </c>
       <c r="N29">
-        <v>1936.94166666667</v>
+        <v>1921.94166666667</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1479,7 +1479,7 @@
         <v>13.65000000000009</v>
       </c>
       <c r="N30">
-        <v>1936.65</v>
+        <v>1921.65</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -1514,7 +1514,7 @@
         <v>13.47500000000014</v>
       </c>
       <c r="N31">
-        <v>1936.475</v>
+        <v>1921.475</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -1549,7 +1549,7 @@
         <v>14.06666666667002</v>
       </c>
       <c r="N32">
-        <v>1937.06666666667</v>
+        <v>1922.06666666667</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -1584,7 +1584,7 @@
         <v>13.93333333332998</v>
       </c>
       <c r="N33">
-        <v>1936.93333333333</v>
+        <v>1921.93333333333</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -1619,7 +1619,7 @@
         <v>13.68333333332998</v>
       </c>
       <c r="N34">
-        <v>1936.68333333333</v>
+        <v>1921.68333333333</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -1654,7 +1654,7 @@
         <v>13.92499999999995</v>
       </c>
       <c r="N35">
-        <v>1936.925</v>
+        <v>1921.925</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -1689,7 +1689,7 @@
         <v>14.04999999999995</v>
       </c>
       <c r="N36">
-        <v>1937.05</v>
+        <v>1922.05</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -1724,7 +1724,7 @@
         <v>13.65000000000009</v>
       </c>
       <c r="N37">
-        <v>1936.65</v>
+        <v>1921.65</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -1759,7 +1759,7 @@
         <v>13.60000000000014</v>
       </c>
       <c r="N38">
-        <v>1936.6</v>
+        <v>1921.6</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -1794,7 +1794,7 @@
         <v>13.72500000000014</v>
       </c>
       <c r="N39">
-        <v>1936.725</v>
+        <v>1921.725</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -1829,7 +1829,7 @@
         <v>13.43333333332998</v>
       </c>
       <c r="N40">
-        <v>1936.43333333333</v>
+        <v>1921.43333333333</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -1864,7 +1864,7 @@
         <v>13.89166666667006</v>
       </c>
       <c r="N41">
-        <v>1936.89166666667</v>
+        <v>1921.89166666667</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -1899,7 +1899,7 @@
         <v>13.73333333332994</v>
       </c>
       <c r="N42">
-        <v>1936.73333333333</v>
+        <v>1921.73333333333</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -1934,7 +1934,7 @@
         <v>13.30833333332998</v>
       </c>
       <c r="N43">
-        <v>1936.30833333333</v>
+        <v>1921.30833333333</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -1969,7 +1969,7 @@
         <v>13.01666666667006</v>
       </c>
       <c r="N44">
-        <v>1936.01666666667</v>
+        <v>1921.01666666667</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -2004,7 +2004,7 @@
         <v>12.97499999999991</v>
       </c>
       <c r="N45">
-        <v>1935.975</v>
+        <v>1920.975</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -2039,7 +2039,7 @@
         <v>13.01666666667006</v>
       </c>
       <c r="N46">
-        <v>1936.01666666667</v>
+        <v>1921.01666666667</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -2074,7 +2074,7 @@
         <v>13.13333333333003</v>
       </c>
       <c r="N47">
-        <v>1936.13333333333</v>
+        <v>1921.13333333333</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -2109,7 +2109,7 @@
         <v>12.45000000000005</v>
       </c>
       <c r="N48">
-        <v>1935.45</v>
+        <v>1920.45</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -2144,7 +2144,7 @@
         <v>12.94166666667002</v>
       </c>
       <c r="N49">
-        <v>1935.94166666667</v>
+        <v>1920.94166666667</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -2179,7 +2179,7 @@
         <v>13.10833333332994</v>
       </c>
       <c r="N50">
-        <v>1936.10833333333</v>
+        <v>1921.10833333333</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -2214,7 +2214,7 @@
         <v>13.18333333332998</v>
       </c>
       <c r="N51">
-        <v>1936.18333333333</v>
+        <v>1921.18333333333</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -2249,7 +2249,7 @@
         <v>13.64166666667006</v>
       </c>
       <c r="N52">
-        <v>1936.64166666667</v>
+        <v>1921.64166666667</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -2284,7 +2284,7 @@
         <v>13.82500000000005</v>
       </c>
       <c r="N53">
-        <v>1936.825</v>
+        <v>1921.825</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -2319,7 +2319,7 @@
         <v>12.78333333332989</v>
       </c>
       <c r="N54">
-        <v>1935.78333333333</v>
+        <v>1920.78333333333</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -2354,7 +2354,7 @@
         <v>13.80833333332998</v>
       </c>
       <c r="N55">
-        <v>1936.80833333333</v>
+        <v>1921.80833333333</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -2389,7 +2389,7 @@
         <v>13.51666666667006</v>
       </c>
       <c r="N56">
-        <v>1936.51666666667</v>
+        <v>1921.51666666667</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -2424,7 +2424,7 @@
         <v>13.22500000000014</v>
       </c>
       <c r="N57">
-        <v>1936.225</v>
+        <v>1921.225</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -2459,7 +2459,7 @@
         <v>13.26666666667006</v>
       </c>
       <c r="N58">
-        <v>1936.26666666667</v>
+        <v>1921.26666666667</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -2494,7 +2494,7 @@
         <v>13.13333333333003</v>
       </c>
       <c r="N59">
-        <v>1936.13333333333</v>
+        <v>1921.13333333333</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -2529,7 +2529,7 @@
         <v>13.35833333332994</v>
       </c>
       <c r="N60">
-        <v>1936.35833333333</v>
+        <v>1921.35833333333</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -2564,7 +2564,7 @@
         <v>13.21666666667011</v>
       </c>
       <c r="N61">
-        <v>1936.21666666667</v>
+        <v>1921.21666666667</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -2599,7 +2599,7 @@
         <v>13.02500000000009</v>
       </c>
       <c r="N62">
-        <v>1936.025</v>
+        <v>1921.025</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -2634,7 +2634,7 @@
         <v>12.90000000000009</v>
       </c>
       <c r="N63">
-        <v>1935.9</v>
+        <v>1920.9</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -2669,7 +2669,7 @@
         <v>12.80833333332998</v>
       </c>
       <c r="N64">
-        <v>1935.80833333333</v>
+        <v>1920.80833333333</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -2704,7 +2704,7 @@
         <v>12.80833333332998</v>
       </c>
       <c r="N65">
-        <v>1935.80833333333</v>
+        <v>1920.80833333333</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -2739,7 +2739,7 @@
         <v>12.76666666667006</v>
       </c>
       <c r="N66">
-        <v>1935.76666666667</v>
+        <v>1920.76666666667</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -2774,7 +2774,7 @@
         <v>12.98333333332994</v>
       </c>
       <c r="N67">
-        <v>1935.98333333333</v>
+        <v>1920.98333333333</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -2809,7 +2809,7 @@
         <v>12.10833333332994</v>
       </c>
       <c r="N68">
-        <v>1935.10833333333</v>
+        <v>1920.10833333333</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -2844,7 +2844,7 @@
         <v>11.77499999999986</v>
       </c>
       <c r="N69">
-        <v>1934.775</v>
+        <v>1919.775</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -2879,7 +2879,7 @@
         <v>11.72499999999991</v>
       </c>
       <c r="N70">
-        <v>1934.725</v>
+        <v>1919.725</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -2914,7 +2914,7 @@
         <v>11.91666666666993</v>
       </c>
       <c r="N71">
-        <v>1934.91666666667</v>
+        <v>1919.91666666667</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -2949,7 +2949,7 @@
         <v>11.875</v>
       </c>
       <c r="N72">
-        <v>1934.875</v>
+        <v>1919.875</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -2984,7 +2984,7 @@
         <v>12.78333333332989</v>
       </c>
       <c r="N73">
-        <v>1935.78333333333</v>
+        <v>1920.78333333333</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -3019,7 +3019,7 @@
         <v>12</v>
       </c>
       <c r="N74">
-        <v>1935</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -3054,7 +3054,7 @@
         <v>11.79166666666993</v>
       </c>
       <c r="N75">
-        <v>1934.79166666667</v>
+        <v>1919.79166666667</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -3089,7 +3089,7 @@
         <v>12.23333333332994</v>
       </c>
       <c r="N76">
-        <v>1935.23333333333</v>
+        <v>1920.23333333333</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -3124,7 +3124,7 @@
         <v>11.92499999999995</v>
       </c>
       <c r="N77">
-        <v>1934.925</v>
+        <v>1919.925</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -3159,7 +3159,7 @@
         <v>11.89166666667006</v>
       </c>
       <c r="N78">
-        <v>1934.89166666667</v>
+        <v>1919.89166666667</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -3194,7 +3194,7 @@
         <v>12.07499999999982</v>
       </c>
       <c r="N79">
-        <v>1935.075</v>
+        <v>1920.075</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -3229,7 +3229,7 @@
         <v>12.39999999999986</v>
       </c>
       <c r="N80">
-        <v>1935.4</v>
+        <v>1920.4</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -3264,7 +3264,7 @@
         <v>12.21666666667011</v>
       </c>
       <c r="N81">
-        <v>1935.21666666667</v>
+        <v>1920.21666666667</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -3299,7 +3299,7 @@
         <v>12.01666666667006</v>
       </c>
       <c r="N82">
-        <v>1935.01666666667</v>
+        <v>1920.01666666667</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -3334,7 +3334,7 @@
         <v>11.60833333332994</v>
       </c>
       <c r="N83">
-        <v>1934.60833333333</v>
+        <v>1919.60833333333</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -3369,7 +3369,7 @@
         <v>11.39999999999986</v>
       </c>
       <c r="N84">
-        <v>1934.4</v>
+        <v>1919.4</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -3404,7 +3404,7 @@
         <v>11.125</v>
       </c>
       <c r="N85">
-        <v>1934.125</v>
+        <v>1919.125</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -3439,7 +3439,7 @@
         <v>11.03333333332989</v>
       </c>
       <c r="N86">
-        <v>1934.03333333333</v>
+        <v>1919.03333333333</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -3474,7 +3474,7 @@
         <v>10.57499999999982</v>
       </c>
       <c r="N87">
-        <v>1933.575</v>
+        <v>1918.575</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -3509,7 +3509,7 @@
         <v>11.30833333332998</v>
       </c>
       <c r="N88">
-        <v>1934.30833333333</v>
+        <v>1919.30833333333</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -3544,7 +3544,7 @@
         <v>11.23333333332994</v>
       </c>
       <c r="N89">
-        <v>1934.23333333333</v>
+        <v>1919.23333333333</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -3579,7 +3579,7 @@
         <v>10.75833333333003</v>
       </c>
       <c r="N90">
-        <v>1933.75833333333</v>
+        <v>1918.75833333333</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -3614,7 +3614,7 @@
         <v>10.22499999999991</v>
       </c>
       <c r="N91">
-        <v>1933.225</v>
+        <v>1918.225</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -3649,7 +3649,7 @@
         <v>9.666666666670153</v>
       </c>
       <c r="N92">
-        <v>1932.66666666667</v>
+        <v>1917.66666666667</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -3684,7 +3684,7 @@
         <v>9.908333333329892</v>
       </c>
       <c r="N93">
-        <v>1932.90833333333</v>
+        <v>1917.90833333333</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -3719,7 +3719,7 @@
         <v>10.27499999999986</v>
       </c>
       <c r="N94">
-        <v>1933.275</v>
+        <v>1918.275</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -3754,7 +3754,7 @@
         <v>10.40833333332989</v>
       </c>
       <c r="N95">
-        <v>1933.40833333333</v>
+        <v>1918.40833333333</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -3789,7 +3789,7 @@
         <v>10.39999999999986</v>
       </c>
       <c r="N96">
-        <v>1933.4</v>
+        <v>1918.4</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -3824,7 +3824,7 @@
         <v>10.18333333332998</v>
       </c>
       <c r="N97">
-        <v>1933.18333333333</v>
+        <v>1918.18333333333</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -3859,7 +3859,7 @@
         <v>10.72499999999991</v>
       </c>
       <c r="N98">
-        <v>1933.725</v>
+        <v>1918.725</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -3894,7 +3894,7 @@
         <v>11.22499999999991</v>
       </c>
       <c r="N99">
-        <v>1934.225</v>
+        <v>1919.225</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -3929,7 +3929,7 @@
         <v>11.00833333333003</v>
       </c>
       <c r="N100">
-        <v>1934.00833333333</v>
+        <v>1919.00833333333</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -3964,7 +3964,7 @@
         <v>11.14166666667006</v>
       </c>
       <c r="N101">
-        <v>1934.14166666667</v>
+        <v>1919.14166666667</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -3999,7 +3999,7 @@
         <v>11.44166666667002</v>
       </c>
       <c r="N102">
-        <v>1934.44166666667</v>
+        <v>1919.44166666667</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -4034,7 +4034,7 @@
         <v>11.44166666667002</v>
       </c>
       <c r="N103">
-        <v>1934.44166666667</v>
+        <v>1919.44166666667</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -4069,7 +4069,7 @@
         <v>10.95000000000005</v>
       </c>
       <c r="N104">
-        <v>1933.95</v>
+        <v>1918.95</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -4104,7 +4104,7 @@
         <v>11.04166666666993</v>
       </c>
       <c r="N105">
-        <v>1934.04166666667</v>
+        <v>1919.04166666667</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -4139,7 +4139,7 @@
         <v>10.92499999999995</v>
       </c>
       <c r="N106">
-        <v>1933.925</v>
+        <v>1918.925</v>
       </c>
     </row>
     <row r="107" spans="1:14">
@@ -4174,7 +4174,7 @@
         <v>11.42499999999995</v>
       </c>
       <c r="N107">
-        <v>1934.425</v>
+        <v>1919.425</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -4209,7 +4209,7 @@
         <v>11.04999999999995</v>
       </c>
       <c r="N108">
-        <v>1934.05</v>
+        <v>1919.05</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -4244,7 +4244,7 @@
         <v>11.01666666667006</v>
       </c>
       <c r="N109">
-        <v>1934.01666666667</v>
+        <v>1919.01666666667</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -4279,7 +4279,7 @@
         <v>11.19166666667002</v>
       </c>
       <c r="N110">
-        <v>1934.19166666667</v>
+        <v>1919.19166666667</v>
       </c>
     </row>
     <row r="111" spans="1:14">
@@ -4314,7 +4314,7 @@
         <v>11.09999999999991</v>
       </c>
       <c r="N111">
-        <v>1934.1</v>
+        <v>1919.1</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -4349,7 +4349,7 @@
         <v>10.53333333332989</v>
       </c>
       <c r="N112">
-        <v>1933.53333333333</v>
+        <v>1918.53333333333</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -4384,7 +4384,7 @@
         <v>10.45833333332985</v>
       </c>
       <c r="N113">
-        <v>1933.45833333333</v>
+        <v>1918.45833333333</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -4419,7 +4419,7 @@
         <v>10.40833333332989</v>
       </c>
       <c r="N114">
-        <v>1933.40833333333</v>
+        <v>1918.40833333333</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -4454,7 +4454,7 @@
         <v>9.583333333329847</v>
       </c>
       <c r="N115">
-        <v>1932.58333333333</v>
+        <v>1917.58333333333</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -4489,7 +4489,7 @@
         <v>9.308333333329983</v>
       </c>
       <c r="N116">
-        <v>1932.30833333333</v>
+        <v>1917.30833333333</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -4524,7 +4524,7 @@
         <v>9.366666666669971</v>
       </c>
       <c r="N117">
-        <v>1932.36666666667</v>
+        <v>1917.36666666667</v>
       </c>
     </row>
     <row r="118" spans="1:14">
@@ -4559,7 +4559,7 @@
         <v>9.608333333329938</v>
       </c>
       <c r="N118">
-        <v>1932.60833333333</v>
+        <v>1917.60833333333</v>
       </c>
     </row>
     <row r="119" spans="1:14">
@@ -4594,7 +4594,7 @@
         <v>9.949999999999818</v>
       </c>
       <c r="N119">
-        <v>1932.95</v>
+        <v>1917.95</v>
       </c>
     </row>
     <row r="120" spans="1:14">
@@ -4629,7 +4629,7 @@
         <v>10.65833333332989</v>
       </c>
       <c r="N120">
-        <v>1933.65833333333</v>
+        <v>1918.65833333333</v>
       </c>
     </row>
     <row r="121" spans="1:14">
@@ -4664,7 +4664,7 @@
         <v>10.76666666667006</v>
       </c>
       <c r="N121">
-        <v>1933.76666666667</v>
+        <v>1918.76666666667</v>
       </c>
     </row>
     <row r="122" spans="1:14">
@@ -4699,7 +4699,7 @@
         <v>11.28333333332989</v>
       </c>
       <c r="N122">
-        <v>1934.28333333333</v>
+        <v>1919.28333333333</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -4734,7 +4734,7 @@
         <v>11.86666666666997</v>
       </c>
       <c r="N123">
-        <v>1934.86666666667</v>
+        <v>1919.86666666667</v>
       </c>
     </row>
     <row r="124" spans="1:14">
@@ -4769,7 +4769,7 @@
         <v>11.22500000000014</v>
       </c>
       <c r="N124">
-        <v>1934.225</v>
+        <v>1919.225</v>
       </c>
     </row>
     <row r="125" spans="1:14">
@@ -4804,7 +4804,7 @@
         <v>11.13333333333003</v>
       </c>
       <c r="N125">
-        <v>1934.13333333333</v>
+        <v>1919.13333333333</v>
       </c>
     </row>
     <row r="126" spans="1:14">
@@ -4839,7 +4839,7 @@
         <v>11.21666666667011</v>
       </c>
       <c r="N126">
-        <v>1934.21666666667</v>
+        <v>1919.21666666667</v>
       </c>
     </row>
     <row r="127" spans="1:14">
@@ -4874,7 +4874,7 @@
         <v>10.99166666666997</v>
       </c>
       <c r="N127">
-        <v>1933.99166666667</v>
+        <v>1918.99166666667</v>
       </c>
     </row>
     <row r="128" spans="1:14">
@@ -4909,7 +4909,7 @@
         <v>11.20833333332985</v>
       </c>
       <c r="N128">
-        <v>1934.20833333333</v>
+        <v>1919.20833333333</v>
       </c>
     </row>
     <row r="129" spans="1:14">
@@ -4944,7 +4944,7 @@
         <v>10.41666666666993</v>
       </c>
       <c r="N129">
-        <v>1933.41666666667</v>
+        <v>1918.41666666667</v>
       </c>
     </row>
     <row r="130" spans="1:14">
@@ -4979,7 +4979,7 @@
         <v>10.27500000000009</v>
       </c>
       <c r="N130">
-        <v>1933.275</v>
+        <v>1918.275</v>
       </c>
     </row>
     <row r="131" spans="1:14">
@@ -5014,7 +5014,7 @@
         <v>10.27500000000009</v>
       </c>
       <c r="N131">
-        <v>1933.275</v>
+        <v>1918.275</v>
       </c>
     </row>
     <row r="132" spans="1:14">
@@ -5049,7 +5049,7 @@
         <v>10.26666666667006</v>
       </c>
       <c r="N132">
-        <v>1933.26666666667</v>
+        <v>1918.26666666667</v>
       </c>
     </row>
     <row r="133" spans="1:14">
@@ -5084,7 +5084,7 @@
         <v>10.52500000000009</v>
       </c>
       <c r="N133">
-        <v>1933.525</v>
+        <v>1918.525</v>
       </c>
     </row>
     <row r="134" spans="1:14">
@@ -5119,7 +5119,7 @@
         <v>10.20833333332985</v>
       </c>
       <c r="N134">
-        <v>1933.20833333333</v>
+        <v>1918.20833333333</v>
       </c>
     </row>
     <row r="135" spans="1:14">
@@ -5154,7 +5154,7 @@
         <v>10.15833333332989</v>
       </c>
       <c r="N135">
-        <v>1933.15833333333</v>
+        <v>1918.15833333333</v>
       </c>
     </row>
     <row r="136" spans="1:14">
@@ -5189,7 +5189,7 @@
         <v>10.15833333332989</v>
       </c>
       <c r="N136">
-        <v>1933.15833333333</v>
+        <v>1918.15833333333</v>
       </c>
     </row>
     <row r="137" spans="1:14">
@@ -5224,7 +5224,7 @@
         <v>9.991666666669971</v>
       </c>
       <c r="N137">
-        <v>1932.99166666667</v>
+        <v>1917.99166666667</v>
       </c>
     </row>
     <row r="138" spans="1:14">
@@ -5259,7 +5259,7 @@
         <v>9.833333333329847</v>
       </c>
       <c r="N138">
-        <v>1932.83333333333</v>
+        <v>1917.83333333333</v>
       </c>
     </row>
     <row r="139" spans="1:14">
@@ -5294,7 +5294,7 @@
         <v>9.349999999999909</v>
       </c>
       <c r="N139">
-        <v>1932.35</v>
+        <v>1917.35</v>
       </c>
     </row>
     <row r="140" spans="1:14">
@@ -5329,7 +5329,7 @@
         <v>8.716666666670108</v>
       </c>
       <c r="N140">
-        <v>1931.71666666667</v>
+        <v>1916.71666666667</v>
       </c>
     </row>
     <row r="141" spans="1:14">
@@ -5364,7 +5364,7 @@
         <v>8.916666666669926</v>
       </c>
       <c r="N141">
-        <v>1931.91666666667</v>
+        <v>1916.91666666667</v>
       </c>
     </row>
     <row r="142" spans="1:14">
@@ -5399,7 +5399,7 @@
         <v>8.900000000000091</v>
       </c>
       <c r="N142">
-        <v>1931.9</v>
+        <v>1916.9</v>
       </c>
     </row>
     <row r="143" spans="1:14">
@@ -5434,7 +5434,7 @@
         <v>9.025000000000091</v>
       </c>
       <c r="N143">
-        <v>1932.025</v>
+        <v>1917.025</v>
       </c>
     </row>
     <row r="144" spans="1:14">
@@ -5469,7 +5469,7 @@
         <v>9.358333333329938</v>
       </c>
       <c r="N144">
-        <v>1932.35833333333</v>
+        <v>1917.35833333333</v>
       </c>
     </row>
     <row r="145" spans="1:14">
@@ -5504,7 +5504,7 @@
         <v>11.25833333333003</v>
       </c>
       <c r="N145">
-        <v>1934.25833333333</v>
+        <v>1919.25833333333</v>
       </c>
     </row>
     <row r="146" spans="1:14">
@@ -5539,7 +5539,7 @@
         <v>11.00833333333003</v>
       </c>
       <c r="N146">
-        <v>1934.00833333333</v>
+        <v>1919.00833333333</v>
       </c>
     </row>
     <row r="147" spans="1:14">
@@ -5574,7 +5574,7 @@
         <v>10.72500000000014</v>
       </c>
       <c r="N147">
-        <v>1933.725</v>
+        <v>1918.725</v>
       </c>
     </row>
     <row r="148" spans="1:14">
@@ -5609,7 +5609,7 @@
         <v>10.10833333332994</v>
       </c>
       <c r="N148">
-        <v>1933.10833333333</v>
+        <v>1918.10833333333</v>
       </c>
     </row>
     <row r="149" spans="1:14">
@@ -5644,7 +5644,7 @@
         <v>11.04999999999995</v>
       </c>
       <c r="N149">
-        <v>1934.05</v>
+        <v>1919.05</v>
       </c>
     </row>
     <row r="150" spans="1:14">
@@ -5679,7 +5679,7 @@
         <v>10.64166666667006</v>
       </c>
       <c r="N150">
-        <v>1933.64166666667</v>
+        <v>1918.64166666667</v>
       </c>
     </row>
     <row r="151" spans="1:14">
@@ -5714,7 +5714,7 @@
         <v>10.24166666666997</v>
       </c>
       <c r="N151">
-        <v>1933.24166666667</v>
+        <v>1918.24166666667</v>
       </c>
     </row>
     <row r="152" spans="1:14">
@@ -5749,7 +5749,7 @@
         <v>10.11666666666997</v>
       </c>
       <c r="N152">
-        <v>1933.11666666667</v>
+        <v>1918.11666666667</v>
       </c>
     </row>
     <row r="153" spans="1:14">
@@ -5784,7 +5784,7 @@
         <v>9.950000000000045</v>
       </c>
       <c r="N153">
-        <v>1932.95</v>
+        <v>1917.95</v>
       </c>
     </row>
     <row r="154" spans="1:14">
@@ -5819,7 +5819,7 @@
         <v>9.691666666670017</v>
       </c>
       <c r="N154">
-        <v>1932.69166666667</v>
+        <v>1917.69166666667</v>
       </c>
     </row>
     <row r="155" spans="1:14">
@@ -5854,7 +5854,7 @@
         <v>10.09166666667011</v>
       </c>
       <c r="N155">
-        <v>1933.09166666667</v>
+        <v>1918.09166666667</v>
       </c>
     </row>
     <row r="156" spans="1:14">
@@ -5889,7 +5889,7 @@
         <v>9.808333333329983</v>
       </c>
       <c r="N156">
-        <v>1932.80833333333</v>
+        <v>1917.80833333333</v>
       </c>
     </row>
     <row r="157" spans="1:14">
@@ -5924,7 +5924,7 @@
         <v>9.650000000000091</v>
       </c>
       <c r="N157">
-        <v>1932.65</v>
+        <v>1917.65</v>
       </c>
     </row>
     <row r="158" spans="1:14">
@@ -5959,7 +5959,7 @@
         <v>9.525000000000091</v>
       </c>
       <c r="N158">
-        <v>1932.525</v>
+        <v>1917.525</v>
       </c>
     </row>
     <row r="159" spans="1:14">
@@ -5994,7 +5994,7 @@
         <v>9.725000000000136</v>
       </c>
       <c r="N159">
-        <v>1932.725</v>
+        <v>1917.725</v>
       </c>
     </row>
     <row r="160" spans="1:14">
@@ -6029,7 +6029,7 @@
         <v>9.474999999999909</v>
       </c>
       <c r="N160">
-        <v>1932.475</v>
+        <v>1917.475</v>
       </c>
     </row>
     <row r="161" spans="1:14">
@@ -6064,7 +6064,7 @@
         <v>9.299999999999955</v>
       </c>
       <c r="N161">
-        <v>1932.3</v>
+        <v>1917.3</v>
       </c>
     </row>
     <row r="162" spans="1:14">
@@ -6099,7 +6099,7 @@
         <v>9.383333333330029</v>
       </c>
       <c r="N162">
-        <v>1932.38333333333</v>
+        <v>1917.38333333333</v>
       </c>
     </row>
     <row r="163" spans="1:14">
@@ -6134,7 +6134,7 @@
         <v>9.225000000000136</v>
       </c>
       <c r="N163">
-        <v>1932.225</v>
+        <v>1917.225</v>
       </c>
     </row>
     <row r="164" spans="1:14">
@@ -6169,7 +6169,7 @@
         <v>8.391666666670062</v>
       </c>
       <c r="N164">
-        <v>1931.39166666667</v>
+        <v>1916.39166666667</v>
       </c>
     </row>
     <row r="165" spans="1:14">
@@ -6204,7 +6204,7 @@
         <v>8.824999999999818</v>
       </c>
       <c r="N165">
-        <v>1931.825</v>
+        <v>1916.825</v>
       </c>
     </row>
     <row r="166" spans="1:14">
@@ -6239,7 +6239,7 @@
         <v>9.075000000000045</v>
       </c>
       <c r="N166">
-        <v>1932.075</v>
+        <v>1917.075</v>
       </c>
     </row>
     <row r="167" spans="1:14">
@@ -6274,7 +6274,7 @@
         <v>8.858333333329938</v>
       </c>
       <c r="N167">
-        <v>1931.85833333333</v>
+        <v>1916.85833333333</v>
       </c>
     </row>
     <row r="168" spans="1:14">
@@ -6309,7 +6309,7 @@
         <v>8.625</v>
       </c>
       <c r="N168">
-        <v>1931.625</v>
+        <v>1916.625</v>
       </c>
     </row>
     <row r="169" spans="1:14">
@@ -6344,7 +6344,7 @@
         <v>8.700000000000045</v>
       </c>
       <c r="N169">
-        <v>1931.7</v>
+        <v>1916.7</v>
       </c>
     </row>
     <row r="170" spans="1:14">
@@ -6379,7 +6379,7 @@
         <v>9.383333333330029</v>
       </c>
       <c r="N170">
-        <v>1932.38333333333</v>
+        <v>1917.38333333333</v>
       </c>
     </row>
     <row r="171" spans="1:14">
@@ -6414,7 +6414,7 @@
         <v>9.625</v>
       </c>
       <c r="N171">
-        <v>1932.625</v>
+        <v>1917.625</v>
       </c>
     </row>
     <row r="172" spans="1:14">
@@ -6449,7 +6449,7 @@
         <v>9.924999999999955</v>
       </c>
       <c r="N172">
-        <v>1932.925</v>
+        <v>1917.925</v>
       </c>
     </row>
     <row r="173" spans="1:14">
@@ -6484,7 +6484,7 @@
         <v>9.599999999999909</v>
       </c>
       <c r="N173">
-        <v>1932.6</v>
+        <v>1917.6</v>
       </c>
     </row>
     <row r="174" spans="1:14">
@@ -6519,7 +6519,7 @@
         <v>10.10000000000014</v>
       </c>
       <c r="N174">
-        <v>1933.1</v>
+        <v>1918.1</v>
       </c>
     </row>
     <row r="175" spans="1:14">
@@ -6554,7 +6554,7 @@
         <v>9.508333333330029</v>
       </c>
       <c r="N175">
-        <v>1932.50833333333</v>
+        <v>1917.50833333333</v>
       </c>
     </row>
     <row r="176" spans="1:14">
@@ -6589,7 +6589,7 @@
         <v>9.458333333329847</v>
       </c>
       <c r="N176">
-        <v>1932.45833333333</v>
+        <v>1917.45833333333</v>
       </c>
     </row>
     <row r="177" spans="1:14">
@@ -6624,7 +6624,7 @@
         <v>9.25</v>
       </c>
       <c r="N177">
-        <v>1932.25</v>
+        <v>1917.25</v>
       </c>
     </row>
     <row r="178" spans="1:14">
@@ -6659,7 +6659,7 @@
         <v>9.241666666669971</v>
       </c>
       <c r="N178">
-        <v>1932.24166666667</v>
+        <v>1917.24166666667</v>
       </c>
     </row>
     <row r="179" spans="1:14">
@@ -6694,7 +6694,7 @@
         <v>8.966666666670108</v>
       </c>
       <c r="N179">
-        <v>1931.96666666667</v>
+        <v>1916.96666666667</v>
       </c>
     </row>
     <row r="180" spans="1:14">
@@ -6729,7 +6729,7 @@
         <v>8.308333333329983</v>
       </c>
       <c r="N180">
-        <v>1931.30833333333</v>
+        <v>1916.30833333333</v>
       </c>
     </row>
     <row r="181" spans="1:14">
@@ -6764,7 +6764,7 @@
         <v>8.650000000000091</v>
       </c>
       <c r="N181">
-        <v>1931.65</v>
+        <v>1916.65</v>
       </c>
     </row>
     <row r="182" spans="1:14">
@@ -6799,7 +6799,7 @@
         <v>9.316666666670017</v>
       </c>
       <c r="N182">
-        <v>1932.31666666667</v>
+        <v>1917.31666666667</v>
       </c>
     </row>
     <row r="183" spans="1:14">
@@ -6834,7 +6834,7 @@
         <v>8.683333333329983</v>
       </c>
       <c r="N183">
-        <v>1931.68333333333</v>
+        <v>1916.68333333333</v>
       </c>
     </row>
     <row r="184" spans="1:14">
@@ -6869,7 +6869,7 @@
         <v>8.641666666670062</v>
       </c>
       <c r="N184">
-        <v>1931.64166666667</v>
+        <v>1916.64166666667</v>
       </c>
     </row>
     <row r="185" spans="1:14">
@@ -6904,7 +6904,7 @@
         <v>8.591666666670108</v>
       </c>
       <c r="N185">
-        <v>1931.59166666667</v>
+        <v>1916.59166666667</v>
       </c>
     </row>
     <row r="186" spans="1:14">
@@ -6939,7 +6939,7 @@
         <v>8.816666666670017</v>
       </c>
       <c r="N186">
-        <v>1931.81666666667</v>
+        <v>1916.81666666667</v>
       </c>
     </row>
     <row r="187" spans="1:14">
@@ -6974,7 +6974,7 @@
         <v>8.475000000000136</v>
       </c>
       <c r="N187">
-        <v>1931.475</v>
+        <v>1916.475</v>
       </c>
     </row>
     <row r="188" spans="1:14">
@@ -7009,7 +7009,7 @@
         <v>7.650000000000091</v>
       </c>
       <c r="N188">
-        <v>1930.65</v>
+        <v>1915.65</v>
       </c>
     </row>
     <row r="189" spans="1:14">
@@ -7044,7 +7044,7 @@
         <v>7.991666666669971</v>
       </c>
       <c r="N189">
-        <v>1930.99166666667</v>
+        <v>1915.99166666667</v>
       </c>
     </row>
     <row r="190" spans="1:14">
@@ -7079,7 +7079,7 @@
         <v>7.725000000000136</v>
       </c>
       <c r="N190">
-        <v>1930.725</v>
+        <v>1915.725</v>
       </c>
     </row>
     <row r="191" spans="1:14">
@@ -7114,7 +7114,7 @@
         <v>8.475000000000136</v>
       </c>
       <c r="N191">
-        <v>1931.475</v>
+        <v>1916.475</v>
       </c>
     </row>
     <row r="192" spans="1:14">
@@ -7149,7 +7149,7 @@
         <v>9.008333333330029</v>
       </c>
       <c r="N192">
-        <v>1932.00833333333</v>
+        <v>1917.00833333333</v>
       </c>
     </row>
     <row r="193" spans="1:14">
@@ -7184,7 +7184,7 @@
         <v>8.600000000000136</v>
       </c>
       <c r="N193">
-        <v>1931.6</v>
+        <v>1916.6</v>
       </c>
     </row>
     <row r="194" spans="1:14">
@@ -7219,7 +7219,7 @@
         <v>8.866666666669971</v>
       </c>
       <c r="N194">
-        <v>1931.86666666667</v>
+        <v>1916.86666666667</v>
       </c>
     </row>
     <row r="195" spans="1:14">
@@ -7254,7 +7254,7 @@
         <v>9.233333333329938</v>
       </c>
       <c r="N195">
-        <v>1932.23333333333</v>
+        <v>1917.23333333333</v>
       </c>
     </row>
     <row r="196" spans="1:14">
@@ -7289,7 +7289,7 @@
         <v>9.441666666670017</v>
       </c>
       <c r="N196">
-        <v>1932.44166666667</v>
+        <v>1917.44166666667</v>
       </c>
     </row>
     <row r="197" spans="1:14">
@@ -7324,7 +7324,7 @@
         <v>9.633333333330029</v>
       </c>
       <c r="N197">
-        <v>1932.63333333333</v>
+        <v>1917.63333333333</v>
       </c>
     </row>
     <row r="198" spans="1:14">
@@ -7359,7 +7359,7 @@
         <v>9.083333333329847</v>
       </c>
       <c r="N198">
-        <v>1932.08333333333</v>
+        <v>1917.08333333333</v>
       </c>
     </row>
     <row r="199" spans="1:14">
@@ -7394,7 +7394,7 @@
         <v>9.041666666669926</v>
       </c>
       <c r="N199">
-        <v>1932.04166666667</v>
+        <v>1917.04166666667</v>
       </c>
     </row>
     <row r="200" spans="1:14">
@@ -7429,7 +7429,7 @@
         <v>8.841666666670108</v>
       </c>
       <c r="N200">
-        <v>1931.84166666667</v>
+        <v>1916.84166666667</v>
       </c>
     </row>
     <row r="201" spans="1:14">
@@ -7464,7 +7464,7 @@
         <v>9.033333333329892</v>
       </c>
       <c r="N201">
-        <v>1932.03333333333</v>
+        <v>1917.03333333333</v>
       </c>
     </row>
     <row r="202" spans="1:14">
@@ -7499,7 +7499,7 @@
         <v>8.549999999999955</v>
       </c>
       <c r="N202">
-        <v>1931.55</v>
+        <v>1916.55</v>
       </c>
     </row>
     <row r="203" spans="1:14">
@@ -7534,7 +7534,7 @@
         <v>8.766666666670062</v>
       </c>
       <c r="N203">
-        <v>1931.76666666667</v>
+        <v>1916.76666666667</v>
       </c>
     </row>
     <row r="204" spans="1:14">
@@ -7569,7 +7569,7 @@
         <v>8.775000000000091</v>
       </c>
       <c r="N204">
-        <v>1931.775</v>
+        <v>1916.775</v>
       </c>
     </row>
     <row r="205" spans="1:14">
@@ -7604,7 +7604,7 @@
         <v>8.383333333330029</v>
       </c>
       <c r="N205">
-        <v>1931.38333333333</v>
+        <v>1916.38333333333</v>
       </c>
     </row>
     <row r="206" spans="1:14">
@@ -7639,7 +7639,7 @@
         <v>8.341666666670108</v>
       </c>
       <c r="N206">
-        <v>1931.34166666667</v>
+        <v>1916.34166666667</v>
       </c>
     </row>
     <row r="207" spans="1:14">
@@ -7674,7 +7674,7 @@
         <v>8.216666666670108</v>
       </c>
       <c r="N207">
-        <v>1931.21666666667</v>
+        <v>1916.21666666667</v>
       </c>
     </row>
     <row r="208" spans="1:14">
@@ -7709,7 +7709,7 @@
         <v>8.049999999999955</v>
       </c>
       <c r="N208">
-        <v>1931.05</v>
+        <v>1916.05</v>
       </c>
     </row>
     <row r="209" spans="1:14">
@@ -7744,7 +7744,7 @@
         <v>8.174999999999955</v>
       </c>
       <c r="N209">
-        <v>1931.175</v>
+        <v>1916.175</v>
       </c>
     </row>
     <row r="210" spans="1:14">
@@ -7779,7 +7779,7 @@
         <v>8.108333333329938</v>
       </c>
       <c r="N210">
-        <v>1931.10833333333</v>
+        <v>1916.10833333333</v>
       </c>
     </row>
     <row r="211" spans="1:14">
@@ -7814,7 +7814,7 @@
         <v>8.025000000000091</v>
       </c>
       <c r="N211">
-        <v>1931.025</v>
+        <v>1916.025</v>
       </c>
     </row>
     <row r="212" spans="1:14">
@@ -7849,7 +7849,7 @@
         <v>7.049999999999955</v>
       </c>
       <c r="N212">
-        <v>1930.05</v>
+        <v>1915.05</v>
       </c>
     </row>
     <row r="213" spans="1:14">
@@ -7884,7 +7884,7 @@
         <v>6.858333333329938</v>
       </c>
       <c r="N213">
-        <v>1929.85833333333</v>
+        <v>1914.85833333333</v>
       </c>
     </row>
     <row r="214" spans="1:14">
@@ -7919,7 +7919,7 @@
         <v>7.308333333329983</v>
       </c>
       <c r="N214">
-        <v>1930.30833333333</v>
+        <v>1915.30833333333</v>
       </c>
     </row>
     <row r="215" spans="1:14">
@@ -7954,7 +7954,7 @@
         <v>7.483333333329938</v>
       </c>
       <c r="N215">
-        <v>1930.48333333333</v>
+        <v>1915.48333333333</v>
       </c>
     </row>
     <row r="216" spans="1:14">
@@ -7989,7 +7989,7 @@
         <v>8.641666666670062</v>
       </c>
       <c r="N216">
-        <v>1931.64166666667</v>
+        <v>1916.64166666667</v>
       </c>
     </row>
     <row r="217" spans="1:14">
@@ -8024,7 +8024,7 @@
         <v>9.283333333329892</v>
       </c>
       <c r="N217">
-        <v>1932.28333333333</v>
+        <v>1917.28333333333</v>
       </c>
     </row>
     <row r="218" spans="1:14">
@@ -8059,7 +8059,7 @@
         <v>9.241666666669971</v>
       </c>
       <c r="N218">
-        <v>1932.24166666667</v>
+        <v>1917.24166666667</v>
       </c>
     </row>
     <row r="219" spans="1:14">
@@ -8094,7 +8094,7 @@
         <v>8.883333333330029</v>
       </c>
       <c r="N219">
-        <v>1931.88333333333</v>
+        <v>1916.88333333333</v>
       </c>
     </row>
     <row r="220" spans="1:14">
@@ -8129,7 +8129,7 @@
         <v>8.924999999999955</v>
       </c>
       <c r="N220">
-        <v>1931.925</v>
+        <v>1916.925</v>
       </c>
     </row>
     <row r="221" spans="1:14">
@@ -8164,7 +8164,7 @@
         <v>8.916666666670153</v>
       </c>
       <c r="N221">
-        <v>1931.91666666667</v>
+        <v>1916.91666666667</v>
       </c>
     </row>
     <row r="222" spans="1:14">
@@ -8199,7 +8199,7 @@
         <v>9.116666666669971</v>
       </c>
       <c r="N222">
-        <v>1932.11666666667</v>
+        <v>1917.11666666667</v>
       </c>
     </row>
     <row r="223" spans="1:14">
@@ -8234,7 +8234,7 @@
         <v>8.658333333329892</v>
       </c>
       <c r="N223">
-        <v>1931.65833333333</v>
+        <v>1916.65833333333</v>
       </c>
     </row>
     <row r="224" spans="1:14">
@@ -8269,7 +8269,7 @@
         <v>8.483333333329938</v>
       </c>
       <c r="N224">
-        <v>1931.48333333333</v>
+        <v>1916.48333333333</v>
       </c>
     </row>
     <row r="225" spans="1:14">
@@ -8304,7 +8304,7 @@
         <v>8.274999999999864</v>
       </c>
       <c r="N225">
-        <v>1931.275</v>
+        <v>1916.275</v>
       </c>
     </row>
     <row r="226" spans="1:14">
@@ -8339,7 +8339,7 @@
         <v>7.850000000000136</v>
       </c>
       <c r="N226">
-        <v>1930.85</v>
+        <v>1915.85</v>
       </c>
     </row>
     <row r="227" spans="1:14">
@@ -8374,7 +8374,7 @@
         <v>8.308333333329983</v>
       </c>
       <c r="N227">
-        <v>1931.30833333333</v>
+        <v>1916.30833333333</v>
       </c>
     </row>
     <row r="228" spans="1:14">
@@ -8409,7 +8409,7 @@
         <v>7.966666666670108</v>
       </c>
       <c r="N228">
-        <v>1930.96666666667</v>
+        <v>1915.96666666667</v>
       </c>
     </row>
     <row r="229" spans="1:14">
@@ -8444,7 +8444,7 @@
         <v>7.725000000000136</v>
       </c>
       <c r="N229">
-        <v>1930.725</v>
+        <v>1915.725</v>
       </c>
     </row>
     <row r="230" spans="1:14">
@@ -8479,7 +8479,7 @@
         <v>7.775000000000091</v>
       </c>
       <c r="N230">
-        <v>1930.775</v>
+        <v>1915.775</v>
       </c>
     </row>
     <row r="231" spans="1:14">
@@ -8514,7 +8514,7 @@
         <v>7.674999999999955</v>
       </c>
       <c r="N231">
-        <v>1930.675</v>
+        <v>1915.675</v>
       </c>
     </row>
     <row r="232" spans="1:14">
@@ -8549,7 +8549,7 @@
         <v>7.608333333329938</v>
       </c>
       <c r="N232">
-        <v>1930.60833333333</v>
+        <v>1915.60833333333</v>
       </c>
     </row>
     <row r="233" spans="1:14">
@@ -8584,7 +8584,7 @@
         <v>7.933333333329983</v>
       </c>
       <c r="N233">
-        <v>1930.93333333333</v>
+        <v>1915.93333333333</v>
       </c>
     </row>
     <row r="234" spans="1:14">
@@ -8619,7 +8619,7 @@
         <v>7.400000000000091</v>
       </c>
       <c r="N234">
-        <v>1930.4</v>
+        <v>1915.4</v>
       </c>
     </row>
     <row r="235" spans="1:14">
@@ -8654,7 +8654,7 @@
         <v>7.150000000000091</v>
       </c>
       <c r="N235">
-        <v>1930.15</v>
+        <v>1915.15</v>
       </c>
     </row>
     <row r="236" spans="1:14">
@@ -8689,7 +8689,7 @@
         <v>6.466666666670108</v>
       </c>
       <c r="N236">
-        <v>1929.46666666667</v>
+        <v>1914.46666666667</v>
       </c>
     </row>
     <row r="237" spans="1:14">
@@ -8724,7 +8724,7 @@
         <v>6.566666666670017</v>
       </c>
       <c r="N237">
-        <v>1929.56666666667</v>
+        <v>1914.56666666667</v>
       </c>
     </row>
     <row r="238" spans="1:14">
@@ -8759,7 +8759,7 @@
         <v>6.991666666669971</v>
       </c>
       <c r="N238">
-        <v>1929.99166666667</v>
+        <v>1914.99166666667</v>
       </c>
     </row>
     <row r="239" spans="1:14">
@@ -8794,7 +8794,7 @@
         <v>7.283333333329892</v>
       </c>
       <c r="N239">
-        <v>1930.28333333333</v>
+        <v>1915.28333333333</v>
       </c>
     </row>
     <row r="240" spans="1:14">
@@ -8829,7 +8829,7 @@
         <v>6.949999999999818</v>
       </c>
       <c r="N240">
-        <v>1929.95</v>
+        <v>1914.95</v>
       </c>
     </row>
     <row r="241" spans="1:14">
@@ -8864,7 +8864,7 @@
         <v>7.608333333329938</v>
       </c>
       <c r="N241">
-        <v>1930.60833333333</v>
+        <v>1915.60833333333</v>
       </c>
     </row>
     <row r="242" spans="1:14">
@@ -8899,7 +8899,7 @@
         <v>7.908333333329892</v>
       </c>
       <c r="N242">
-        <v>1930.90833333333</v>
+        <v>1915.90833333333</v>
       </c>
     </row>
     <row r="243" spans="1:14">
@@ -8934,7 +8934,7 @@
         <v>7.158333333329892</v>
       </c>
       <c r="N243">
-        <v>1930.15833333333</v>
+        <v>1915.15833333333</v>
       </c>
     </row>
     <row r="244" spans="1:14">
@@ -8969,7 +8969,7 @@
         <v>7.908333333329892</v>
       </c>
       <c r="N244">
-        <v>1930.90833333333</v>
+        <v>1915.90833333333</v>
       </c>
     </row>
     <row r="245" spans="1:14">
@@ -9004,7 +9004,7 @@
         <v>7.166666666669926</v>
       </c>
       <c r="N245">
-        <v>1930.16666666667</v>
+        <v>1915.16666666667</v>
       </c>
     </row>
     <row r="246" spans="1:14">
@@ -9039,7 +9039,7 @@
         <v>7.916666666669926</v>
       </c>
       <c r="N246">
-        <v>1930.91666666667</v>
+        <v>1915.91666666667</v>
       </c>
     </row>
     <row r="247" spans="1:14">
@@ -9074,7 +9074,7 @@
         <v>7.775000000000091</v>
       </c>
       <c r="N247">
-        <v>1930.775</v>
+        <v>1915.775</v>
       </c>
     </row>
     <row r="248" spans="1:14">
@@ -9109,7 +9109,7 @@
         <v>7.333333333329847</v>
       </c>
       <c r="N248">
-        <v>1930.33333333333</v>
+        <v>1915.33333333333</v>
       </c>
     </row>
     <row r="249" spans="1:14">
@@ -9144,7 +9144,7 @@
         <v>7.866666666669971</v>
       </c>
       <c r="N249">
-        <v>1930.86666666667</v>
+        <v>1915.86666666667</v>
       </c>
     </row>
     <row r="250" spans="1:14">
@@ -9179,7 +9179,7 @@
         <v>7.616666666669971</v>
       </c>
       <c r="N250">
-        <v>1930.61666666667</v>
+        <v>1915.61666666667</v>
       </c>
     </row>
     <row r="251" spans="1:14">
@@ -9214,7 +9214,7 @@
         <v>7.850000000000136</v>
       </c>
       <c r="N251">
-        <v>1930.85</v>
+        <v>1915.85</v>
       </c>
     </row>
     <row r="252" spans="1:14">
@@ -9249,7 +9249,7 @@
         <v>7.358333333329938</v>
       </c>
       <c r="N252">
-        <v>1930.35833333333</v>
+        <v>1915.35833333333</v>
       </c>
     </row>
     <row r="253" spans="1:14">
@@ -9284,7 +9284,7 @@
         <v>7.608333333329938</v>
       </c>
       <c r="N253">
-        <v>1930.60833333333</v>
+        <v>1915.60833333333</v>
       </c>
     </row>
     <row r="254" spans="1:14">
@@ -9319,7 +9319,7 @@
         <v>7.491666666669971</v>
       </c>
       <c r="N254">
-        <v>1930.49166666667</v>
+        <v>1915.49166666667</v>
       </c>
     </row>
     <row r="255" spans="1:14">
@@ -9354,7 +9354,7 @@
         <v>7.191666666670017</v>
       </c>
       <c r="N255">
-        <v>1930.19166666667</v>
+        <v>1915.19166666667</v>
       </c>
     </row>
     <row r="256" spans="1:14">
@@ -9389,7 +9389,7 @@
         <v>7.191666666670017</v>
       </c>
       <c r="N256">
-        <v>1930.19166666667</v>
+        <v>1915.19166666667</v>
       </c>
     </row>
     <row r="257" spans="1:14">
@@ -9424,7 +9424,7 @@
         <v>7.433333333329983</v>
       </c>
       <c r="N257">
-        <v>1930.43333333333</v>
+        <v>1915.43333333333</v>
       </c>
     </row>
     <row r="258" spans="1:14">
@@ -9459,7 +9459,7 @@
         <v>7.433333333329983</v>
       </c>
       <c r="N258">
-        <v>1930.43333333333</v>
+        <v>1915.43333333333</v>
       </c>
     </row>
     <row r="259" spans="1:14">
@@ -9494,7 +9494,7 @@
         <v>6.441666666670017</v>
       </c>
       <c r="N259">
-        <v>1929.44166666667</v>
+        <v>1914.44166666667</v>
       </c>
     </row>
     <row r="260" spans="1:14">
@@ -9529,7 +9529,7 @@
         <v>6.333333333329847</v>
       </c>
       <c r="N260">
-        <v>1929.33333333333</v>
+        <v>1914.33333333333</v>
       </c>
     </row>
     <row r="261" spans="1:14">
@@ -9564,7 +9564,7 @@
         <v>6.291666666669926</v>
       </c>
       <c r="N261">
-        <v>1929.29166666667</v>
+        <v>1914.29166666667</v>
       </c>
     </row>
     <row r="262" spans="1:14">
@@ -9599,7 +9599,7 @@
         <v>6.833333333329847</v>
       </c>
       <c r="N262">
-        <v>1929.83333333333</v>
+        <v>1914.83333333333</v>
       </c>
     </row>
     <row r="263" spans="1:14">
@@ -9634,7 +9634,7 @@
         <v>6.608333333329938</v>
       </c>
       <c r="N263">
-        <v>1929.60833333333</v>
+        <v>1914.60833333333</v>
       </c>
     </row>
     <row r="264" spans="1:14">
@@ -9669,7 +9669,7 @@
         <v>6.741666666669971</v>
       </c>
       <c r="N264">
-        <v>1929.74166666667</v>
+        <v>1914.74166666667</v>
       </c>
     </row>
     <row r="265" spans="1:14">
@@ -9704,7 +9704,7 @@
         <v>7.083333333329847</v>
       </c>
       <c r="N265">
-        <v>1930.08333333333</v>
+        <v>1915.08333333333</v>
       </c>
     </row>
     <row r="266" spans="1:14">
@@ -9739,7 +9739,7 @@
         <v>7.125</v>
       </c>
       <c r="N266">
-        <v>1930.125</v>
+        <v>1915.125</v>
       </c>
     </row>
     <row r="267" spans="1:14">
@@ -9774,7 +9774,7 @@
         <v>6.533333333329892</v>
       </c>
       <c r="N267">
-        <v>1929.53333333333</v>
+        <v>1914.53333333333</v>
       </c>
     </row>
     <row r="268" spans="1:14">
@@ -9809,7 +9809,7 @@
         <v>6.575000000000045</v>
       </c>
       <c r="N268">
-        <v>1929.575</v>
+        <v>1914.575</v>
       </c>
     </row>
     <row r="269" spans="1:14">
@@ -9844,7 +9844,7 @@
         <v>6.941666666670017</v>
       </c>
       <c r="N269">
-        <v>1929.94166666667</v>
+        <v>1914.94166666667</v>
       </c>
     </row>
     <row r="270" spans="1:14">
@@ -9879,7 +9879,7 @@
         <v>6.933333333329983</v>
       </c>
       <c r="N270">
-        <v>1929.93333333333</v>
+        <v>1914.93333333333</v>
       </c>
     </row>
     <row r="271" spans="1:14">
@@ -9914,7 +9914,7 @@
         <v>7.108333333329938</v>
       </c>
       <c r="N271">
-        <v>1930.10833333333</v>
+        <v>1915.10833333333</v>
       </c>
     </row>
     <row r="272" spans="1:14">
@@ -9949,7 +9949,7 @@
         <v>6.358333333329938</v>
       </c>
       <c r="N272">
-        <v>1929.35833333333</v>
+        <v>1914.35833333333</v>
       </c>
     </row>
     <row r="273" spans="1:14">
@@ -9984,7 +9984,7 @@
         <v>6.858333333329938</v>
       </c>
       <c r="N273">
-        <v>1929.85833333333</v>
+        <v>1914.85833333333</v>
       </c>
     </row>
     <row r="274" spans="1:14">
@@ -10019,7 +10019,7 @@
         <v>7.025000000000091</v>
       </c>
       <c r="N274">
-        <v>1930.025</v>
+        <v>1915.025</v>
       </c>
     </row>
     <row r="275" spans="1:14">
@@ -10054,7 +10054,7 @@
         <v>6.858333333329938</v>
       </c>
       <c r="N275">
-        <v>1929.85833333333</v>
+        <v>1914.85833333333</v>
       </c>
     </row>
     <row r="276" spans="1:14">
@@ -10089,7 +10089,7 @@
         <v>6.391666666670062</v>
       </c>
       <c r="N276">
-        <v>1929.39166666667</v>
+        <v>1914.39166666667</v>
       </c>
     </row>
     <row r="277" spans="1:14">
@@ -10124,7 +10124,7 @@
         <v>6.475000000000136</v>
       </c>
       <c r="N277">
-        <v>1929.475</v>
+        <v>1914.475</v>
       </c>
     </row>
     <row r="278" spans="1:14">
@@ -10159,7 +10159,7 @@
         <v>6.808333333329983</v>
       </c>
       <c r="N278">
-        <v>1929.80833333333</v>
+        <v>1914.80833333333</v>
       </c>
     </row>
     <row r="279" spans="1:14">
@@ -10194,7 +10194,7 @@
         <v>6.683333333329983</v>
       </c>
       <c r="N279">
-        <v>1929.68333333333</v>
+        <v>1914.68333333333</v>
       </c>
     </row>
     <row r="280" spans="1:14">
@@ -10229,7 +10229,7 @@
         <v>6.283333333329892</v>
       </c>
       <c r="N280">
-        <v>1929.28333333333</v>
+        <v>1914.28333333333</v>
       </c>
     </row>
     <row r="281" spans="1:14">
@@ -10264,7 +10264,7 @@
         <v>6.608333333329938</v>
       </c>
       <c r="N281">
-        <v>1929.60833333333</v>
+        <v>1914.60833333333</v>
       </c>
     </row>
     <row r="282" spans="1:14">
@@ -10299,7 +10299,7 @@
         <v>6.275000000000091</v>
       </c>
       <c r="N282">
-        <v>1929.275</v>
+        <v>1914.275</v>
       </c>
     </row>
     <row r="283" spans="1:14">
@@ -10334,7 +10334,7 @@
         <v>5.983333333329938</v>
       </c>
       <c r="N283">
-        <v>1928.98333333333</v>
+        <v>1913.98333333333</v>
       </c>
     </row>
     <row r="284" spans="1:14">
@@ -10369,7 +10369,7 @@
         <v>5.316666666670017</v>
       </c>
       <c r="N284">
-        <v>1928.31666666667</v>
+        <v>1913.31666666667</v>
       </c>
     </row>
     <row r="285" spans="1:14">
@@ -10404,7 +10404,7 @@
         <v>5.266666666670062</v>
       </c>
       <c r="N285">
-        <v>1928.26666666667</v>
+        <v>1913.26666666667</v>
       </c>
     </row>
     <row r="286" spans="1:14">
@@ -10439,7 +10439,7 @@
         <v>5.558333333329983</v>
       </c>
       <c r="N286">
-        <v>1928.55833333333</v>
+        <v>1913.55833333333</v>
       </c>
     </row>
     <row r="287" spans="1:14">
@@ -10474,7 +10474,7 @@
         <v>5.933333333329983</v>
       </c>
       <c r="N287">
-        <v>1928.93333333333</v>
+        <v>1913.93333333333</v>
       </c>
     </row>
     <row r="288" spans="1:14">
@@ -10509,7 +10509,7 @@
         <v>5.983333333329938</v>
       </c>
       <c r="N288">
-        <v>1928.98333333333</v>
+        <v>1913.98333333333</v>
       </c>
     </row>
     <row r="289" spans="1:14">
@@ -10544,7 +10544,7 @@
         <v>5.733333333329938</v>
       </c>
       <c r="N289">
-        <v>1928.73333333333</v>
+        <v>1913.73333333333</v>
       </c>
     </row>
     <row r="290" spans="1:14">
@@ -10579,7 +10579,7 @@
         <v>6.391666666670062</v>
       </c>
       <c r="N290">
-        <v>1929.39166666667</v>
+        <v>1914.39166666667</v>
       </c>
     </row>
     <row r="291" spans="1:14">
@@ -10614,7 +10614,7 @@
         <v>6.350000000000136</v>
       </c>
       <c r="N291">
-        <v>1929.35</v>
+        <v>1914.35</v>
       </c>
     </row>
     <row r="292" spans="1:14">
@@ -10649,7 +10649,7 @@
         <v>6.050000000000182</v>
       </c>
       <c r="N292">
-        <v>1929.05</v>
+        <v>1914.05</v>
       </c>
     </row>
     <row r="293" spans="1:14">
@@ -10684,7 +10684,7 @@
         <v>6.383333333329915</v>
       </c>
       <c r="N293">
-        <v>1929.38333333333</v>
+        <v>1914.38333333333</v>
       </c>
     </row>
     <row r="294" spans="1:14">
@@ -10719,7 +10719,7 @@
         <v>6.100000000000023</v>
       </c>
       <c r="N294">
-        <v>1929.1</v>
+        <v>1914.1</v>
       </c>
     </row>
     <row r="295" spans="1:14">
@@ -10754,7 +10754,7 @@
         <v>5.808333333330097</v>
       </c>
       <c r="N295">
-        <v>1928.80833333333</v>
+        <v>1913.80833333333</v>
       </c>
     </row>
     <row r="296" spans="1:14">
@@ -10789,7 +10789,7 @@
         <v>6.383333333329915</v>
       </c>
       <c r="N296">
-        <v>1929.38333333333</v>
+        <v>1914.38333333333</v>
       </c>
     </row>
     <row r="297" spans="1:14">
@@ -10824,7 +10824,7 @@
         <v>6.691666666670017</v>
       </c>
       <c r="N297">
-        <v>1929.69166666667</v>
+        <v>1914.69166666667</v>
       </c>
     </row>
     <row r="298" spans="1:14">
@@ -10859,7 +10859,7 @@
         <v>5.991666666669971</v>
       </c>
       <c r="N298">
-        <v>1928.99166666667</v>
+        <v>1913.99166666667</v>
       </c>
     </row>
     <row r="299" spans="1:14">
@@ -10894,7 +10894,7 @@
         <v>5.825000000000045</v>
       </c>
       <c r="N299">
-        <v>1928.825</v>
+        <v>1913.825</v>
       </c>
     </row>
     <row r="300" spans="1:14">
@@ -10929,7 +10929,7 @@
         <v>5.375</v>
       </c>
       <c r="N300">
-        <v>1928.375</v>
+        <v>1913.375</v>
       </c>
     </row>
     <row r="301" spans="1:14">
@@ -10964,7 +10964,7 @@
         <v>5.875</v>
       </c>
       <c r="N301">
-        <v>1928.875</v>
+        <v>1913.875</v>
       </c>
     </row>
     <row r="302" spans="1:14">
@@ -10999,7 +10999,7 @@
         <v>5.533333333329892</v>
       </c>
       <c r="N302">
-        <v>1928.53333333333</v>
+        <v>1913.53333333333</v>
       </c>
     </row>
     <row r="303" spans="1:14">
@@ -11034,7 +11034,7 @@
         <v>5.741666666669971</v>
       </c>
       <c r="N303">
-        <v>1928.74166666667</v>
+        <v>1913.74166666667</v>
       </c>
     </row>
     <row r="304" spans="1:14">
@@ -11069,7 +11069,7 @@
         <v>5.525000000000091</v>
       </c>
       <c r="N304">
-        <v>1928.525</v>
+        <v>1913.525</v>
       </c>
     </row>
     <row r="305" spans="1:14">
@@ -11104,7 +11104,7 @@
         <v>5.866666666669971</v>
       </c>
       <c r="N305">
-        <v>1928.86666666667</v>
+        <v>1913.86666666667</v>
       </c>
     </row>
     <row r="306" spans="1:14">
@@ -11139,7 +11139,7 @@
         <v>5.625</v>
       </c>
       <c r="N306">
-        <v>1928.625</v>
+        <v>1913.625</v>
       </c>
     </row>
     <row r="307" spans="1:14">
@@ -11174,7 +11174,7 @@
         <v>5.908333333329892</v>
       </c>
       <c r="N307">
-        <v>1928.90833333333</v>
+        <v>1913.90833333333</v>
       </c>
     </row>
     <row r="308" spans="1:14">
@@ -11209,7 +11209,7 @@
         <v>5.325000000000045</v>
       </c>
       <c r="N308">
-        <v>1928.325</v>
+        <v>1913.325</v>
       </c>
     </row>
     <row r="309" spans="1:14">
@@ -11244,7 +11244,7 @@
         <v>5.116666666669971</v>
       </c>
       <c r="N309">
-        <v>1928.11666666667</v>
+        <v>1913.11666666667</v>
       </c>
     </row>
     <row r="310" spans="1:14">
@@ -11279,7 +11279,7 @@
         <v>3.975000000000136</v>
       </c>
       <c r="N310">
-        <v>1926.975</v>
+        <v>1911.975</v>
       </c>
     </row>
     <row r="311" spans="1:14">
@@ -11314,7 +11314,7 @@
         <v>4.15833333333012</v>
       </c>
       <c r="N311">
-        <v>1927.15833333333</v>
+        <v>1912.15833333333</v>
       </c>
     </row>
     <row r="312" spans="1:14">
@@ -11349,7 +11349,7 @@
         <v>5.108333333330052</v>
       </c>
       <c r="N312">
-        <v>1928.10833333333</v>
+        <v>1913.10833333333</v>
       </c>
     </row>
     <row r="313" spans="1:14">
@@ -11384,7 +11384,7 @@
         <v>5.18333333332987</v>
       </c>
       <c r="N313">
-        <v>1928.18333333333</v>
+        <v>1913.18333333333</v>
       </c>
     </row>
     <row r="314" spans="1:14">
@@ -11419,7 +11419,7 @@
         <v>4.691666666669903</v>
       </c>
       <c r="N314">
-        <v>1927.69166666667</v>
+        <v>1912.69166666667</v>
       </c>
     </row>
     <row r="315" spans="1:14">
@@ -11454,7 +11454,7 @@
         <v>5.633333333329915</v>
       </c>
       <c r="N315">
-        <v>1928.63333333333</v>
+        <v>1913.63333333333</v>
       </c>
     </row>
     <row r="316" spans="1:14">
@@ -11489,7 +11489,7 @@
         <v>4.841666666669994</v>
       </c>
       <c r="N316">
-        <v>1927.84166666667</v>
+        <v>1912.84166666667</v>
       </c>
     </row>
     <row r="317" spans="1:14">
@@ -11524,7 +11524,7 @@
         <v>4.725000000000023</v>
       </c>
       <c r="N317">
-        <v>1927.725</v>
+        <v>1912.725</v>
       </c>
     </row>
     <row r="318" spans="1:14">
@@ -11559,7 +11559,7 @@
         <v>5.516666666669948</v>
       </c>
       <c r="N318">
-        <v>1928.51666666667</v>
+        <v>1913.51666666667</v>
       </c>
     </row>
     <row r="319" spans="1:14">
@@ -11594,7 +11594,7 @@
         <v>5.600000000000023</v>
       </c>
       <c r="N319">
-        <v>1928.6</v>
+        <v>1913.6</v>
       </c>
     </row>
     <row r="320" spans="1:14">
@@ -11629,7 +11629,7 @@
         <v>5.450000000000045</v>
       </c>
       <c r="N320">
-        <v>1928.45</v>
+        <v>1913.45</v>
       </c>
     </row>
     <row r="321" spans="1:14">
@@ -11664,7 +11664,7 @@
         <v>5.483333333329938</v>
       </c>
       <c r="N321">
-        <v>1928.48333333333</v>
+        <v>1913.48333333333</v>
       </c>
     </row>
     <row r="322" spans="1:14">
@@ -11699,7 +11699,7 @@
         <v>5.308333333329983</v>
       </c>
       <c r="N322">
-        <v>1928.30833333333</v>
+        <v>1913.30833333333</v>
       </c>
     </row>
     <row r="323" spans="1:14">
@@ -11734,7 +11734,7 @@
         <v>5.225000000000136</v>
       </c>
       <c r="N323">
-        <v>1928.225</v>
+        <v>1913.225</v>
       </c>
     </row>
     <row r="324" spans="1:14">
@@ -11769,7 +11769,7 @@
         <v>5.191666666670017</v>
       </c>
       <c r="N324">
-        <v>1928.19166666667</v>
+        <v>1913.19166666667</v>
       </c>
     </row>
     <row r="325" spans="1:14">
@@ -11804,7 +11804,7 @@
         <v>4.691666666670017</v>
       </c>
       <c r="N325">
-        <v>1927.69166666667</v>
+        <v>1912.69166666667</v>
       </c>
     </row>
     <row r="326" spans="1:14">
@@ -11839,7 +11839,7 @@
         <v>4.650000000000091</v>
       </c>
       <c r="N326">
-        <v>1927.65</v>
+        <v>1912.65</v>
       </c>
     </row>
     <row r="327" spans="1:14">
@@ -11874,7 +11874,7 @@
         <v>4.775000000000091</v>
       </c>
       <c r="N327">
-        <v>1927.775</v>
+        <v>1912.775</v>
       </c>
     </row>
     <row r="328" spans="1:14">
@@ -11909,7 +11909,7 @@
         <v>4.891666666670062</v>
       </c>
       <c r="N328">
-        <v>1927.89166666667</v>
+        <v>1912.89166666667</v>
       </c>
     </row>
     <row r="329" spans="1:14">
@@ -11944,7 +11944,7 @@
         <v>3.825000000000045</v>
       </c>
       <c r="N329">
-        <v>1926.825</v>
+        <v>1911.825</v>
       </c>
     </row>
     <row r="330" spans="1:14">
@@ -11979,7 +11979,7 @@
         <v>4.225000000000136</v>
       </c>
       <c r="N330">
-        <v>1927.225</v>
+        <v>1912.225</v>
       </c>
     </row>
     <row r="331" spans="1:14">
@@ -12014,7 +12014,7 @@
         <v>3.825000000000045</v>
       </c>
       <c r="N331">
-        <v>1926.825</v>
+        <v>1911.825</v>
       </c>
     </row>
     <row r="332" spans="1:14">
@@ -12049,7 +12049,7 @@
         <v>3.408333333329892</v>
       </c>
       <c r="N332">
-        <v>1926.40833333333</v>
+        <v>1911.40833333333</v>
       </c>
     </row>
     <row r="333" spans="1:14">
@@ -12084,7 +12084,7 @@
         <v>3.783333333329892</v>
       </c>
       <c r="N333">
-        <v>1926.78333333333</v>
+        <v>1911.78333333333</v>
       </c>
     </row>
     <row r="334" spans="1:14">
@@ -12119,7 +12119,7 @@
         <v>4.108333333329938</v>
       </c>
       <c r="N334">
-        <v>1927.10833333333</v>
+        <v>1912.10833333333</v>
       </c>
     </row>
     <row r="335" spans="1:14">
@@ -12154,7 +12154,7 @@
         <v>3.908333333329892</v>
       </c>
       <c r="N335">
-        <v>1926.90833333333</v>
+        <v>1911.90833333333</v>
       </c>
     </row>
     <row r="336" spans="1:14">
@@ -12189,7 +12189,7 @@
         <v>3.058333333329983</v>
       </c>
       <c r="N336">
-        <v>1926.05833333333</v>
+        <v>1911.05833333333</v>
       </c>
     </row>
     <row r="337" spans="1:14">
@@ -12224,7 +12224,7 @@
         <v>3.716666666670108</v>
       </c>
       <c r="N337">
-        <v>1926.71666666667</v>
+        <v>1911.71666666667</v>
       </c>
     </row>
     <row r="338" spans="1:14">
@@ -12259,7 +12259,7 @@
         <v>3.050000000000182</v>
       </c>
       <c r="N338">
-        <v>1926.05</v>
+        <v>1911.05</v>
       </c>
     </row>
     <row r="339" spans="1:14">
@@ -12294,7 +12294,7 @@
         <v>3.683333333329983</v>
       </c>
       <c r="N339">
-        <v>1926.68333333333</v>
+        <v>1911.68333333333</v>
       </c>
     </row>
     <row r="340" spans="1:14">
@@ -12329,7 +12329,7 @@
         <v>3.508333333330029</v>
       </c>
       <c r="N340">
-        <v>1926.50833333333</v>
+        <v>1911.50833333333</v>
       </c>
     </row>
     <row r="341" spans="1:14">
@@ -12364,7 +12364,7 @@
         <v>3.858333333329938</v>
       </c>
       <c r="N341">
-        <v>1926.85833333333</v>
+        <v>1911.85833333333</v>
       </c>
     </row>
     <row r="342" spans="1:14">
@@ -12399,7 +12399,7 @@
         <v>4.216666666670108</v>
       </c>
       <c r="N342">
-        <v>1927.21666666667</v>
+        <v>1912.21666666667</v>
       </c>
     </row>
     <row r="343" spans="1:14">
@@ -12434,7 +12434,7 @@
         <v>3.808333333329983</v>
       </c>
       <c r="N343">
-        <v>1926.80833333333</v>
+        <v>1911.80833333333</v>
       </c>
     </row>
     <row r="344" spans="1:14">
@@ -12469,7 +12469,7 @@
         <v>4.008333333330029</v>
       </c>
       <c r="N344">
-        <v>1927.00833333333</v>
+        <v>1912.00833333333</v>
       </c>
     </row>
     <row r="345" spans="1:14">
@@ -12504,7 +12504,7 @@
         <v>4.366666666669971</v>
       </c>
       <c r="N345">
-        <v>1927.36666666667</v>
+        <v>1912.36666666667</v>
       </c>
     </row>
     <row r="346" spans="1:14">
@@ -12539,7 +12539,7 @@
         <v>3.775000000000091</v>
       </c>
       <c r="N346">
-        <v>1926.775</v>
+        <v>1911.775</v>
       </c>
     </row>
     <row r="347" spans="1:14">
@@ -12574,7 +12574,7 @@
         <v>4.025000000000091</v>
       </c>
       <c r="N347">
-        <v>1927.025</v>
+        <v>1912.025</v>
       </c>
     </row>
     <row r="348" spans="1:14">
@@ -12609,7 +12609,7 @@
         <v>3.600000000000136</v>
       </c>
       <c r="N348">
-        <v>1926.6</v>
+        <v>1911.6</v>
       </c>
     </row>
     <row r="349" spans="1:14">
@@ -12644,7 +12644,7 @@
         <v>4.391666666670062</v>
       </c>
       <c r="N349">
-        <v>1927.39166666667</v>
+        <v>1912.39166666667</v>
       </c>
     </row>
     <row r="350" spans="1:14">
@@ -12679,7 +12679,7 @@
         <v>3.983333333329938</v>
       </c>
       <c r="N350">
-        <v>1926.98333333333</v>
+        <v>1911.98333333333</v>
       </c>
     </row>
     <row r="351" spans="1:14">
@@ -12714,7 +12714,7 @@
         <v>3.941666666670017</v>
       </c>
       <c r="N351">
-        <v>1926.94166666667</v>
+        <v>1911.94166666667</v>
       </c>
     </row>
     <row r="352" spans="1:14">
@@ -12749,7 +12749,7 @@
         <v>3.775000000000091</v>
       </c>
       <c r="N352">
-        <v>1926.775</v>
+        <v>1911.775</v>
       </c>
     </row>
     <row r="353" spans="1:14">
@@ -12784,7 +12784,7 @@
         <v>3.775000000000091</v>
       </c>
       <c r="N353">
-        <v>1926.775</v>
+        <v>1911.775</v>
       </c>
     </row>
     <row r="354" spans="1:14">
@@ -12819,7 +12819,7 @@
         <v>3.908333333329892</v>
       </c>
       <c r="N354">
-        <v>1926.90833333333</v>
+        <v>1911.90833333333</v>
       </c>
     </row>
     <row r="355" spans="1:14">
@@ -12854,7 +12854,7 @@
         <v>4.108333333329938</v>
       </c>
       <c r="N355">
-        <v>1927.10833333333</v>
+        <v>1912.10833333333</v>
       </c>
     </row>
     <row r="356" spans="1:14">
@@ -12889,7 +12889,7 @@
         <v>3.350000000000136</v>
       </c>
       <c r="N356">
-        <v>1926.35</v>
+        <v>1911.35</v>
       </c>
     </row>
     <row r="357" spans="1:14">
@@ -12924,7 +12924,7 @@
         <v>3.650000000000091</v>
       </c>
       <c r="N357">
-        <v>1926.65</v>
+        <v>1911.65</v>
       </c>
     </row>
     <row r="358" spans="1:14">
@@ -12959,7 +12959,7 @@
         <v>3.275000000000091</v>
       </c>
       <c r="N358">
-        <v>1926.275</v>
+        <v>1911.275</v>
       </c>
     </row>
     <row r="359" spans="1:14">
@@ -12994,7 +12994,7 @@
         <v>3.275000000000091</v>
       </c>
       <c r="N359">
-        <v>1926.275</v>
+        <v>1911.275</v>
       </c>
     </row>
     <row r="360" spans="1:14">
@@ -13029,7 +13029,7 @@
         <v>3.400000000000091</v>
       </c>
       <c r="N360">
-        <v>1926.4</v>
+        <v>1911.4</v>
       </c>
     </row>
     <row r="361" spans="1:14">
@@ -13064,7 +13064,7 @@
         <v>3.308333333329983</v>
       </c>
       <c r="N361">
-        <v>1926.30833333333</v>
+        <v>1911.30833333333</v>
       </c>
     </row>
     <row r="362" spans="1:14">
@@ -13099,7 +13099,7 @@
         <v>3.350000000000136</v>
       </c>
       <c r="N362">
-        <v>1926.35</v>
+        <v>1911.35</v>
       </c>
     </row>
     <row r="363" spans="1:14">
@@ -13134,7 +13134,7 @@
         <v>3.450000000000045</v>
       </c>
       <c r="N363">
-        <v>1926.45</v>
+        <v>1911.45</v>
       </c>
     </row>
     <row r="364" spans="1:14">
@@ -13169,7 +13169,7 @@
         <v>3.475000000000136</v>
       </c>
       <c r="N364">
-        <v>1926.475</v>
+        <v>1911.475</v>
       </c>
     </row>
     <row r="365" spans="1:14">
@@ -13204,7 +13204,7 @@
         <v>3.350000000000136</v>
       </c>
       <c r="N365">
-        <v>1926.35</v>
+        <v>1911.35</v>
       </c>
     </row>
     <row r="366" spans="1:14">
@@ -13239,7 +13239,7 @@
         <v>3.141666666670062</v>
       </c>
       <c r="N366">
-        <v>1926.14166666667</v>
+        <v>1911.14166666667</v>
       </c>
     </row>
     <row r="367" spans="1:14">
@@ -13274,7 +13274,7 @@
         <v>3.033333333329892</v>
       </c>
       <c r="N367">
-        <v>1926.03333333333</v>
+        <v>1911.03333333333</v>
       </c>
     </row>
     <row r="368" spans="1:14">
@@ -13309,7 +13309,7 @@
         <v>4.066666666670017</v>
       </c>
       <c r="N368">
-        <v>1927.06666666667</v>
+        <v>1912.06666666667</v>
       </c>
     </row>
     <row r="369" spans="1:14">
@@ -13344,7 +13344,7 @@
         <v>3.816666666670017</v>
       </c>
       <c r="N369">
-        <v>1926.81666666667</v>
+        <v>1911.81666666667</v>
       </c>
     </row>
     <row r="370" spans="1:14">
@@ -13379,7 +13379,7 @@
         <v>4.150000000000091</v>
       </c>
       <c r="N370">
-        <v>1927.15</v>
+        <v>1912.15</v>
       </c>
     </row>
     <row r="371" spans="1:14">
@@ -13414,7 +13414,7 @@
         <v>3.850000000000136</v>
       </c>
       <c r="N371">
-        <v>1926.85</v>
+        <v>1911.85</v>
       </c>
     </row>
     <row r="372" spans="1:14">
@@ -13449,7 +13449,7 @@
         <v>3.691666666670017</v>
       </c>
       <c r="N372">
-        <v>1926.69166666667</v>
+        <v>1911.69166666667</v>
       </c>
     </row>
     <row r="373" spans="1:14">
@@ -13484,7 +13484,7 @@
         <v>3.766666666670062</v>
       </c>
       <c r="N373">
-        <v>1926.76666666667</v>
+        <v>1911.76666666667</v>
       </c>
     </row>
     <row r="374" spans="1:14">
@@ -13519,7 +13519,7 @@
         <v>4.408333333329892</v>
       </c>
       <c r="N374">
-        <v>1927.40833333333</v>
+        <v>1912.40833333333</v>
       </c>
     </row>
     <row r="375" spans="1:14">
@@ -13554,7 +13554,7 @@
         <v>4.066666666670017</v>
       </c>
       <c r="N375">
-        <v>1927.06666666667</v>
+        <v>1912.06666666667</v>
       </c>
     </row>
     <row r="376" spans="1:14">
@@ -13589,7 +13589,7 @@
         <v>3.766666666670062</v>
       </c>
       <c r="N376">
-        <v>1926.76666666667</v>
+        <v>1911.76666666667</v>
       </c>
     </row>
     <row r="377" spans="1:14">
@@ -13624,7 +13624,7 @@
         <v>3.525000000000091</v>
       </c>
       <c r="N377">
-        <v>1926.525</v>
+        <v>1911.525</v>
       </c>
     </row>
     <row r="378" spans="1:14">
@@ -13659,7 +13659,7 @@
         <v>3.608333333329938</v>
       </c>
       <c r="N378">
-        <v>1926.60833333333</v>
+        <v>1911.60833333333</v>
       </c>
     </row>
     <row r="379" spans="1:14">
@@ -13694,7 +13694,7 @@
         <v>3.600000000000136</v>
       </c>
       <c r="N379">
-        <v>1926.6</v>
+        <v>1911.6</v>
       </c>
     </row>
     <row r="380" spans="1:14">
@@ -13729,7 +13729,7 @@
         <v>3.350000000000136</v>
       </c>
       <c r="N380">
-        <v>1926.35</v>
+        <v>1911.35</v>
       </c>
     </row>
     <row r="381" spans="1:14">
@@ -13764,7 +13764,7 @@
         <v>3.316666666670017</v>
       </c>
       <c r="N381">
-        <v>1926.31666666667</v>
+        <v>1911.31666666667</v>
       </c>
     </row>
     <row r="382" spans="1:14">
@@ -13799,7 +13799,7 @@
         <v>5.075000000000045</v>
       </c>
       <c r="N382">
-        <v>1928.075</v>
+        <v>1913.075</v>
       </c>
     </row>
     <row r="383" spans="1:14">
@@ -13834,7 +13834,7 @@
         <v>4.900000000000091</v>
       </c>
       <c r="N383">
-        <v>1927.9</v>
+        <v>1912.9</v>
       </c>
     </row>
     <row r="384" spans="1:14">
@@ -13869,7 +13869,7 @@
         <v>4.666666666669926</v>
       </c>
       <c r="N384">
-        <v>1927.66666666667</v>
+        <v>1912.66666666667</v>
       </c>
     </row>
     <row r="385" spans="1:14">
@@ -13904,7 +13904,7 @@
         <v>5.191666666670017</v>
       </c>
       <c r="N385">
-        <v>1928.19166666667</v>
+        <v>1913.19166666667</v>
       </c>
     </row>
     <row r="386" spans="1:14">
@@ -13939,7 +13939,7 @@
         <v>4.5</v>
       </c>
       <c r="N386">
-        <v>1927.5</v>
+        <v>1912.5</v>
       </c>
     </row>
     <row r="387" spans="1:14">
@@ -13974,7 +13974,7 @@
         <v>5.333333333329847</v>
       </c>
       <c r="N387">
-        <v>1928.33333333333</v>
+        <v>1913.33333333333</v>
       </c>
     </row>
     <row r="388" spans="1:14">
@@ -14009,7 +14009,7 @@
         <v>5.491666666669971</v>
       </c>
       <c r="N388">
-        <v>1928.49166666667</v>
+        <v>1913.49166666667</v>
       </c>
     </row>
     <row r="389" spans="1:14">
@@ -14044,7 +14044,7 @@
         <v>4.950000000000045</v>
       </c>
       <c r="N389">
-        <v>1927.95</v>
+        <v>1912.95</v>
       </c>
     </row>
     <row r="390" spans="1:14">
@@ -14079,7 +14079,7 @@
         <v>4.825000000000045</v>
       </c>
       <c r="N390">
-        <v>1927.825</v>
+        <v>1912.825</v>
       </c>
     </row>
     <row r="391" spans="1:14">
@@ -14114,7 +14114,7 @@
         <v>4.691666666670017</v>
       </c>
       <c r="N391">
-        <v>1927.69166666667</v>
+        <v>1912.69166666667</v>
       </c>
     </row>
     <row r="392" spans="1:14">
@@ -14149,7 +14149,7 @@
         <v>5.183333333329983</v>
       </c>
       <c r="N392">
-        <v>1928.18333333333</v>
+        <v>1913.18333333333</v>
       </c>
     </row>
     <row r="393" spans="1:14">
@@ -14184,7 +14184,7 @@
         <v>5.033333333329892</v>
       </c>
       <c r="N393">
-        <v>1928.03333333333</v>
+        <v>1913.03333333333</v>
       </c>
     </row>
     <row r="394" spans="1:14">
@@ -14219,7 +14219,7 @@
         <v>5.100000000000136</v>
       </c>
       <c r="N394">
-        <v>1928.1</v>
+        <v>1913.1</v>
       </c>
     </row>
     <row r="395" spans="1:14">
@@ -14254,7 +14254,7 @@
         <v>5.400000000000091</v>
       </c>
       <c r="N395">
-        <v>1928.4</v>
+        <v>1913.4</v>
       </c>
     </row>
     <row r="396" spans="1:14">
@@ -14289,7 +14289,7 @@
         <v>4.941666666670017</v>
       </c>
       <c r="N396">
-        <v>1927.94166666667</v>
+        <v>1912.94166666667</v>
       </c>
     </row>
     <row r="397" spans="1:14">
@@ -14324,7 +14324,7 @@
         <v>4.683333333329983</v>
       </c>
       <c r="N397">
-        <v>1927.68333333333</v>
+        <v>1912.68333333333</v>
       </c>
     </row>
     <row r="398" spans="1:14">
@@ -14359,7 +14359,7 @@
         <v>5.158333333329892</v>
       </c>
       <c r="N398">
-        <v>1928.15833333333</v>
+        <v>1913.15833333333</v>
       </c>
     </row>
     <row r="399" spans="1:14">
@@ -14394,7 +14394,7 @@
         <v>5.100000000000136</v>
       </c>
       <c r="N399">
-        <v>1928.1</v>
+        <v>1913.1</v>
       </c>
     </row>
     <row r="400" spans="1:14">
@@ -14429,7 +14429,7 @@
         <v>5.075000000000045</v>
       </c>
       <c r="N400">
-        <v>1928.075</v>
+        <v>1913.075</v>
       </c>
     </row>
     <row r="401" spans="1:14">
@@ -14464,7 +14464,7 @@
         <v>4.975000000000136</v>
       </c>
       <c r="N401">
-        <v>1927.975</v>
+        <v>1912.975</v>
       </c>
     </row>
     <row r="402" spans="1:14">
@@ -14499,7 +14499,7 @@
         <v>4.733333333329938</v>
       </c>
       <c r="N402">
-        <v>1927.73333333333</v>
+        <v>1912.73333333333</v>
       </c>
     </row>
     <row r="403" spans="1:14">
@@ -14534,7 +14534,7 @@
         <v>4.775000000000091</v>
       </c>
       <c r="N403">
-        <v>1927.775</v>
+        <v>1912.775</v>
       </c>
     </row>
     <row r="404" spans="1:14">
@@ -14569,7 +14569,7 @@
         <v>4.100000000000136</v>
       </c>
       <c r="N404">
-        <v>1927.1</v>
+        <v>1912.1</v>
       </c>
     </row>
     <row r="405" spans="1:14">
@@ -14604,7 +14604,7 @@
         <v>4.100000000000136</v>
       </c>
       <c r="N405">
-        <v>1927.1</v>
+        <v>1912.1</v>
       </c>
     </row>
     <row r="406" spans="1:14">
@@ -14639,7 +14639,7 @@
         <v>4.141666666670062</v>
       </c>
       <c r="N406">
-        <v>1927.14166666667</v>
+        <v>1912.14166666667</v>
       </c>
     </row>
     <row r="407" spans="1:14">
@@ -14674,7 +14674,7 @@
         <v>4.366666666669971</v>
       </c>
       <c r="N407">
-        <v>1927.36666666667</v>
+        <v>1912.36666666667</v>
       </c>
     </row>
     <row r="408" spans="1:14">
@@ -14709,7 +14709,7 @@
         <v>3.766666666670062</v>
       </c>
       <c r="N408">
-        <v>1926.76666666667</v>
+        <v>1911.76666666667</v>
       </c>
     </row>
     <row r="409" spans="1:14">
@@ -14744,7 +14744,7 @@
         <v>4.241666666669971</v>
       </c>
       <c r="N409">
-        <v>1927.24166666667</v>
+        <v>1912.24166666667</v>
       </c>
     </row>
     <row r="410" spans="1:14">
@@ -14779,7 +14779,7 @@
         <v>3.533333333329892</v>
       </c>
       <c r="N410">
-        <v>1926.53333333333</v>
+        <v>1911.53333333333</v>
       </c>
     </row>
     <row r="411" spans="1:14">
@@ -14814,7 +14814,7 @@
         <v>3.083333333329847</v>
       </c>
       <c r="N411">
-        <v>1926.08333333333</v>
+        <v>1911.08333333333</v>
       </c>
     </row>
     <row r="412" spans="1:14">
@@ -14849,7 +14849,7 @@
         <v>3.950000000000045</v>
       </c>
       <c r="N412">
-        <v>1926.95</v>
+        <v>1911.95</v>
       </c>
     </row>
     <row r="413" spans="1:14">
@@ -14884,7 +14884,7 @@
         <v>3.491666666669971</v>
       </c>
       <c r="N413">
-        <v>1926.49166666667</v>
+        <v>1911.49166666667</v>
       </c>
     </row>
     <row r="414" spans="1:14">
@@ -14919,7 +14919,7 @@
         <v>4.066666666670017</v>
       </c>
       <c r="N414">
-        <v>1927.06666666667</v>
+        <v>1912.06666666667</v>
       </c>
     </row>
     <row r="415" spans="1:14">
@@ -14954,7 +14954,7 @@
         <v>4.358333333329938</v>
       </c>
       <c r="N415">
-        <v>1927.35833333333</v>
+        <v>1912.35833333333</v>
       </c>
     </row>
     <row r="416" spans="1:14">
@@ -14989,7 +14989,7 @@
         <v>4.408333333329892</v>
       </c>
       <c r="N416">
-        <v>1927.40833333333</v>
+        <v>1912.40833333333</v>
       </c>
     </row>
     <row r="417" spans="1:14">
@@ -15024,7 +15024,7 @@
         <v>4.658333333329892</v>
       </c>
       <c r="N417">
-        <v>1927.65833333333</v>
+        <v>1912.65833333333</v>
       </c>
     </row>
     <row r="418" spans="1:14">
@@ -15059,7 +15059,7 @@
         <v>4.233333333329938</v>
       </c>
       <c r="N418">
-        <v>1927.23333333333</v>
+        <v>1912.23333333333</v>
       </c>
     </row>
     <row r="419" spans="1:14">
@@ -15094,7 +15094,7 @@
         <v>4.691666666670017</v>
       </c>
       <c r="N419">
-        <v>1927.69166666667</v>
+        <v>1912.69166666667</v>
       </c>
     </row>
     <row r="420" spans="1:14">
@@ -15129,7 +15129,7 @@
         <v>4.983333333329938</v>
       </c>
       <c r="N420">
-        <v>1927.98333333333</v>
+        <v>1912.98333333333</v>
       </c>
     </row>
     <row r="421" spans="1:14">
@@ -15164,7 +15164,7 @@
         <v>4.566666666670017</v>
       </c>
       <c r="N421">
-        <v>1927.56666666667</v>
+        <v>1912.56666666667</v>
       </c>
     </row>
     <row r="422" spans="1:14">
@@ -15199,7 +15199,7 @@
         <v>4.366666666669971</v>
       </c>
       <c r="N422">
-        <v>1927.36666666667</v>
+        <v>1912.36666666667</v>
       </c>
     </row>
     <row r="423" spans="1:14">
@@ -15234,7 +15234,7 @@
         <v>4.683333333329983</v>
       </c>
       <c r="N423">
-        <v>1927.68333333333</v>
+        <v>1912.68333333333</v>
       </c>
     </row>
     <row r="424" spans="1:14">
@@ -15269,7 +15269,7 @@
         <v>4.358333333329938</v>
       </c>
       <c r="N424">
-        <v>1927.35833333333</v>
+        <v>1912.35833333333</v>
       </c>
     </row>
     <row r="425" spans="1:14">
@@ -15304,7 +15304,7 @@
         <v>4.316666666670017</v>
       </c>
       <c r="N425">
-        <v>1927.31666666667</v>
+        <v>1912.31666666667</v>
       </c>
     </row>
     <row r="426" spans="1:14">
@@ -15339,7 +15339,7 @@
         <v>4.183333333329983</v>
       </c>
       <c r="N426">
-        <v>1927.18333333333</v>
+        <v>1912.18333333333</v>
       </c>
     </row>
     <row r="427" spans="1:14">
@@ -15374,7 +15374,7 @@
         <v>4.308333333329983</v>
       </c>
       <c r="N427">
-        <v>1927.30833333333</v>
+        <v>1912.30833333333</v>
       </c>
     </row>
     <row r="428" spans="1:14">
@@ -15409,7 +15409,7 @@
         <v>3.183333333329983</v>
       </c>
       <c r="N428">
-        <v>1926.18333333333</v>
+        <v>1911.18333333333</v>
       </c>
     </row>
     <row r="429" spans="1:14">
@@ -15444,7 +15444,7 @@
         <v>2.783333333329892</v>
       </c>
       <c r="N429">
-        <v>1925.78333333333</v>
+        <v>1910.78333333333</v>
       </c>
     </row>
     <row r="430" spans="1:14">
@@ -15479,7 +15479,7 @@
         <v>2.825000000000045</v>
       </c>
       <c r="N430">
-        <v>1925.825</v>
+        <v>1910.825</v>
       </c>
     </row>
     <row r="431" spans="1:14">
@@ -15514,7 +15514,7 @@
         <v>2.825000000000045</v>
       </c>
       <c r="N431">
-        <v>1925.825</v>
+        <v>1910.825</v>
       </c>
     </row>
     <row r="432" spans="1:14">
@@ -15549,7 +15549,7 @@
         <v>3.825000000000045</v>
       </c>
       <c r="N432">
-        <v>1926.825</v>
+        <v>1911.825</v>
       </c>
     </row>
     <row r="433" spans="1:14">
@@ -15584,7 +15584,7 @@
         <v>2.825000000000045</v>
       </c>
       <c r="N433">
-        <v>1925.825</v>
+        <v>1910.825</v>
       </c>
     </row>
     <row r="434" spans="1:14">
@@ -15619,7 +15619,7 @@
         <v>3.908333333329892</v>
       </c>
       <c r="N434">
-        <v>1926.90833333333</v>
+        <v>1911.90833333333</v>
       </c>
     </row>
     <row r="435" spans="1:14">
@@ -15654,7 +15654,7 @@
         <v>4.158333333329892</v>
       </c>
       <c r="N435">
-        <v>1927.15833333333</v>
+        <v>1912.15833333333</v>
       </c>
     </row>
     <row r="436" spans="1:14">
@@ -15689,7 +15689,7 @@
         <v>3.983333333329938</v>
       </c>
       <c r="N436">
-        <v>1926.98333333333</v>
+        <v>1911.98333333333</v>
       </c>
     </row>
     <row r="437" spans="1:14">
@@ -15724,7 +15724,7 @@
         <v>3.666666666669926</v>
       </c>
       <c r="N437">
-        <v>1926.66666666667</v>
+        <v>1911.66666666667</v>
       </c>
     </row>
     <row r="438" spans="1:14">
@@ -15759,7 +15759,7 @@
         <v>4.5</v>
       </c>
       <c r="N438">
-        <v>1927.5</v>
+        <v>1912.5</v>
       </c>
     </row>
     <row r="439" spans="1:14">
@@ -15794,7 +15794,7 @@
         <v>3.358333333329938</v>
       </c>
       <c r="N439">
-        <v>1926.35833333333</v>
+        <v>1911.35833333333</v>
       </c>
     </row>
     <row r="440" spans="1:14">
@@ -15829,7 +15829,7 @@
         <v>3.858333333329938</v>
       </c>
       <c r="N440">
-        <v>1926.85833333333</v>
+        <v>1911.85833333333</v>
       </c>
     </row>
     <row r="441" spans="1:14">
@@ -15864,7 +15864,7 @@
         <v>4.691666666670017</v>
       </c>
       <c r="N441">
-        <v>1927.69166666667</v>
+        <v>1912.69166666667</v>
       </c>
     </row>
     <row r="442" spans="1:14">
@@ -15899,7 +15899,7 @@
         <v>3.983333333329938</v>
       </c>
       <c r="N442">
-        <v>1926.98333333333</v>
+        <v>1911.98333333333</v>
       </c>
     </row>
     <row r="443" spans="1:14">
@@ -15934,7 +15934,7 @@
         <v>3.733333333329938</v>
       </c>
       <c r="N443">
-        <v>1926.73333333333</v>
+        <v>1911.73333333333</v>
       </c>
     </row>
     <row r="444" spans="1:14">
@@ -15969,7 +15969,7 @@
         <v>3.908333333329892</v>
       </c>
       <c r="N444">
-        <v>1926.90833333333</v>
+        <v>1911.90833333333</v>
       </c>
     </row>
     <row r="445" spans="1:14">
@@ -16004,7 +16004,7 @@
         <v>3.683333333329983</v>
       </c>
       <c r="N445">
-        <v>1926.68333333333</v>
+        <v>1911.68333333333</v>
       </c>
     </row>
     <row r="446" spans="1:14">
@@ -16039,7 +16039,7 @@
         <v>3.816666666670017</v>
       </c>
       <c r="N446">
-        <v>1926.81666666667</v>
+        <v>1911.81666666667</v>
       </c>
     </row>
     <row r="447" spans="1:14">
@@ -16074,7 +16074,7 @@
         <v>3.775000000000091</v>
       </c>
       <c r="N447">
-        <v>1926.775</v>
+        <v>1911.775</v>
       </c>
     </row>
     <row r="448" spans="1:14">
@@ -16109,7 +16109,7 @@
         <v>3.850000000000136</v>
       </c>
       <c r="N448">
-        <v>1926.85</v>
+        <v>1911.85</v>
       </c>
     </row>
     <row r="449" spans="1:14">
@@ -16144,7 +16144,7 @@
         <v>3.366666666669971</v>
       </c>
       <c r="N449">
-        <v>1926.36666666667</v>
+        <v>1911.36666666667</v>
       </c>
     </row>
     <row r="450" spans="1:14">
@@ -16179,7 +16179,7 @@
         <v>3.566666666670017</v>
       </c>
       <c r="N450">
-        <v>1926.56666666667</v>
+        <v>1911.56666666667</v>
       </c>
     </row>
     <row r="451" spans="1:14">
@@ -16214,7 +16214,7 @@
         <v>3.408333333329892</v>
       </c>
       <c r="N451">
-        <v>1926.40833333333</v>
+        <v>1911.40833333333</v>
       </c>
     </row>
     <row r="452" spans="1:14">
@@ -16249,7 +16249,7 @@
         <v>2.941666666670017</v>
       </c>
       <c r="N452">
-        <v>1925.94166666667</v>
+        <v>1910.94166666667</v>
       </c>
     </row>
     <row r="453" spans="1:14">
@@ -16284,7 +16284,7 @@
         <v>2.775000000000091</v>
       </c>
       <c r="N453">
-        <v>1925.775</v>
+        <v>1910.775</v>
       </c>
     </row>
     <row r="454" spans="1:14">
@@ -16319,7 +16319,7 @@
         <v>2.708333333329847</v>
       </c>
       <c r="N454">
-        <v>1925.70833333333</v>
+        <v>1910.70833333333</v>
       </c>
     </row>
     <row r="455" spans="1:14">
@@ -16354,7 +16354,7 @@
         <v>2.833333333329847</v>
       </c>
       <c r="N455">
-        <v>1925.83333333333</v>
+        <v>1910.83333333333</v>
       </c>
     </row>
     <row r="456" spans="1:14">
@@ -16389,7 +16389,7 @@
         <v>3.191666666670017</v>
       </c>
       <c r="N456">
-        <v>1926.19166666667</v>
+        <v>1911.19166666667</v>
       </c>
     </row>
     <row r="457" spans="1:14">
@@ -16424,7 +16424,7 @@
         <v>3.283333333329892</v>
       </c>
       <c r="N457">
-        <v>1926.28333333333</v>
+        <v>1911.28333333333</v>
       </c>
     </row>
     <row r="458" spans="1:14">
@@ -16459,7 +16459,7 @@
         <v>3</v>
       </c>
       <c r="N458">
-        <v>1926</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="459" spans="1:14">
@@ -16494,7 +16494,7 @@
         <v>3.450000000000045</v>
       </c>
       <c r="N459">
-        <v>1926.45</v>
+        <v>1911.45</v>
       </c>
     </row>
     <row r="460" spans="1:14">
@@ -16529,7 +16529,7 @@
         <v>3.783333333329892</v>
       </c>
       <c r="N460">
-        <v>1926.78333333333</v>
+        <v>1911.78333333333</v>
       </c>
     </row>
     <row r="461" spans="1:14">
@@ -16564,7 +16564,7 @@
         <v>3.950000000000045</v>
       </c>
       <c r="N461">
-        <v>1926.95</v>
+        <v>1911.95</v>
       </c>
     </row>
     <row r="462" spans="1:14">
@@ -16599,7 +16599,7 @@
         <v>3.166666666669926</v>
       </c>
       <c r="N462">
-        <v>1926.16666666667</v>
+        <v>1911.16666666667</v>
       </c>
     </row>
     <row r="463" spans="1:14">
@@ -16634,7 +16634,7 @@
         <v>3.691666666670017</v>
       </c>
       <c r="N463">
-        <v>1926.69166666667</v>
+        <v>1911.69166666667</v>
       </c>
     </row>
     <row r="464" spans="1:14">
@@ -16669,7 +16669,7 @@
         <v>3.650000000000091</v>
       </c>
       <c r="N464">
-        <v>1926.65</v>
+        <v>1911.65</v>
       </c>
     </row>
     <row r="465" spans="1:14">
@@ -16704,7 +16704,7 @@
         <v>3.491666666669971</v>
       </c>
       <c r="N465">
-        <v>1926.49166666667</v>
+        <v>1911.49166666667</v>
       </c>
     </row>
     <row r="466" spans="1:14">
@@ -16739,7 +16739,7 @@
         <v>3.566666666670017</v>
       </c>
       <c r="N466">
-        <v>1926.56666666667</v>
+        <v>1911.56666666667</v>
       </c>
     </row>
     <row r="467" spans="1:14">
@@ -16774,7 +16774,7 @@
         <v>3.691666666670017</v>
       </c>
       <c r="N467">
-        <v>1926.69166666667</v>
+        <v>1911.69166666667</v>
       </c>
     </row>
     <row r="468" spans="1:14">
@@ -16809,7 +16809,7 @@
         <v>3.450000000000045</v>
       </c>
       <c r="N468">
-        <v>1926.45</v>
+        <v>1911.45</v>
       </c>
     </row>
     <row r="469" spans="1:14">
@@ -16844,7 +16844,7 @@
         <v>3.275000000000091</v>
       </c>
       <c r="N469">
-        <v>1926.275</v>
+        <v>1911.275</v>
       </c>
     </row>
     <row r="470" spans="1:14">
@@ -16879,7 +16879,7 @@
         <v>3.325000000000045</v>
       </c>
       <c r="N470">
-        <v>1926.325</v>
+        <v>1911.325</v>
       </c>
     </row>
     <row r="471" spans="1:14">
@@ -16914,7 +16914,7 @@
         <v>3.191666666670017</v>
       </c>
       <c r="N471">
-        <v>1926.19166666667</v>
+        <v>1911.19166666667</v>
       </c>
     </row>
     <row r="472" spans="1:14">
@@ -16949,7 +16949,7 @@
         <v>3.408333333329892</v>
       </c>
       <c r="N472">
-        <v>1926.40833333333</v>
+        <v>1911.40833333333</v>
       </c>
     </row>
     <row r="473" spans="1:14">
@@ -16984,7 +16984,7 @@
         <v>3.608333333329938</v>
       </c>
       <c r="N473">
-        <v>1926.60833333333</v>
+        <v>1911.60833333333</v>
       </c>
     </row>
     <row r="474" spans="1:14">
@@ -17019,7 +17019,7 @@
         <v>3.400000000000091</v>
       </c>
       <c r="N474">
-        <v>1926.4</v>
+        <v>1911.4</v>
       </c>
     </row>
     <row r="475" spans="1:14">
@@ -17054,7 +17054,7 @@
         <v>3.400000000000091</v>
       </c>
       <c r="N475">
-        <v>1926.4</v>
+        <v>1911.4</v>
       </c>
     </row>
     <row r="476" spans="1:14">
@@ -17089,7 +17089,7 @@
         <v>3.025000000000091</v>
       </c>
       <c r="N476">
-        <v>1926.025</v>
+        <v>1911.025</v>
       </c>
     </row>
     <row r="477" spans="1:14">
@@ -17124,7 +17124,7 @@
         <v>2.741666666669971</v>
       </c>
       <c r="N477">
-        <v>1925.74166666667</v>
+        <v>1910.74166666667</v>
       </c>
     </row>
     <row r="478" spans="1:14">
@@ -17159,7 +17159,7 @@
         <v>2.991666666669971</v>
       </c>
       <c r="N478">
-        <v>1925.99166666667</v>
+        <v>1910.99166666667</v>
       </c>
     </row>
     <row r="479" spans="1:14">
@@ -17194,7 +17194,7 @@
         <v>2.650000000000091</v>
       </c>
       <c r="N479">
-        <v>1925.65</v>
+        <v>1910.65</v>
       </c>
     </row>
     <row r="480" spans="1:14">
@@ -17229,7 +17229,7 @@
         <v>2.691666666670017</v>
       </c>
       <c r="N480">
-        <v>1925.69166666667</v>
+        <v>1910.69166666667</v>
       </c>
     </row>
     <row r="481" spans="1:14">
@@ -17264,7 +17264,7 @@
         <v>2.858333333329938</v>
       </c>
       <c r="N481">
-        <v>1925.85833333333</v>
+        <v>1910.85833333333</v>
       </c>
     </row>
     <row r="482" spans="1:14">
@@ -17299,7 +17299,7 @@
         <v>3.283333333329892</v>
       </c>
       <c r="N482">
-        <v>1926.28333333333</v>
+        <v>1911.28333333333</v>
       </c>
     </row>
     <row r="483" spans="1:14">
@@ -17334,7 +17334,7 @@
         <v>3.650000000000091</v>
       </c>
       <c r="N483">
-        <v>1926.65</v>
+        <v>1911.65</v>
       </c>
     </row>
     <row r="484" spans="1:14">
@@ -17369,7 +17369,7 @@
         <v>2.541666666669926</v>
       </c>
       <c r="N484">
-        <v>1925.54166666667</v>
+        <v>1910.54166666667</v>
       </c>
     </row>
     <row r="485" spans="1:14">
@@ -17404,7 +17404,7 @@
         <v>3.325000000000045</v>
       </c>
       <c r="N485">
-        <v>1926.325</v>
+        <v>1911.325</v>
       </c>
     </row>
     <row r="486" spans="1:14">
@@ -17439,7 +17439,7 @@
         <v>3.775000000000091</v>
       </c>
       <c r="N486">
-        <v>1926.775</v>
+        <v>1911.775</v>
       </c>
     </row>
     <row r="487" spans="1:14">
@@ -17474,7 +17474,7 @@
         <v>3.483333333329938</v>
       </c>
       <c r="N487">
-        <v>1926.48333333333</v>
+        <v>1911.48333333333</v>
       </c>
     </row>
     <row r="488" spans="1:14">
@@ -17509,7 +17509,7 @@
         <v>3.566666666670017</v>
       </c>
       <c r="N488">
-        <v>1926.56666666667</v>
+        <v>1911.56666666667</v>
       </c>
     </row>
     <row r="489" spans="1:14">
@@ -17544,7 +17544,7 @@
         <v>3.350000000000136</v>
       </c>
       <c r="N489">
-        <v>1926.35</v>
+        <v>1911.35</v>
       </c>
     </row>
     <row r="490" spans="1:14">
@@ -17579,7 +17579,7 @@
         <v>3.658333333329892</v>
       </c>
       <c r="N490">
-        <v>1926.65833333333</v>
+        <v>1911.65833333333</v>
       </c>
     </row>
     <row r="491" spans="1:14">
@@ -17614,7 +17614,7 @@
         <v>3.775000000000091</v>
       </c>
       <c r="N491">
-        <v>1926.775</v>
+        <v>1911.775</v>
       </c>
     </row>
     <row r="492" spans="1:14">
@@ -17649,7 +17649,7 @@
         <v>2.941666666670017</v>
       </c>
       <c r="N492">
-        <v>1925.94166666667</v>
+        <v>1910.94166666667</v>
       </c>
     </row>
     <row r="493" spans="1:14">
@@ -17684,7 +17684,7 @@
         <v>3.308333333329983</v>
       </c>
       <c r="N493">
-        <v>1926.30833333333</v>
+        <v>1911.30833333333</v>
       </c>
     </row>
     <row r="494" spans="1:14">
@@ -17719,7 +17719,7 @@
         <v>2.900000000000091</v>
       </c>
       <c r="N494">
-        <v>1925.9</v>
+        <v>1910.9</v>
       </c>
     </row>
     <row r="495" spans="1:14">
@@ -17754,7 +17754,7 @@
         <v>3.025000000000091</v>
       </c>
       <c r="N495">
-        <v>1926.025</v>
+        <v>1911.025</v>
       </c>
     </row>
     <row r="496" spans="1:14">
@@ -17789,7 +17789,7 @@
         <v>3.200000000000045</v>
       </c>
       <c r="N496">
-        <v>1926.2</v>
+        <v>1911.2</v>
       </c>
     </row>
     <row r="497" spans="1:14">
@@ -17824,7 +17824,7 @@
         <v>3.116666666669971</v>
       </c>
       <c r="N497">
-        <v>1926.11666666667</v>
+        <v>1911.11666666667</v>
       </c>
     </row>
     <row r="498" spans="1:14">
@@ -17859,7 +17859,7 @@
         <v>2.683333333329983</v>
       </c>
       <c r="N498">
-        <v>1925.68333333333</v>
+        <v>1910.68333333333</v>
       </c>
     </row>
     <row r="499" spans="1:14">
@@ -17894,7 +17894,7 @@
         <v>2.316666666670017</v>
       </c>
       <c r="N499">
-        <v>1925.31666666667</v>
+        <v>1910.31666666667</v>
       </c>
     </row>
     <row r="500" spans="1:14">
@@ -17929,7 +17929,7 @@
         <v>2.066666666670017</v>
       </c>
       <c r="N500">
-        <v>1925.06666666667</v>
+        <v>1910.06666666667</v>
       </c>
     </row>
     <row r="501" spans="1:14">
@@ -17964,7 +17964,7 @@
         <v>1.891666666670062</v>
       </c>
       <c r="N501">
-        <v>1924.89166666667</v>
+        <v>1909.89166666667</v>
       </c>
     </row>
     <row r="502" spans="1:14">
@@ -17999,7 +17999,7 @@
         <v>1.491666666669971</v>
       </c>
       <c r="N502">
-        <v>1924.49166666667</v>
+        <v>1909.49166666667</v>
       </c>
     </row>
     <row r="503" spans="1:14">
@@ -18034,7 +18034,7 @@
         <v>1.708333333329847</v>
       </c>
       <c r="N503">
-        <v>1924.70833333333</v>
+        <v>1909.70833333333</v>
       </c>
     </row>
     <row r="504" spans="1:14">
@@ -18069,7 +18069,7 @@
         <v>3</v>
       </c>
       <c r="N504">
-        <v>1926</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="505" spans="1:14">
@@ -18104,7 +18104,7 @@
         <v>2.233333333329938</v>
       </c>
       <c r="N505">
-        <v>1925.23333333333</v>
+        <v>1910.23333333333</v>
       </c>
     </row>
     <row r="506" spans="1:14">
@@ -18139,7 +18139,7 @@
         <v>2.775000000000091</v>
       </c>
       <c r="N506">
-        <v>1925.775</v>
+        <v>1910.775</v>
       </c>
     </row>
     <row r="507" spans="1:14">
@@ -18174,7 +18174,7 @@
         <v>2.333333333329847</v>
       </c>
       <c r="N507">
-        <v>1925.33333333333</v>
+        <v>1910.33333333333</v>
       </c>
     </row>
     <row r="508" spans="1:14">
@@ -18209,7 +18209,7 @@
         <v>1.825000000000045</v>
       </c>
       <c r="N508">
-        <v>1924.825</v>
+        <v>1909.825</v>
       </c>
     </row>
     <row r="509" spans="1:14">
@@ -18244,7 +18244,7 @@
         <v>2.416666666669926</v>
       </c>
       <c r="N509">
-        <v>1925.41666666667</v>
+        <v>1910.41666666667</v>
       </c>
     </row>
     <row r="510" spans="1:14">
@@ -18279,7 +18279,7 @@
         <v>2.325000000000045</v>
       </c>
       <c r="N510">
-        <v>1925.325</v>
+        <v>1910.325</v>
       </c>
     </row>
     <row r="511" spans="1:14">
@@ -18314,7 +18314,7 @@
         <v>3.108333333329938</v>
       </c>
       <c r="N511">
-        <v>1926.10833333333</v>
+        <v>1911.10833333333</v>
       </c>
     </row>
     <row r="512" spans="1:14">
@@ -18349,7 +18349,7 @@
         <v>2.725000000000136</v>
       </c>
       <c r="N512">
-        <v>1925.725</v>
+        <v>1910.725</v>
       </c>
     </row>
     <row r="513" spans="1:14">
@@ -18384,7 +18384,7 @@
         <v>2.291666666669926</v>
       </c>
       <c r="N513">
-        <v>1925.29166666667</v>
+        <v>1910.29166666667</v>
       </c>
     </row>
     <row r="514" spans="1:14">
@@ -18419,7 +18419,7 @@
         <v>2.700000000000045</v>
       </c>
       <c r="N514">
-        <v>1925.7</v>
+        <v>1910.7</v>
       </c>
     </row>
     <row r="515" spans="1:14">
@@ -18454,7 +18454,7 @@
         <v>2.566666666670017</v>
       </c>
       <c r="N515">
-        <v>1925.56666666667</v>
+        <v>1910.56666666667</v>
       </c>
     </row>
     <row r="516" spans="1:14">
@@ -18489,7 +18489,7 @@
         <v>2.741666666669971</v>
       </c>
       <c r="N516">
-        <v>1925.74166666667</v>
+        <v>1910.74166666667</v>
       </c>
     </row>
     <row r="517" spans="1:14">
@@ -18524,7 +18524,7 @@
         <v>2.516666666670062</v>
       </c>
       <c r="N517">
-        <v>1925.51666666667</v>
+        <v>1910.51666666667</v>
       </c>
     </row>
     <row r="518" spans="1:14">
@@ -18559,7 +18559,7 @@
         <v>2.808333333329983</v>
       </c>
       <c r="N518">
-        <v>1925.80833333333</v>
+        <v>1910.80833333333</v>
       </c>
     </row>
     <row r="519" spans="1:14">
@@ -18594,7 +18594,7 @@
         <v>2.200000000000045</v>
       </c>
       <c r="N519">
-        <v>1925.2</v>
+        <v>1910.2</v>
       </c>
     </row>
     <row r="520" spans="1:14">
@@ -18629,7 +18629,7 @@
         <v>2.033333333329892</v>
       </c>
       <c r="N520">
-        <v>1925.03333333333</v>
+        <v>1910.03333333333</v>
       </c>
     </row>
     <row r="521" spans="1:14">
@@ -18664,7 +18664,7 @@
         <v>2.316666666670017</v>
       </c>
       <c r="N521">
-        <v>1925.31666666667</v>
+        <v>1910.31666666667</v>
       </c>
     </row>
     <row r="522" spans="1:14">
@@ -18699,7 +18699,7 @@
         <v>2.733333333329938</v>
       </c>
       <c r="N522">
-        <v>1925.73333333333</v>
+        <v>1910.73333333333</v>
       </c>
     </row>
     <row r="523" spans="1:14">
@@ -18734,7 +18734,7 @@
         <v>2.141666666670062</v>
       </c>
       <c r="N523">
-        <v>1925.14166666667</v>
+        <v>1910.14166666667</v>
       </c>
     </row>
     <row r="524" spans="1:14">
@@ -18769,7 +18769,7 @@
         <v>1.658333333329892</v>
       </c>
       <c r="N524">
-        <v>1924.65833333333</v>
+        <v>1909.65833333333</v>
       </c>
     </row>
     <row r="525" spans="1:14">
@@ -18804,7 +18804,7 @@
         <v>0.9166666666699257</v>
       </c>
       <c r="N525">
-        <v>1923.91666666667</v>
+        <v>1908.91666666667</v>
       </c>
     </row>
     <row r="526" spans="1:14">
@@ -18839,7 +18839,7 @@
         <v>1.991666666669971</v>
       </c>
       <c r="N526">
-        <v>1924.99166666667</v>
+        <v>1909.99166666667</v>
       </c>
     </row>
     <row r="527" spans="1:14">
@@ -18874,7 +18874,7 @@
         <v>1.133333333329801</v>
       </c>
       <c r="N527">
-        <v>1924.13333333333</v>
+        <v>1909.13333333333</v>
       </c>
     </row>
     <row r="528" spans="1:14">
@@ -18909,7 +18909,7 @@
         <v>1.333333333329847</v>
       </c>
       <c r="N528">
-        <v>1924.33333333333</v>
+        <v>1909.33333333333</v>
       </c>
     </row>
     <row r="529" spans="1:14">
@@ -18944,7 +18944,7 @@
         <v>1.291666666669926</v>
       </c>
       <c r="N529">
-        <v>1924.29166666667</v>
+        <v>1909.29166666667</v>
       </c>
     </row>
     <row r="530" spans="1:14">
@@ -18979,7 +18979,7 @@
         <v>1.958333333329847</v>
       </c>
       <c r="N530">
-        <v>1924.95833333333</v>
+        <v>1909.95833333333</v>
       </c>
     </row>
     <row r="531" spans="1:14">
@@ -19014,7 +19014,7 @@
         <v>2.21666666666988</v>
       </c>
       <c r="N531">
-        <v>1925.21666666667</v>
+        <v>1910.21666666667</v>
       </c>
     </row>
     <row r="532" spans="1:14">
@@ -19049,7 +19049,7 @@
         <v>2.616666666669971</v>
       </c>
       <c r="N532">
-        <v>1925.61666666667</v>
+        <v>1910.61666666667</v>
       </c>
     </row>
     <row r="533" spans="1:14">
@@ -19084,7 +19084,7 @@
         <v>2.008333333329801</v>
       </c>
       <c r="N533">
-        <v>1925.00833333333</v>
+        <v>1910.00833333333</v>
       </c>
     </row>
     <row r="534" spans="1:14">
@@ -19119,7 +19119,7 @@
         <v>1.866666666669971</v>
       </c>
       <c r="N534">
-        <v>1924.86666666667</v>
+        <v>1909.86666666667</v>
       </c>
     </row>
     <row r="535" spans="1:14">
@@ -19154,7 +19154,7 @@
         <v>2.408333333329892</v>
       </c>
       <c r="N535">
-        <v>1925.40833333333</v>
+        <v>1910.40833333333</v>
       </c>
     </row>
     <row r="536" spans="1:14">
@@ -19189,7 +19189,7 @@
         <v>2.166666666669926</v>
       </c>
       <c r="N536">
-        <v>1925.16666666667</v>
+        <v>1910.16666666667</v>
       </c>
     </row>
     <row r="537" spans="1:14">
@@ -19224,7 +19224,7 @@
         <v>2.200000000000045</v>
       </c>
       <c r="N537">
-        <v>1925.2</v>
+        <v>1910.2</v>
       </c>
     </row>
     <row r="538" spans="1:14">
@@ -19259,7 +19259,7 @@
         <v>1.908333333329892</v>
       </c>
       <c r="N538">
-        <v>1924.90833333333</v>
+        <v>1909.90833333333</v>
       </c>
     </row>
     <row r="539" spans="1:14">
@@ -19294,7 +19294,7 @@
         <v>1.866666666669971</v>
       </c>
       <c r="N539">
-        <v>1924.86666666667</v>
+        <v>1909.86666666667</v>
       </c>
     </row>
     <row r="540" spans="1:14">
@@ -19329,7 +19329,7 @@
         <v>2.150000000000091</v>
       </c>
       <c r="N540">
-        <v>1925.15</v>
+        <v>1910.15</v>
       </c>
     </row>
     <row r="541" spans="1:14">
@@ -19364,7 +19364,7 @@
         <v>1.816666666670017</v>
       </c>
       <c r="N541">
-        <v>1924.81666666667</v>
+        <v>1909.81666666667</v>
       </c>
     </row>
     <row r="542" spans="1:14">
@@ -19399,7 +19399,7 @@
         <v>1.433333333329983</v>
       </c>
       <c r="N542">
-        <v>1924.43333333333</v>
+        <v>1909.43333333333</v>
       </c>
     </row>
     <row r="543" spans="1:14">
@@ -19434,7 +19434,7 @@
         <v>1.941666666670017</v>
       </c>
       <c r="N543">
-        <v>1924.94166666667</v>
+        <v>1909.94166666667</v>
       </c>
     </row>
     <row r="544" spans="1:14">
@@ -19469,7 +19469,7 @@
         <v>1.650000000000091</v>
       </c>
       <c r="N544">
-        <v>1924.65</v>
+        <v>1909.65</v>
       </c>
     </row>
     <row r="545" spans="1:14">
@@ -19504,7 +19504,7 @@
         <v>1.441666666670017</v>
       </c>
       <c r="N545">
-        <v>1924.44166666667</v>
+        <v>1909.44166666667</v>
       </c>
     </row>
     <row r="546" spans="1:14">
@@ -19539,7 +19539,7 @@
         <v>1.600000000000136</v>
       </c>
       <c r="N546">
-        <v>1924.6</v>
+        <v>1909.6</v>
       </c>
     </row>
     <row r="547" spans="1:14">
@@ -19574,7 +19574,7 @@
         <v>1.575000000000045</v>
       </c>
       <c r="N547">
-        <v>1924.575</v>
+        <v>1909.575</v>
       </c>
     </row>
     <row r="548" spans="1:14">
@@ -19609,7 +19609,7 @@
         <v>0.9333333333299834</v>
       </c>
       <c r="N548">
-        <v>1923.93333333333</v>
+        <v>1908.93333333333</v>
       </c>
     </row>
     <row r="549" spans="1:14">
@@ -19644,7 +19644,7 @@
         <v>0.9000000000000909</v>
       </c>
       <c r="N549">
-        <v>1923.9</v>
+        <v>1908.9</v>
       </c>
     </row>
     <row r="550" spans="1:14">
@@ -19679,7 +19679,7 @@
         <v>0.9000000000000909</v>
       </c>
       <c r="N550">
-        <v>1923.9</v>
+        <v>1908.9</v>
       </c>
     </row>
     <row r="551" spans="1:14">
@@ -19714,7 +19714,7 @@
         <v>0.8250000000000455</v>
       </c>
       <c r="N551">
-        <v>1923.825</v>
+        <v>1908.825</v>
       </c>
     </row>
     <row r="552" spans="1:14">
@@ -19749,7 +19749,7 @@
         <v>1.483333333329938</v>
       </c>
       <c r="N552">
-        <v>1924.48333333333</v>
+        <v>1909.48333333333</v>
       </c>
     </row>
     <row r="553" spans="1:14">
@@ -19784,7 +19784,7 @@
         <v>1.200000000000045</v>
       </c>
       <c r="N553">
-        <v>1924.2</v>
+        <v>1909.2</v>
       </c>
     </row>
     <row r="554" spans="1:14">
@@ -19819,7 +19819,7 @@
         <v>1.575000000000045</v>
       </c>
       <c r="N554">
-        <v>1924.575</v>
+        <v>1909.575</v>
       </c>
     </row>
     <row r="555" spans="1:14">
@@ -19854,7 +19854,7 @@
         <v>1.575000000000045</v>
       </c>
       <c r="N555">
-        <v>1924.575</v>
+        <v>1909.575</v>
       </c>
     </row>
     <row r="556" spans="1:14">
@@ -19889,7 +19889,7 @@
         <v>0.7833333333298924</v>
       </c>
       <c r="N556">
-        <v>1923.78333333333</v>
+        <v>1908.78333333333</v>
       </c>
     </row>
     <row r="557" spans="1:14">
@@ -19924,7 +19924,7 @@
         <v>1.241666666669971</v>
       </c>
       <c r="N557">
-        <v>1924.24166666667</v>
+        <v>1909.24166666667</v>
       </c>
     </row>
     <row r="558" spans="1:14">
@@ -19959,7 +19959,7 @@
         <v>1.166666666669926</v>
       </c>
       <c r="N558">
-        <v>1924.16666666667</v>
+        <v>1909.16666666667</v>
       </c>
     </row>
     <row r="559" spans="1:14">
@@ -19994,7 +19994,7 @@
         <v>1.316666666670017</v>
       </c>
       <c r="N559">
-        <v>1924.31666666667</v>
+        <v>1909.31666666667</v>
       </c>
     </row>
     <row r="560" spans="1:14">
@@ -20029,7 +20029,7 @@
         <v>1.525000000000091</v>
       </c>
       <c r="N560">
-        <v>1924.525</v>
+        <v>1909.525</v>
       </c>
     </row>
     <row r="561" spans="1:14">
@@ -20064,7 +20064,7 @@
         <v>1.483333333329938</v>
       </c>
       <c r="N561">
-        <v>1924.48333333333</v>
+        <v>1909.48333333333</v>
       </c>
     </row>
     <row r="562" spans="1:14">
@@ -20099,7 +20099,7 @@
         <v>1.025000000000091</v>
       </c>
       <c r="N562">
-        <v>1924.025</v>
+        <v>1909.025</v>
       </c>
     </row>
     <row r="563" spans="1:14">
@@ -20134,7 +20134,7 @@
         <v>1.233333333329938</v>
       </c>
       <c r="N563">
-        <v>1924.23333333333</v>
+        <v>1909.23333333333</v>
       </c>
     </row>
     <row r="564" spans="1:14">
@@ -20169,7 +20169,7 @@
         <v>1.266666666670062</v>
       </c>
       <c r="N564">
-        <v>1924.26666666667</v>
+        <v>1909.26666666667</v>
       </c>
     </row>
     <row r="565" spans="1:14">
@@ -20204,7 +20204,7 @@
         <v>1.658333333329892</v>
       </c>
       <c r="N565">
-        <v>1924.65833333333</v>
+        <v>1909.65833333333</v>
       </c>
     </row>
     <row r="566" spans="1:14">
@@ -20239,7 +20239,7 @@
         <v>1.241666666669971</v>
       </c>
       <c r="N566">
-        <v>1924.24166666667</v>
+        <v>1909.24166666667</v>
       </c>
     </row>
     <row r="567" spans="1:14">
@@ -20274,7 +20274,7 @@
         <v>1.483333333329938</v>
       </c>
       <c r="N567">
-        <v>1924.48333333333</v>
+        <v>1909.48333333333</v>
       </c>
     </row>
     <row r="568" spans="1:14">
@@ -20309,7 +20309,7 @@
         <v>1.066666666670017</v>
       </c>
       <c r="N568">
-        <v>1924.06666666667</v>
+        <v>1909.06666666667</v>
       </c>
     </row>
     <row r="569" spans="1:14">
@@ -20344,7 +20344,7 @@
         <v>1.183333333329983</v>
       </c>
       <c r="N569">
-        <v>1924.18333333333</v>
+        <v>1909.18333333333</v>
       </c>
     </row>
     <row r="570" spans="1:14">
@@ -20379,7 +20379,7 @@
         <v>1.266666666670062</v>
       </c>
       <c r="N570">
-        <v>1924.26666666667</v>
+        <v>1909.26666666667</v>
       </c>
     </row>
     <row r="571" spans="1:14">
@@ -20414,7 +20414,7 @@
         <v>1.125</v>
       </c>
       <c r="N571">
-        <v>1924.125</v>
+        <v>1909.125</v>
       </c>
     </row>
     <row r="572" spans="1:14">
@@ -20449,7 +20449,7 @@
         <v>1.158333333329892</v>
       </c>
       <c r="N572">
-        <v>1924.15833333333</v>
+        <v>1909.15833333333</v>
       </c>
     </row>
     <row r="573" spans="1:14">
@@ -20484,7 +20484,7 @@
         <v>0.5750000000000455</v>
       </c>
       <c r="N573">
-        <v>1923.575</v>
+        <v>1908.575</v>
       </c>
     </row>
     <row r="574" spans="1:14">
@@ -20519,7 +20519,7 @@
         <v>0.5</v>
       </c>
       <c r="N574">
-        <v>1923.5</v>
+        <v>1908.5</v>
       </c>
     </row>
     <row r="575" spans="1:14">
@@ -20554,7 +20554,7 @@
         <v>0.6583333333298924</v>
       </c>
       <c r="N575">
-        <v>1923.65833333333</v>
+        <v>1908.65833333333</v>
       </c>
     </row>
     <row r="576" spans="1:14">
@@ -20589,7 +20589,7 @@
         <v>1.158333333329892</v>
       </c>
       <c r="N576">
-        <v>1924.15833333333</v>
+        <v>1909.15833333333</v>
       </c>
     </row>
     <row r="577" spans="1:14">
@@ -20624,7 +20624,7 @@
         <v>1.116666666669971</v>
       </c>
       <c r="N577">
-        <v>1924.11666666667</v>
+        <v>1909.11666666667</v>
       </c>
     </row>
     <row r="578" spans="1:14">
@@ -20659,7 +20659,7 @@
         <v>0.8166666666700166</v>
       </c>
       <c r="N578">
-        <v>1923.81666666667</v>
+        <v>1908.81666666667</v>
       </c>
     </row>
     <row r="579" spans="1:14">
@@ -20694,7 +20694,7 @@
         <v>0.9000000000000909</v>
       </c>
       <c r="N579">
-        <v>1923.9</v>
+        <v>1908.9</v>
       </c>
     </row>
     <row r="580" spans="1:14">
@@ -20729,7 +20729,7 @@
         <v>1.083333333329847</v>
       </c>
       <c r="N580">
-        <v>1924.08333333333</v>
+        <v>1909.08333333333</v>
       </c>
     </row>
     <row r="581" spans="1:14">
@@ -20764,7 +20764,7 @@
         <v>1.241666666669971</v>
       </c>
       <c r="N581">
-        <v>1924.24166666667</v>
+        <v>1909.24166666667</v>
       </c>
     </row>
     <row r="582" spans="1:14">
@@ -20799,7 +20799,7 @@
         <v>0.5750000000000455</v>
       </c>
       <c r="N582">
-        <v>1923.575</v>
+        <v>1908.575</v>
       </c>
     </row>
     <row r="583" spans="1:14">
@@ -20834,7 +20834,7 @@
         <v>1.041666666669926</v>
       </c>
       <c r="N583">
-        <v>1924.04166666667</v>
+        <v>1909.04166666667</v>
       </c>
     </row>
     <row r="584" spans="1:14">
@@ -20869,7 +20869,7 @@
         <v>1.458333333329847</v>
       </c>
       <c r="N584">
-        <v>1924.45833333333</v>
+        <v>1909.45833333333</v>
       </c>
     </row>
     <row r="585" spans="1:14">
@@ -20904,7 +20904,7 @@
         <v>1.600000000000136</v>
       </c>
       <c r="N585">
-        <v>1924.6</v>
+        <v>1909.6</v>
       </c>
     </row>
     <row r="586" spans="1:14">
@@ -20939,7 +20939,7 @@
         <v>1.191666666670017</v>
       </c>
       <c r="N586">
-        <v>1924.19166666667</v>
+        <v>1909.19166666667</v>
       </c>
     </row>
     <row r="587" spans="1:14">
@@ -20974,7 +20974,7 @@
         <v>1.116666666669971</v>
       </c>
       <c r="N587">
-        <v>1924.11666666667</v>
+        <v>1909.11666666667</v>
       </c>
     </row>
     <row r="588" spans="1:14">
@@ -21009,7 +21009,7 @@
         <v>0.7000000000000455</v>
       </c>
       <c r="N588">
-        <v>1923.7</v>
+        <v>1908.7</v>
       </c>
     </row>
     <row r="589" spans="1:14">
@@ -21044,7 +21044,7 @@
         <v>0.9416666666700166</v>
       </c>
       <c r="N589">
-        <v>1923.94166666667</v>
+        <v>1908.94166666667</v>
       </c>
     </row>
     <row r="590" spans="1:14">
@@ -21079,7 +21079,7 @@
         <v>0.8916666666700621</v>
       </c>
       <c r="N590">
-        <v>1923.89166666667</v>
+        <v>1908.89166666667</v>
       </c>
     </row>
     <row r="591" spans="1:14">
@@ -21114,7 +21114,7 @@
         <v>0.8666666666699712</v>
       </c>
       <c r="N591">
-        <v>1923.86666666667</v>
+        <v>1908.86666666667</v>
       </c>
     </row>
     <row r="592" spans="1:14">
@@ -21149,7 +21149,7 @@
         <v>0.4750000000001364</v>
       </c>
       <c r="N592">
-        <v>1923.475</v>
+        <v>1908.475</v>
       </c>
     </row>
     <row r="593" spans="1:14">
@@ -21184,7 +21184,7 @@
         <v>0.5333333333298924</v>
       </c>
       <c r="N593">
-        <v>1923.53333333333</v>
+        <v>1908.53333333333</v>
       </c>
     </row>
     <row r="594" spans="1:14">
@@ -21219,7 +21219,7 @@
         <v>0.1500000000000909</v>
       </c>
       <c r="N594">
-        <v>1923.15</v>
+        <v>1908.15</v>
       </c>
     </row>
     <row r="595" spans="1:14">
@@ -21254,7 +21254,7 @@
         <v>0.2000000000000455</v>
       </c>
       <c r="N595">
-        <v>1923.2</v>
+        <v>1908.2</v>
       </c>
     </row>
     <row r="596" spans="1:14">
@@ -21289,7 +21289,7 @@
         <v>0.3583333333299379</v>
       </c>
       <c r="N596">
-        <v>1923.35833333333</v>
+        <v>1908.35833333333</v>
       </c>
     </row>
     <row r="597" spans="1:14">
@@ -21324,7 +21324,7 @@
         <v>0.4083333333298924</v>
       </c>
       <c r="N597">
-        <v>1923.40833333333</v>
+        <v>1908.40833333333</v>
       </c>
     </row>
     <row r="598" spans="1:14">
@@ -21359,7 +21359,7 @@
         <v>0.5250000000000909</v>
       </c>
       <c r="N598">
-        <v>1923.525</v>
+        <v>1908.525</v>
       </c>
     </row>
     <row r="599" spans="1:14">
@@ -21394,7 +21394,7 @@
         <v>0.1583333333298924</v>
       </c>
       <c r="N599">
-        <v>1923.15833333333</v>
+        <v>1908.15833333333</v>
       </c>
     </row>
     <row r="600" spans="1:14">
@@ -21429,7 +21429,7 @@
         <v>0.3500000000001364</v>
       </c>
       <c r="N600">
-        <v>1923.35</v>
+        <v>1908.35</v>
       </c>
     </row>
     <row r="601" spans="1:14">
@@ -21464,7 +21464,7 @@
         <v>0.07500000000004547</v>
       </c>
       <c r="N601">
-        <v>1923.075</v>
+        <v>1908.075</v>
       </c>
     </row>
     <row r="602" spans="1:14">
@@ -21499,7 +21499,7 @@
         <v>0.4333333333299834</v>
       </c>
       <c r="N602">
-        <v>1923.43333333333</v>
+        <v>1908.43333333333</v>
       </c>
     </row>
     <row r="603" spans="1:14">
@@ -21534,7 +21534,7 @@
         <v>0.3083333333299834</v>
       </c>
       <c r="N603">
-        <v>1923.30833333333</v>
+        <v>1908.30833333333</v>
       </c>
     </row>
     <row r="604" spans="1:14">
@@ -21569,7 +21569,7 @@
         <v>0.2833333333298924</v>
       </c>
       <c r="N604">
-        <v>1923.28333333333</v>
+        <v>1908.28333333333</v>
       </c>
     </row>
     <row r="605" spans="1:14">
@@ -21604,7 +21604,7 @@
         <v>0.4416666666700166</v>
       </c>
       <c r="N605">
-        <v>1923.44166666667</v>
+        <v>1908.44166666667</v>
       </c>
     </row>
     <row r="606" spans="1:14">
@@ -21639,7 +21639,7 @@
         <v>0.1916666666700166</v>
       </c>
       <c r="N606">
-        <v>1923.19166666667</v>
+        <v>1908.19166666667</v>
       </c>
     </row>
     <row r="607" spans="1:14">
@@ -21674,7 +21674,7 @@
         <v>0.1916666666700166</v>
       </c>
       <c r="N607">
-        <v>1923.19166666667</v>
+        <v>1908.19166666667</v>
       </c>
     </row>
     <row r="608" spans="1:14">
@@ -21709,7 +21709,7 @@
         <v>0.3083333333299834</v>
       </c>
       <c r="N608">
-        <v>1923.30833333333</v>
+        <v>1908.30833333333</v>
       </c>
     </row>
     <row r="609" spans="1:14">
@@ -21744,7 +21744,7 @@
         <v>0.375</v>
       </c>
       <c r="N609">
-        <v>1923.375</v>
+        <v>1908.375</v>
       </c>
     </row>
     <row r="610" spans="1:14">
@@ -21779,7 +21779,7 @@
         <v>0.2166666666701076</v>
       </c>
       <c r="N610">
-        <v>1923.21666666667</v>
+        <v>1908.21666666667</v>
       </c>
     </row>
     <row r="611" spans="1:14">
@@ -21814,7 +21814,7 @@
         <v>0.7000000000000455</v>
       </c>
       <c r="N611">
-        <v>1923.7</v>
+        <v>1908.7</v>
       </c>
     </row>
     <row r="612" spans="1:14">
@@ -21849,7 +21849,7 @@
         <v>0.4500000000000455</v>
       </c>
       <c r="N612">
-        <v>1923.45</v>
+        <v>1908.45</v>
       </c>
     </row>
     <row r="613" spans="1:14">
@@ -21884,7 +21884,7 @@
         <v>0.4500000000000455</v>
       </c>
       <c r="N613">
-        <v>1923.45</v>
+        <v>1908.45</v>
       </c>
     </row>
     <row r="614" spans="1:14">
@@ -21919,7 +21919,7 @@
         <v>0.3083333333299834</v>
       </c>
       <c r="N614">
-        <v>1923.30833333333</v>
+        <v>1908.30833333333</v>
       </c>
     </row>
     <row r="615" spans="1:14">
@@ -21954,7 +21954,7 @@
         <v>0.6916666666700166</v>
       </c>
       <c r="N615">
-        <v>1923.69166666667</v>
+        <v>1908.69166666667</v>
       </c>
     </row>
     <row r="616" spans="1:14">
@@ -21989,7 +21989,7 @@
         <v>0.3166666666700166</v>
       </c>
       <c r="N616">
-        <v>1923.31666666667</v>
+        <v>1908.31666666667</v>
       </c>
     </row>
     <row r="617" spans="1:14">
@@ -22024,7 +22024,7 @@
         <v>0.3583333333299379</v>
       </c>
       <c r="N617">
-        <v>1923.35833333333</v>
+        <v>1908.35833333333</v>
       </c>
     </row>
     <row r="618" spans="1:14">
@@ -22059,7 +22059,7 @@
         <v>0.1500000000000909</v>
       </c>
       <c r="N618">
-        <v>1923.15</v>
+        <v>1908.15</v>
       </c>
     </row>
     <row r="619" spans="1:14">
@@ -22094,7 +22094,7 @@
         <v>0.2250000000001364</v>
       </c>
       <c r="N619">
-        <v>1923.225</v>
+        <v>1908.225</v>
       </c>
     </row>
     <row r="620" spans="1:14">
@@ -22129,7 +22129,7 @@
         <v>0.1583333333298924</v>
       </c>
       <c r="N620">
-        <v>1923.15833333333</v>
+        <v>1908.15833333333</v>
       </c>
     </row>
     <row r="621" spans="1:14">
@@ -22164,7 +22164,7 @@
         <v>0.2083333333298469</v>
       </c>
       <c r="N621">
-        <v>1923.20833333333</v>
+        <v>1908.20833333333</v>
       </c>
     </row>
     <row r="622" spans="1:14">
@@ -22199,7 +22199,7 @@
         <v>0.2416666666699712</v>
       </c>
       <c r="N622">
-        <v>1923.24166666667</v>
+        <v>1908.24166666667</v>
       </c>
     </row>
     <row r="623" spans="1:14">
@@ -22234,7 +22234,7 @@
         <v>0.2333333333299379</v>
       </c>
       <c r="N623">
-        <v>1923.23333333333</v>
+        <v>1908.23333333333</v>
       </c>
     </row>
     <row r="624" spans="1:14">
@@ -22269,7 +22269,7 @@
         <v>0.3583333333299379</v>
       </c>
       <c r="N624">
-        <v>1923.35833333333</v>
+        <v>1908.35833333333</v>
       </c>
     </row>
     <row r="625" spans="1:14">
@@ -22304,7 +22304,7 @@
         <v>0.2666666666700621</v>
       </c>
       <c r="N625">
-        <v>1923.26666666667</v>
+        <v>1908.26666666667</v>
       </c>
     </row>
     <row r="626" spans="1:14">
@@ -22339,7 +22339,7 @@
         <v>0.375</v>
       </c>
       <c r="N626">
-        <v>1923.375</v>
+        <v>1908.375</v>
       </c>
     </row>
     <row r="627" spans="1:14">
@@ -22374,7 +22374,7 @@
         <v>0.7916666666699257</v>
       </c>
       <c r="N627">
-        <v>1923.79166666667</v>
+        <v>1908.79166666667</v>
       </c>
     </row>
     <row r="628" spans="1:14">
@@ -22409,7 +22409,7 @@
         <v>0.5750000000000455</v>
       </c>
       <c r="N628">
-        <v>1923.575</v>
+        <v>1908.575</v>
       </c>
     </row>
     <row r="629" spans="1:14">
@@ -22444,7 +22444,7 @@
         <v>0.5333333333298924</v>
       </c>
       <c r="N629">
-        <v>1923.53333333333</v>
+        <v>1908.53333333333</v>
       </c>
     </row>
     <row r="630" spans="1:14">
@@ -22479,7 +22479,7 @@
         <v>0.4416666666700166</v>
       </c>
       <c r="N630">
-        <v>1923.44166666667</v>
+        <v>1908.44166666667</v>
       </c>
     </row>
     <row r="631" spans="1:14">
@@ -22514,7 +22514,7 @@
         <v>0.4833333333299379</v>
       </c>
       <c r="N631">
-        <v>1923.48333333333</v>
+        <v>1908.48333333333</v>
       </c>
     </row>
     <row r="632" spans="1:14">
@@ -22549,7 +22549,7 @@
         <v>0.6583333333298924</v>
       </c>
       <c r="N632">
-        <v>1923.65833333333</v>
+        <v>1908.65833333333</v>
       </c>
     </row>
     <row r="633" spans="1:14">
@@ -22584,7 +22584,7 @@
         <v>0.2416666666699712</v>
       </c>
       <c r="N633">
-        <v>1923.24166666667</v>
+        <v>1908.24166666667</v>
       </c>
     </row>
     <row r="634" spans="1:14">
@@ -22619,7 +22619,7 @@
         <v>0.4333333333299834</v>
       </c>
       <c r="N634">
-        <v>1923.43333333333</v>
+        <v>1908.43333333333</v>
       </c>
     </row>
     <row r="635" spans="1:14">
@@ -22654,7 +22654,7 @@
         <v>0.5666666666700166</v>
       </c>
       <c r="N635">
-        <v>1923.56666666667</v>
+        <v>1908.56666666667</v>
       </c>
     </row>
     <row r="636" spans="1:14">
@@ -22689,7 +22689,7 @@
         <v>0.4500000000000455</v>
       </c>
       <c r="N636">
-        <v>1923.45</v>
+        <v>1908.45</v>
       </c>
     </row>
     <row r="637" spans="1:14">
@@ -22724,7 +22724,7 @@
         <v>0.1500000000000909</v>
       </c>
       <c r="N637">
-        <v>1923.15</v>
+        <v>1908.15</v>
       </c>
     </row>
     <row r="638" spans="1:14">
@@ -22759,7 +22759,7 @@
         <v>0.1416666666700621</v>
       </c>
       <c r="N638">
-        <v>1923.14166666667</v>
+        <v>1908.14166666667</v>
       </c>
     </row>
     <row r="639" spans="1:14">
@@ -22794,7 +22794,7 @@
         <v>0.2416666666699712</v>
       </c>
       <c r="N639">
-        <v>1923.24166666667</v>
+        <v>1908.24166666667</v>
       </c>
     </row>
     <row r="640" spans="1:14">
@@ -22829,7 +22829,7 @@
         <v>0.1583333333298924</v>
       </c>
       <c r="N640">
-        <v>1923.15833333333</v>
+        <v>1908.15833333333</v>
       </c>
     </row>
     <row r="641" spans="1:14">
@@ -22864,7 +22864,7 @@
         <v>0.1416666666700621</v>
       </c>
       <c r="N641">
-        <v>1923.14166666667</v>
+        <v>1908.14166666667</v>
       </c>
     </row>
     <row r="642" spans="1:14">
@@ -22899,7 +22899,7 @@
         <v>0.2666666666700621</v>
       </c>
       <c r="N642">
-        <v>1923.26666666667</v>
+        <v>1908.26666666667</v>
       </c>
     </row>
     <row r="643" spans="1:14">
@@ -22934,7 +22934,7 @@
         <v>0.2666666666700621</v>
       </c>
       <c r="N643">
-        <v>1923.26666666667</v>
+        <v>1908.26666666667</v>
       </c>
     </row>
     <row r="644" spans="1:14">
@@ -22969,7 +22969,7 @@
         <v>0.3500000000001364</v>
       </c>
       <c r="N644">
-        <v>1923.35</v>
+        <v>1908.35</v>
       </c>
     </row>
     <row r="645" spans="1:14">
@@ -23004,7 +23004,7 @@
         <v>0.1166666666699712</v>
       </c>
       <c r="N645">
-        <v>1923.11666666667</v>
+        <v>1908.11666666667</v>
       </c>
     </row>
     <row r="646" spans="1:14">
@@ -23039,7 +23039,7 @@
         <v>0.5833333333298469</v>
       </c>
       <c r="N646">
-        <v>1923.58333333333</v>
+        <v>1908.58333333333</v>
       </c>
     </row>
     <row r="647" spans="1:14">
@@ -23074,7 +23074,7 @@
         <v>0.7833333333298924</v>
       </c>
       <c r="N647">
-        <v>1923.78333333333</v>
+        <v>1908.78333333333</v>
       </c>
     </row>
     <row r="648" spans="1:14">
@@ -23109,7 +23109,7 @@
         <v>0.7000000000000455</v>
       </c>
       <c r="N648">
-        <v>1923.7</v>
+        <v>1908.7</v>
       </c>
     </row>
     <row r="649" spans="1:14">
@@ -23144,7 +23144,7 @@
         <v>0.8250000000000455</v>
       </c>
       <c r="N649">
-        <v>1923.825</v>
+        <v>1908.825</v>
       </c>
     </row>
     <row r="650" spans="1:14">
@@ -23179,7 +23179,7 @@
         <v>0.9000000000000909</v>
       </c>
       <c r="N650">
-        <v>1923.9</v>
+        <v>1908.9</v>
       </c>
     </row>
     <row r="651" spans="1:14">
@@ -23214,7 +23214,7 @@
         <v>0.8250000000000455</v>
       </c>
       <c r="N651">
-        <v>1923.825</v>
+        <v>1908.825</v>
       </c>
     </row>
     <row r="652" spans="1:14">
@@ -23249,7 +23249,7 @@
         <v>0.6916666666700166</v>
       </c>
       <c r="N652">
-        <v>1923.69166666667</v>
+        <v>1908.69166666667</v>
       </c>
     </row>
     <row r="653" spans="1:14">
@@ -23284,7 +23284,7 @@
         <v>0.4916666666699712</v>
       </c>
       <c r="N653">
-        <v>1923.49166666667</v>
+        <v>1908.49166666667</v>
       </c>
     </row>
     <row r="654" spans="1:14">
@@ -23319,7 +23319,7 @@
         <v>0.6833333333299834</v>
       </c>
       <c r="N654">
-        <v>1923.68333333333</v>
+        <v>1908.68333333333</v>
       </c>
     </row>
     <row r="655" spans="1:14">
@@ -23354,7 +23354,7 @@
         <v>0.5250000000000909</v>
       </c>
       <c r="N655">
-        <v>1923.525</v>
+        <v>1908.525</v>
       </c>
     </row>
     <row r="656" spans="1:14">
@@ -23389,7 +23389,7 @@
         <v>0.4083333333298924</v>
       </c>
       <c r="N656">
-        <v>1923.40833333333</v>
+        <v>1908.40833333333</v>
       </c>
     </row>
     <row r="657" spans="1:14">
@@ -23424,7 +23424,7 @@
         <v>0.2333333333299379</v>
       </c>
       <c r="N657">
-        <v>1923.23333333333</v>
+        <v>1908.23333333333</v>
       </c>
     </row>
     <row r="658" spans="1:14">
@@ -23459,7 +23459,7 @@
         <v>0.03333333332989241</v>
       </c>
       <c r="N658">
-        <v>1923.03333333333</v>
+        <v>1908.03333333333</v>
       </c>
     </row>
     <row r="659" spans="1:14">
@@ -23494,7 +23494,7 @@
         <v>0.04166666666992569</v>
       </c>
       <c r="N659">
-        <v>1923.04166666667</v>
+        <v>1908.04166666667</v>
       </c>
     </row>
     <row r="660" spans="1:14">
@@ -23529,7 +23529,7 @@
         <v>1.008333333329801</v>
       </c>
       <c r="N660">
-        <v>1924.00833333333</v>
+        <v>1909.00833333333</v>
       </c>
     </row>
     <row r="661" spans="1:14">
@@ -23564,7 +23564,7 @@
         <v>0.7416666666699712</v>
       </c>
       <c r="N661">
-        <v>1923.74166666667</v>
+        <v>1908.74166666667</v>
       </c>
     </row>
     <row r="662" spans="1:14">
@@ -23599,7 +23599,7 @@
         <v>0.8666666666699712</v>
       </c>
       <c r="N662">
-        <v>1923.86666666667</v>
+        <v>1908.86666666667</v>
       </c>
     </row>
     <row r="663" spans="1:14">
@@ -23634,7 +23634,7 @@
         <v>0.5166666666700621</v>
       </c>
       <c r="N663">
-        <v>1923.51666666667</v>
+        <v>1908.51666666667</v>
       </c>
     </row>
     <row r="664" spans="1:14">
@@ -23669,7 +23669,7 @@
         <v>0.2000000000000455</v>
       </c>
       <c r="N664">
-        <v>1923.2</v>
+        <v>1908.2</v>
       </c>
     </row>
     <row r="665" spans="1:14">
@@ -23704,7 +23704,7 @@
         <v>0.5750000000000455</v>
       </c>
       <c r="N665">
-        <v>1923.575</v>
+        <v>1908.575</v>
       </c>
     </row>
     <row r="666" spans="1:14">
@@ -23739,7 +23739,7 @@
         <v>0.2416666666699712</v>
       </c>
       <c r="N666">
-        <v>1923.24166666667</v>
+        <v>1908.24166666667</v>
       </c>
     </row>
     <row r="667" spans="1:14">
@@ -23774,7 +23774,7 @@
         <v>0.3083333333299834</v>
       </c>
       <c r="N667">
-        <v>1923.30833333333</v>
+        <v>1908.30833333333</v>
       </c>
     </row>
     <row r="668" spans="1:14">
@@ -23809,7 +23809,7 @@
         <v>0.1916666666700166</v>
       </c>
       <c r="N668">
-        <v>1923.19166666667</v>
+        <v>1908.19166666667</v>
       </c>
     </row>
     <row r="669" spans="1:14">
@@ -23844,7 +23844,7 @@
         <v>0.02500000000009095</v>
       </c>
       <c r="N669">
-        <v>1923.025</v>
+        <v>1908.025</v>
       </c>
     </row>
     <row r="670" spans="1:14">
@@ -23879,7 +23879,7 @@
         <v>0.4083333333298924</v>
       </c>
       <c r="N670">
-        <v>1923.40833333333</v>
+        <v>1908.40833333333</v>
       </c>
     </row>
     <row r="671" spans="1:14">
@@ -23914,7 +23914,7 @@
         <v>0.3583333333299379</v>
       </c>
       <c r="N671">
-        <v>1923.35833333333</v>
+        <v>1908.35833333333</v>
       </c>
     </row>
     <row r="672" spans="1:14">
@@ -23949,7 +23949,7 @@
         <v>0.2833333333298924</v>
       </c>
       <c r="N672">
-        <v>1923.28333333333</v>
+        <v>1908.28333333333</v>
       </c>
     </row>
     <row r="673" spans="1:14">
@@ -23984,7 +23984,7 @@
         <v>0.2833333333298924</v>
       </c>
       <c r="N673">
-        <v>1923.28333333333</v>
+        <v>1908.28333333333</v>
       </c>
     </row>
     <row r="674" spans="1:14">
@@ -24019,7 +24019,7 @@
         <v>0.5166666666700621</v>
       </c>
       <c r="N674">
-        <v>1923.51666666667</v>
+        <v>1908.51666666667</v>
       </c>
     </row>
     <row r="675" spans="1:14">
@@ -24054,7 +24054,7 @@
         <v>0.2250000000001364</v>
       </c>
       <c r="N675">
-        <v>1923.225</v>
+        <v>1908.225</v>
       </c>
     </row>
     <row r="676" spans="1:14">
@@ -24089,7 +24089,7 @@
         <v>0.3250000000000455</v>
       </c>
       <c r="N676">
-        <v>1923.325</v>
+        <v>1908.325</v>
       </c>
     </row>
     <row r="677" spans="1:14">
@@ -24124,7 +24124,7 @@
         <v>0.2833333333301198</v>
       </c>
       <c r="N677">
-        <v>1923.28333333333</v>
+        <v>1908.28333333333</v>
       </c>
     </row>
     <row r="678" spans="1:14">
@@ -24159,7 +24159,7 @@
         <v>0.25</v>
       </c>
       <c r="N678">
-        <v>1923.25</v>
+        <v>1908.25</v>
       </c>
     </row>
     <row r="679" spans="1:14">
@@ -24194,7 +24194,7 @@
         <v>0.08333333333007431</v>
       </c>
       <c r="N679">
-        <v>1923.08333333333</v>
+        <v>1908.08333333333</v>
       </c>
     </row>
     <row r="680" spans="1:14">
@@ -24229,7 +24229,7 @@
         <v>0.1666666666699257</v>
       </c>
       <c r="N680">
-        <v>1923.16666666667</v>
+        <v>1908.16666666667</v>
       </c>
     </row>
     <row r="681" spans="1:14">
@@ -24264,7 +24264,7 @@
         <v>0.1083333333299379</v>
       </c>
       <c r="N681">
-        <v>1923.10833333333</v>
+        <v>1908.10833333333</v>
       </c>
     </row>
     <row r="682" spans="1:14">
@@ -24299,7 +24299,7 @@
         <v>0.4416666666700166</v>
       </c>
       <c r="N682">
-        <v>1923.44166666667</v>
+        <v>1908.44166666667</v>
       </c>
     </row>
     <row r="683" spans="1:14">
@@ -24334,7 +24334,7 @@
         <v>0.05833333332998336</v>
       </c>
       <c r="N683">
-        <v>1923.05833333333</v>
+        <v>1908.05833333333</v>
       </c>
     </row>
     <row r="684" spans="1:14">
@@ -24369,7 +24369,7 @@
         <v>0.3666666666699712</v>
       </c>
       <c r="N684">
-        <v>1923.36666666667</v>
+        <v>1908.36666666667</v>
       </c>
     </row>
     <row r="685" spans="1:14">
@@ -24404,7 +24404,7 @@
         <v>0.3583333333299379</v>
       </c>
       <c r="N685">
-        <v>1923.35833333333</v>
+        <v>1908.35833333333</v>
       </c>
     </row>
     <row r="686" spans="1:14">
@@ -24439,7 +24439,7 @@
         <v>0.5750000000000455</v>
       </c>
       <c r="N686">
-        <v>1923.575</v>
+        <v>1908.575</v>
       </c>
     </row>
     <row r="687" spans="1:14">
@@ -24474,7 +24474,7 @@
         <v>0.1916666666700166</v>
       </c>
       <c r="N687">
-        <v>1923.19166666667</v>
+        <v>1908.19166666667</v>
       </c>
     </row>
     <row r="688" spans="1:14">
@@ -24509,7 +24509,7 @@
         <v>0.1083333333299379</v>
       </c>
       <c r="N688">
-        <v>1923.10833333333</v>
+        <v>1908.10833333333</v>
       </c>
     </row>
     <row r="689" spans="1:14">
@@ -24544,7 +24544,7 @@
         <v>0.06666666667001664</v>
       </c>
       <c r="N689">
-        <v>1923.06666666667</v>
+        <v>1908.06666666667</v>
       </c>
     </row>
     <row r="690" spans="1:14">
@@ -24579,7 +24579,7 @@
         <v>0.4333333333299834</v>
       </c>
       <c r="N690">
-        <v>1923.43333333333</v>
+        <v>1908.43333333333</v>
       </c>
     </row>
     <row r="691" spans="1:14">
@@ -24614,7 +24614,7 @@
         <v>0.8250000000000455</v>
       </c>
       <c r="N691">
-        <v>1923.825</v>
+        <v>1908.825</v>
       </c>
     </row>
     <row r="692" spans="1:14">
@@ -24649,7 +24649,7 @@
         <v>0.4333333333299834</v>
       </c>
       <c r="N692">
-        <v>1923.43333333333</v>
+        <v>1908.43333333333</v>
       </c>
     </row>
     <row r="693" spans="1:14">
@@ -24684,7 +24684,7 @@
         <v>0.1583333333298924</v>
       </c>
       <c r="N693">
-        <v>1923.15833333333</v>
+        <v>1908.15833333333</v>
       </c>
     </row>
     <row r="694" spans="1:14">
@@ -24719,7 +24719,7 @@
         <v>0.4416666666700166</v>
       </c>
       <c r="N694">
-        <v>1923.44166666667</v>
+        <v>1908.44166666667</v>
       </c>
     </row>
     <row r="695" spans="1:14">
@@ -24754,7 +24754,7 @@
         <v>0.1833333333299834</v>
       </c>
       <c r="N695">
-        <v>1923.18333333333</v>
+        <v>1908.18333333333</v>
       </c>
     </row>
     <row r="696" spans="1:14">
@@ -24789,7 +24789,7 @@
         <v>0.07500000000004547</v>
       </c>
       <c r="N696">
-        <v>1923.075</v>
+        <v>1908.075</v>
       </c>
     </row>
     <row r="697" spans="1:14">
@@ -24824,7 +24824,7 @@
         <v>0.4166666666699257</v>
       </c>
       <c r="N697">
-        <v>1923.41666666667</v>
+        <v>1908.41666666667</v>
       </c>
     </row>
     <row r="698" spans="1:14">
@@ -24859,7 +24859,7 @@
         <v>0.4000000000000909</v>
       </c>
       <c r="N698">
-        <v>1923.4</v>
+        <v>1908.4</v>
       </c>
     </row>
     <row r="699" spans="1:14">
@@ -24894,7 +24894,7 @@
         <v>0.1500000000000909</v>
       </c>
       <c r="N699">
-        <v>1923.15</v>
+        <v>1908.15</v>
       </c>
     </row>
     <row r="700" spans="1:14">
@@ -24929,7 +24929,7 @@
         <v>0.1500000000000909</v>
       </c>
       <c r="N700">
-        <v>1923.15</v>
+        <v>1908.15</v>
       </c>
     </row>
     <row r="701" spans="1:14">
@@ -24964,7 +24964,7 @@
         <v>0.3083333333299834</v>
       </c>
       <c r="N701">
-        <v>1923.30833333333</v>
+        <v>1908.30833333333</v>
       </c>
     </row>
     <row r="702" spans="1:14">
@@ -24999,7 +24999,7 @@
         <v>0.02500000000009095</v>
       </c>
       <c r="N702">
-        <v>1923.025</v>
+        <v>1908.025</v>
       </c>
     </row>
     <row r="703" spans="1:14">
@@ -25034,7 +25034,7 @@
         <v>0.2250000000001364</v>
       </c>
       <c r="N703">
-        <v>1923.225</v>
+        <v>1908.225</v>
       </c>
     </row>
     <row r="704" spans="1:14">
@@ -25069,7 +25069,7 @@
         <v>0.1833333333299834</v>
       </c>
       <c r="N704">
-        <v>1923.18333333333</v>
+        <v>1908.18333333333</v>
       </c>
     </row>
     <row r="705" spans="1:14">
@@ -25104,7 +25104,7 @@
         <v>0.05833333332998336</v>
       </c>
       <c r="N705">
-        <v>1923.05833333333</v>
+        <v>1908.05833333333</v>
       </c>
     </row>
     <row r="706" spans="1:14">
@@ -25139,7 +25139,7 @@
         <v>0.3250000000000455</v>
       </c>
       <c r="N706">
-        <v>1923.325</v>
+        <v>1908.325</v>
       </c>
     </row>
     <row r="707" spans="1:14">
@@ -25174,7 +25174,7 @@
         <v>0.08333333332984694</v>
       </c>
       <c r="N707">
-        <v>1923.08333333333</v>
+        <v>1908.08333333333</v>
       </c>
     </row>
     <row r="708" spans="1:14">
@@ -25209,7 +25209,7 @@
         <v>0.3250000000000455</v>
       </c>
       <c r="N708">
-        <v>1923.325</v>
+        <v>1908.325</v>
       </c>
     </row>
     <row r="709" spans="1:14">
@@ -25244,7 +25244,7 @@
         <v>0.5833333333298469</v>
       </c>
       <c r="N709">
-        <v>1923.58333333333</v>
+        <v>1908.58333333333</v>
       </c>
     </row>
     <row r="710" spans="1:14">
@@ -25279,7 +25279,7 @@
         <v>0.7000000000000455</v>
       </c>
       <c r="N710">
-        <v>1923.7</v>
+        <v>1908.7</v>
       </c>
     </row>
     <row r="711" spans="1:14">
@@ -25314,7 +25314,7 @@
         <v>0.9083333333298924</v>
       </c>
       <c r="N711">
-        <v>1923.90833333333</v>
+        <v>1908.90833333333</v>
       </c>
     </row>
     <row r="712" spans="1:14">
@@ -25349,7 +25349,7 @@
         <v>0.3916666666700621</v>
       </c>
       <c r="N712">
-        <v>1923.39166666667</v>
+        <v>1908.39166666667</v>
       </c>
     </row>
     <row r="713" spans="1:14">
@@ -25384,7 +25384,7 @@
         <v>0.4500000000000455</v>
       </c>
       <c r="N713">
-        <v>1923.45</v>
+        <v>1908.45</v>
       </c>
     </row>
     <row r="714" spans="1:14">
@@ -25419,7 +25419,7 @@
         <v>0.2750000000000909</v>
       </c>
       <c r="N714">
-        <v>1923.275</v>
+        <v>1908.275</v>
       </c>
     </row>
     <row r="715" spans="1:14">
@@ -25454,7 +25454,7 @@
         <v>0.3166666666700166</v>
       </c>
       <c r="N715">
-        <v>1923.31666666667</v>
+        <v>1908.31666666667</v>
       </c>
     </row>
     <row r="716" spans="1:14">
@@ -25489,7 +25489,7 @@
         <v>0.3166666666700166</v>
       </c>
       <c r="N716">
-        <v>1923.31666666667</v>
+        <v>1908.31666666667</v>
       </c>
     </row>
     <row r="717" spans="1:14">
@@ -25524,7 +25524,7 @@
         <v>0.3250000000000455</v>
       </c>
       <c r="N717">
-        <v>1923.325</v>
+        <v>1908.325</v>
       </c>
     </row>
     <row r="718" spans="1:14">
@@ -25559,7 +25559,7 @@
         <v>0.4916666666699712</v>
       </c>
       <c r="N718">
-        <v>1923.49166666667</v>
+        <v>1908.49166666667</v>
       </c>
     </row>
     <row r="719" spans="1:14">
@@ -25594,7 +25594,7 @@
         <v>0.6500000000000909</v>
       </c>
       <c r="N719">
-        <v>1923.65</v>
+        <v>1908.65</v>
       </c>
     </row>
     <row r="720" spans="1:14">
@@ -25629,7 +25629,7 @@
         <v>0.2250000000001364</v>
       </c>
       <c r="N720">
-        <v>1923.225</v>
+        <v>1908.225</v>
       </c>
     </row>
     <row r="721" spans="1:14">
@@ -25664,7 +25664,7 @@
         <v>0.4500000000000455</v>
       </c>
       <c r="N721">
-        <v>1923.45</v>
+        <v>1908.45</v>
       </c>
     </row>
     <row r="722" spans="1:14">
@@ -25699,7 +25699,7 @@
         <v>0.6583333333298924</v>
       </c>
       <c r="N722">
-        <v>1923.65833333333</v>
+        <v>1908.65833333333</v>
       </c>
     </row>
     <row r="723" spans="1:14">
@@ -25734,7 +25734,7 @@
         <v>0.3166666666700166</v>
       </c>
       <c r="N723">
-        <v>1923.31666666667</v>
+        <v>1908.31666666667</v>
       </c>
     </row>
     <row r="724" spans="1:14">
@@ -25769,7 +25769,7 @@
         <v>0.2416666666699712</v>
       </c>
       <c r="N724">
-        <v>1923.24166666667</v>
+        <v>1908.24166666667</v>
       </c>
     </row>
     <row r="725" spans="1:14">
@@ -25804,7 +25804,7 @@
         <v>0.7083333333298469</v>
       </c>
       <c r="N725">
-        <v>1923.70833333333</v>
+        <v>1908.70833333333</v>
       </c>
     </row>
     <row r="726" spans="1:14">
@@ -25839,7 +25839,7 @@
         <v>0.8500000000001364</v>
       </c>
       <c r="N726">
-        <v>1923.85</v>
+        <v>1908.85</v>
       </c>
     </row>
     <row r="727" spans="1:14">
@@ -25874,7 +25874,7 @@
         <v>0.5666666666700166</v>
       </c>
       <c r="N727">
-        <v>1923.56666666667</v>
+        <v>1908.56666666667</v>
       </c>
     </row>
     <row r="728" spans="1:14">
@@ -25909,7 +25909,7 @@
         <v>0.1500000000000909</v>
       </c>
       <c r="N728">
-        <v>1923.15</v>
+        <v>1908.15</v>
       </c>
     </row>
     <row r="729" spans="1:14">
@@ -25944,7 +25944,7 @@
         <v>0.6583333333298924</v>
       </c>
       <c r="N729">
-        <v>1923.65833333333</v>
+        <v>1908.65833333333</v>
       </c>
     </row>
     <row r="730" spans="1:14">
@@ -25979,7 +25979,7 @@
         <v>0.7000000000000455</v>
       </c>
       <c r="N730">
-        <v>1923.7</v>
+        <v>1908.7</v>
       </c>
     </row>
     <row r="731" spans="1:14">
@@ -26014,7 +26014,7 @@
         <v>0.8250000000000455</v>
       </c>
       <c r="N731">
-        <v>1923.825</v>
+        <v>1908.825</v>
       </c>
     </row>
     <row r="732" spans="1:14">
@@ -26049,7 +26049,7 @@
         <v>0.6000000000001364</v>
       </c>
       <c r="N732">
-        <v>1923.6</v>
+        <v>1908.6</v>
       </c>
     </row>
     <row r="733" spans="1:14">
@@ -26084,7 +26084,7 @@
         <v>0.4000000000000909</v>
       </c>
       <c r="N733">
-        <v>1923.4</v>
+        <v>1908.4</v>
       </c>
     </row>
     <row r="734" spans="1:14">
@@ -26119,7 +26119,7 @@
         <v>0.3083333333299834</v>
       </c>
       <c r="N734">
-        <v>1923.30833333333</v>
+        <v>1908.30833333333</v>
       </c>
     </row>
     <row r="735" spans="1:14">
@@ -26154,7 +26154,7 @@
         <v>0.1916666666700166</v>
       </c>
       <c r="N735">
-        <v>1923.19166666667</v>
+        <v>1908.19166666667</v>
       </c>
     </row>
     <row r="736" spans="1:14">
@@ -26189,7 +26189,7 @@
         <v>0.2750000000000909</v>
       </c>
       <c r="N736">
-        <v>1923.275</v>
+        <v>1908.275</v>
       </c>
     </row>
     <row r="737" spans="1:14">
@@ -26224,7 +26224,7 @@
         <v>0.1500000000000909</v>
       </c>
       <c r="N737">
-        <v>1923.15</v>
+        <v>1908.15</v>
       </c>
     </row>
     <row r="738" spans="1:14">
@@ -26259,7 +26259,7 @@
         <v>0.06666666667001664</v>
       </c>
       <c r="N738">
-        <v>1923.06666666667</v>
+        <v>1908.06666666667</v>
       </c>
     </row>
     <row r="739" spans="1:14">
@@ -26294,7 +26294,7 @@
         <v>0.3166666666700166</v>
       </c>
       <c r="N739">
-        <v>1923.31666666667</v>
+        <v>1908.31666666667</v>
       </c>
     </row>
     <row r="740" spans="1:14">
@@ -26329,7 +26329,7 @@
         <v>0.7750000000000909</v>
       </c>
       <c r="N740">
-        <v>1923.775</v>
+        <v>1908.775</v>
       </c>
     </row>
     <row r="741" spans="1:14">
@@ -26364,7 +26364,7 @@
         <v>0.3250000000000455</v>
       </c>
       <c r="N741">
-        <v>1923.325</v>
+        <v>1908.325</v>
       </c>
     </row>
     <row r="742" spans="1:14">
@@ -26399,7 +26399,7 @@
         <v>0.1916666666700166</v>
       </c>
       <c r="N742">
-        <v>1923.19166666667</v>
+        <v>1908.19166666667</v>
       </c>
     </row>
     <row r="743" spans="1:14">
@@ -26434,7 +26434,7 @@
         <v>0.2083333333300743</v>
       </c>
       <c r="N743">
-        <v>1923.20833333333</v>
+        <v>1908.20833333333</v>
       </c>
     </row>
     <row r="744" spans="1:14">
@@ -26469,7 +26469,7 @@
         <v>0.04166666666992569</v>
       </c>
       <c r="N744">
-        <v>1923.04166666667</v>
+        <v>1908.04166666667</v>
       </c>
     </row>
     <row r="745" spans="1:14">
@@ -26504,7 +26504,7 @@
         <v>0.2916666666699257</v>
       </c>
       <c r="N745">
-        <v>1923.29166666667</v>
+        <v>1908.29166666667</v>
       </c>
     </row>
     <row r="746" spans="1:14">
@@ -26539,7 +26539,7 @@
         <v>0.2416666666699712</v>
       </c>
       <c r="N746">
-        <v>1923.24166666667</v>
+        <v>1908.24166666667</v>
       </c>
     </row>
     <row r="747" spans="1:14">
@@ -26574,7 +26574,7 @@
         <v>0.125</v>
       </c>
       <c r="N747">
-        <v>1923.125</v>
+        <v>1908.125</v>
       </c>
     </row>
     <row r="748" spans="1:14">
@@ -26609,7 +26609,7 @@
         <v>0.3666666666699712</v>
       </c>
       <c r="N748">
-        <v>1923.36666666667</v>
+        <v>1908.36666666667</v>
       </c>
     </row>
     <row r="749" spans="1:14">
@@ -26644,7 +26644,7 @@
         <v>0.4083333333298924</v>
       </c>
       <c r="N749">
-        <v>1923.40833333333</v>
+        <v>1908.40833333333</v>
       </c>
     </row>
     <row r="750" spans="1:14">
@@ -26679,7 +26679,7 @@
         <v>0.25</v>
       </c>
       <c r="N750">
-        <v>1923.25</v>
+        <v>1908.25</v>
       </c>
     </row>
     <row r="751" spans="1:14">
@@ -26714,7 +26714,7 @@
         <v>0.25</v>
       </c>
       <c r="N751">
-        <v>1923.25</v>
+        <v>1908.25</v>
       </c>
     </row>
     <row r="752" spans="1:14">
@@ -26749,7 +26749,7 @@
         <v>0.25</v>
       </c>
       <c r="N752">
-        <v>1923.25</v>
+        <v>1908.25</v>
       </c>
     </row>
     <row r="753" spans="1:14">
@@ -26784,7 +26784,7 @@
         <v>0.08333333333007431</v>
       </c>
       <c r="N753">
-        <v>1923.08333333333</v>
+        <v>1908.08333333333</v>
       </c>
     </row>
     <row r="754" spans="1:14">
@@ -26819,7 +26819,7 @@
         <v>0.2833333333298924</v>
       </c>
       <c r="N754">
-        <v>1923.28333333333</v>
+        <v>1908.28333333333</v>
       </c>
     </row>
     <row r="755" spans="1:14">
@@ -26854,7 +26854,7 @@
         <v>0.07500000000004547</v>
       </c>
       <c r="N755">
-        <v>1923.075</v>
+        <v>1908.075</v>
       </c>
     </row>
     <row r="756" spans="1:14">
@@ -26889,7 +26889,7 @@
         <v>0.1583333333298924</v>
       </c>
       <c r="N756">
-        <v>1923.15833333333</v>
+        <v>1908.15833333333</v>
       </c>
     </row>
     <row r="757" spans="1:14">
@@ -26924,7 +26924,7 @@
         <v>0.1583333333301198</v>
       </c>
       <c r="N757">
-        <v>1923.15833333333</v>
+        <v>1908.15833333333</v>
       </c>
     </row>
     <row r="758" spans="1:14">
@@ -26959,7 +26959,7 @@
         <v>0.1833333333299834</v>
       </c>
       <c r="N758">
-        <v>1923.18333333333</v>
+        <v>1908.18333333333</v>
       </c>
     </row>
     <row r="759" spans="1:14">
@@ -26994,7 +26994,7 @@
         <v>0.3083333333299834</v>
       </c>
       <c r="N759">
-        <v>1923.30833333333</v>
+        <v>1908.30833333333</v>
       </c>
     </row>
     <row r="760" spans="1:14">
@@ -27029,7 +27029,7 @@
         <v>0.1500000000000909</v>
       </c>
       <c r="N760">
-        <v>1923.15</v>
+        <v>1908.15</v>
       </c>
     </row>
     <row r="761" spans="1:14">
@@ -27064,7 +27064,7 @@
         <v>0.3250000000000455</v>
       </c>
       <c r="N761">
-        <v>1923.325</v>
+        <v>1908.325</v>
       </c>
     </row>
     <row r="762" spans="1:14">
@@ -27099,7 +27099,7 @@
         <v>0.3250000000000455</v>
       </c>
       <c r="N762">
-        <v>1923.325</v>
+        <v>1908.325</v>
       </c>
     </row>
     <row r="763" spans="1:14">
@@ -27134,7 +27134,7 @@
         <v>0.02500000000009095</v>
       </c>
       <c r="N763">
-        <v>1923.025</v>
+        <v>1908.025</v>
       </c>
     </row>
     <row r="764" spans="1:14">
@@ -27169,7 +27169,7 @@
         <v>0.2333333333299379</v>
       </c>
       <c r="N764">
-        <v>1923.23333333333</v>
+        <v>1908.23333333333</v>
       </c>
     </row>
     <row r="765" spans="1:14">
@@ -27204,7 +27204,7 @@
         <v>0.03333333332989241</v>
       </c>
       <c r="N765">
-        <v>1923.03333333333</v>
+        <v>1908.03333333333</v>
       </c>
     </row>
     <row r="766" spans="1:14">
@@ -27239,7 +27239,7 @@
         <v>0.06666666667001664</v>
       </c>
       <c r="N766">
-        <v>1923.06666666667</v>
+        <v>1908.06666666667</v>
       </c>
     </row>
     <row r="767" spans="1:14">
@@ -27274,7 +27274,7 @@
         <v>0.1000000000001364</v>
       </c>
       <c r="N767">
-        <v>1923.1</v>
+        <v>1908.1</v>
       </c>
     </row>
     <row r="768" spans="1:14">
@@ -27309,7 +27309,7 @@
         <v>0.07500000000004547</v>
       </c>
       <c r="N768">
-        <v>1923.075</v>
+        <v>1908.075</v>
       </c>
     </row>
     <row r="769" spans="1:14">
@@ -27344,7 +27344,7 @@
         <v>0.07500000000004547</v>
       </c>
       <c r="N769">
-        <v>1923.075</v>
+        <v>1908.075</v>
       </c>
     </row>
     <row r="770" spans="1:14">
@@ -27379,7 +27379,7 @@
         <v>0.04166666666992569</v>
       </c>
       <c r="N770">
-        <v>1923.04166666667</v>
+        <v>1908.04166666667</v>
       </c>
     </row>
     <row r="771" spans="1:14">
@@ -27414,7 +27414,7 @@
         <v>0.1083333333299379</v>
       </c>
       <c r="N771">
-        <v>1923.10833333333</v>
+        <v>1908.10833333333</v>
       </c>
     </row>
     <row r="772" spans="1:14">
@@ -27449,7 +27449,7 @@
         <v>0.02500000000009095</v>
       </c>
       <c r="N772">
-        <v>1923.025</v>
+        <v>1908.025</v>
       </c>
     </row>
     <row r="773" spans="1:14">
@@ -27484,7 +27484,7 @@
         <v>0.2000000000000455</v>
       </c>
       <c r="N773">
-        <v>1923.2</v>
+        <v>1908.2</v>
       </c>
     </row>
     <row r="774" spans="1:14">
@@ -27519,7 +27519,7 @@
         <v>0.04166666666992569</v>
       </c>
       <c r="N774">
-        <v>1923.04166666667</v>
+        <v>1908.04166666667</v>
       </c>
     </row>
     <row r="775" spans="1:14">
@@ -27554,7 +27554,7 @@
         <v>0.02500000000009095</v>
       </c>
       <c r="N775">
-        <v>1923.025</v>
+        <v>1908.025</v>
       </c>
     </row>
     <row r="776" spans="1:14">
@@ -27589,7 +27589,7 @@
         <v>0.1166666666699712</v>
       </c>
       <c r="N776">
-        <v>1923.11666666667</v>
+        <v>1908.11666666667</v>
       </c>
     </row>
     <row r="777" spans="1:14">
@@ -27624,7 +27624,7 @@
         <v>0.1083333333299379</v>
       </c>
       <c r="N777">
-        <v>1923.10833333333</v>
+        <v>1908.10833333333</v>
       </c>
     </row>
     <row r="778" spans="1:14">
@@ -27659,7 +27659,7 @@
         <v>0.1166666666699712</v>
       </c>
       <c r="N778">
-        <v>1923.11666666667</v>
+        <v>1908.11666666667</v>
       </c>
     </row>
     <row r="779" spans="1:14">
@@ -27694,7 +27694,7 @@
         <v>0.1083333333299379</v>
       </c>
       <c r="N779">
-        <v>1923.10833333333</v>
+        <v>1908.10833333333</v>
       </c>
     </row>
     <row r="780" spans="1:14">
@@ -27729,7 +27729,7 @@
         <v>0.6416666666700621</v>
       </c>
       <c r="N780">
-        <v>1923.64166666667</v>
+        <v>1908.64166666667</v>
       </c>
     </row>
     <row r="781" spans="1:14">
@@ -27764,7 +27764,7 @@
         <v>0.4833333333299379</v>
       </c>
       <c r="N781">
-        <v>1923.48333333333</v>
+        <v>1908.48333333333</v>
       </c>
     </row>
     <row r="782" spans="1:14">
@@ -27799,7 +27799,7 @@
         <v>0.1166666666699712</v>
       </c>
       <c r="N782">
-        <v>1923.11666666667</v>
+        <v>1908.11666666667</v>
       </c>
     </row>
     <row r="783" spans="1:14">
@@ -27834,7 +27834,7 @@
         <v>1.275000000000091</v>
       </c>
       <c r="N783">
-        <v>1924.275</v>
+        <v>1909.275</v>
       </c>
     </row>
     <row r="784" spans="1:14">
@@ -27869,7 +27869,7 @@
         <v>0.5250000000000909</v>
       </c>
       <c r="N784">
-        <v>1923.525</v>
+        <v>1908.525</v>
       </c>
     </row>
     <row r="785" spans="1:14">
@@ -27904,7 +27904,7 @@
         <v>0.7416666666699712</v>
       </c>
       <c r="N785">
-        <v>1923.74166666667</v>
+        <v>1908.74166666667</v>
       </c>
     </row>
     <row r="786" spans="1:14">
@@ -27939,7 +27939,7 @@
         <v>0.9000000000000909</v>
       </c>
       <c r="N786">
-        <v>1923.9</v>
+        <v>1908.9</v>
       </c>
     </row>
     <row r="787" spans="1:14">
@@ -27974,7 +27974,7 @@
         <v>1.116666666669971</v>
       </c>
       <c r="N787">
-        <v>1924.11666666667</v>
+        <v>1909.11666666667</v>
       </c>
     </row>
     <row r="788" spans="1:14">
@@ -28009,7 +28009,7 @@
         <v>0.6833333333299834</v>
       </c>
       <c r="N788">
-        <v>1923.68333333333</v>
+        <v>1908.68333333333</v>
       </c>
     </row>
     <row r="789" spans="1:14">
@@ -28044,7 +28044,7 @@
         <v>0.8916666666700621</v>
       </c>
       <c r="N789">
-        <v>1923.89166666667</v>
+        <v>1908.89166666667</v>
       </c>
     </row>
     <row r="790" spans="1:14">
@@ -28079,7 +28079,7 @@
         <v>1.066666666670017</v>
       </c>
       <c r="N790">
-        <v>1924.06666666667</v>
+        <v>1909.06666666667</v>
       </c>
     </row>
     <row r="791" spans="1:14">
@@ -28114,7 +28114,7 @@
         <v>1.233333333329938</v>
       </c>
       <c r="N791">
-        <v>1924.23333333333</v>
+        <v>1909.23333333333</v>
       </c>
     </row>
     <row r="792" spans="1:14">
@@ -28149,7 +28149,7 @@
         <v>1.266666666670062</v>
       </c>
       <c r="N792">
-        <v>1924.26666666667</v>
+        <v>1909.26666666667</v>
       </c>
     </row>
     <row r="793" spans="1:14">
@@ -28184,7 +28184,7 @@
         <v>1.066666666670017</v>
       </c>
       <c r="N793">
-        <v>1924.06666666667</v>
+        <v>1909.06666666667</v>
       </c>
     </row>
     <row r="794" spans="1:14">
@@ -28219,7 +28219,7 @@
         <v>0.8500000000001364</v>
       </c>
       <c r="N794">
-        <v>1923.85</v>
+        <v>1908.85</v>
       </c>
     </row>
     <row r="795" spans="1:14">
@@ -28254,7 +28254,7 @@
         <v>1.066666666670017</v>
       </c>
       <c r="N795">
-        <v>1924.06666666667</v>
+        <v>1909.06666666667</v>
       </c>
     </row>
     <row r="796" spans="1:14">
@@ -28289,7 +28289,7 @@
         <v>0.6416666666700621</v>
       </c>
       <c r="N796">
-        <v>1923.64166666667</v>
+        <v>1908.64166666667</v>
       </c>
     </row>
     <row r="797" spans="1:14">
@@ -28324,7 +28324,7 @@
         <v>0.4416666666700166</v>
       </c>
       <c r="N797">
-        <v>1923.44166666667</v>
+        <v>1908.44166666667</v>
       </c>
     </row>
     <row r="798" spans="1:14">
@@ -28359,7 +28359,7 @@
         <v>0.6083333333299379</v>
       </c>
       <c r="N798">
-        <v>1923.60833333333</v>
+        <v>1908.60833333333</v>
       </c>
     </row>
     <row r="799" spans="1:14">
@@ -28394,7 +28394,7 @@
         <v>0.3500000000001364</v>
       </c>
       <c r="N799">
-        <v>1923.35</v>
+        <v>1908.35</v>
       </c>
     </row>
     <row r="800" spans="1:14">
@@ -28429,7 +28429,7 @@
         <v>0.7416666666699712</v>
       </c>
       <c r="N800">
-        <v>1923.74166666667</v>
+        <v>1908.74166666667</v>
       </c>
     </row>
     <row r="801" spans="1:14">
@@ -28464,7 +28464,7 @@
         <v>0.9083333333298924</v>
       </c>
       <c r="N801">
-        <v>1923.90833333333</v>
+        <v>1908.90833333333</v>
       </c>
     </row>
     <row r="802" spans="1:14">
@@ -28499,7 +28499,7 @@
         <v>1.025000000000091</v>
       </c>
       <c r="N802">
-        <v>1924.025</v>
+        <v>1909.025</v>
       </c>
     </row>
     <row r="803" spans="1:14">
@@ -28534,7 +28534,7 @@
         <v>1.225000000000136</v>
       </c>
       <c r="N803">
-        <v>1924.225</v>
+        <v>1909.225</v>
       </c>
     </row>
     <row r="804" spans="1:14">
@@ -28569,7 +28569,7 @@
         <v>1.900000000000091</v>
       </c>
       <c r="N804">
-        <v>1924.9</v>
+        <v>1909.9</v>
       </c>
     </row>
     <row r="805" spans="1:14">
@@ -28604,7 +28604,7 @@
         <v>1.116666666669971</v>
       </c>
       <c r="N805">
-        <v>1924.11666666667</v>
+        <v>1909.11666666667</v>
       </c>
     </row>
     <row r="806" spans="1:14">
@@ -28639,7 +28639,7 @@
         <v>1.233333333329938</v>
       </c>
       <c r="N806">
-        <v>1924.23333333333</v>
+        <v>1909.23333333333</v>
       </c>
     </row>
     <row r="807" spans="1:14">
@@ -28674,7 +28674,7 @@
         <v>1.400000000000091</v>
       </c>
       <c r="N807">
-        <v>1924.4</v>
+        <v>1909.4</v>
       </c>
     </row>
     <row r="808" spans="1:14">
@@ -28709,7 +28709,7 @@
         <v>1.116666666669971</v>
       </c>
       <c r="N808">
-        <v>1924.11666666667</v>
+        <v>1909.11666666667</v>
       </c>
     </row>
     <row r="809" spans="1:14">
@@ -28744,7 +28744,7 @@
         <v>1.566666666670017</v>
       </c>
       <c r="N809">
-        <v>1924.56666666667</v>
+        <v>1909.56666666667</v>
       </c>
     </row>
     <row r="810" spans="1:14">
@@ -28779,7 +28779,7 @@
         <v>1.575000000000045</v>
       </c>
       <c r="N810">
-        <v>1924.575</v>
+        <v>1909.575</v>
       </c>
     </row>
     <row r="811" spans="1:14">
@@ -28814,7 +28814,7 @@
         <v>1.150000000000091</v>
       </c>
       <c r="N811">
-        <v>1924.15</v>
+        <v>1909.15</v>
       </c>
     </row>
     <row r="812" spans="1:14">
@@ -28849,7 +28849,7 @@
         <v>1.316666666670017</v>
       </c>
       <c r="N812">
-        <v>1924.31666666667</v>
+        <v>1909.31666666667</v>
       </c>
     </row>
     <row r="813" spans="1:14">
@@ -28884,7 +28884,7 @@
         <v>0.9666666666701076</v>
       </c>
       <c r="N813">
-        <v>1923.96666666667</v>
+        <v>1908.96666666667</v>
       </c>
     </row>
     <row r="814" spans="1:14">
@@ -28919,7 +28919,7 @@
         <v>1.200000000000045</v>
       </c>
       <c r="N814">
-        <v>1924.2</v>
+        <v>1909.2</v>
       </c>
     </row>
     <row r="815" spans="1:14">
@@ -28954,7 +28954,7 @@
         <v>1.391666666670062</v>
       </c>
       <c r="N815">
-        <v>1924.39166666667</v>
+        <v>1909.39166666667</v>
       </c>
     </row>
     <row r="816" spans="1:14">
@@ -28989,7 +28989,7 @@
         <v>1.658333333329892</v>
       </c>
       <c r="N816">
-        <v>1924.65833333333</v>
+        <v>1909.65833333333</v>
       </c>
     </row>
     <row r="817" spans="1:14">
@@ -29024,7 +29024,7 @@
         <v>1.366666666669971</v>
       </c>
       <c r="N817">
-        <v>1924.36666666667</v>
+        <v>1909.36666666667</v>
       </c>
     </row>
     <row r="818" spans="1:14">
@@ -29059,7 +29059,7 @@
         <v>1.658333333329892</v>
       </c>
       <c r="N818">
-        <v>1924.65833333333</v>
+        <v>1909.65833333333</v>
       </c>
     </row>
     <row r="819" spans="1:14">
@@ -29094,7 +29094,7 @@
         <v>1.091666666670108</v>
       </c>
       <c r="N819">
-        <v>1924.09166666667</v>
+        <v>1909.09166666667</v>
       </c>
     </row>
     <row r="820" spans="1:14">
@@ -29129,7 +29129,7 @@
         <v>1.233333333329938</v>
       </c>
       <c r="N820">
-        <v>1924.23333333333</v>
+        <v>1909.23333333333</v>
       </c>
     </row>
     <row r="821" spans="1:14">
@@ -29164,7 +29164,7 @@
         <v>1.416666666669926</v>
       </c>
       <c r="N821">
-        <v>1924.41666666667</v>
+        <v>1909.41666666667</v>
       </c>
     </row>
     <row r="822" spans="1:14">
@@ -29199,7 +29199,7 @@
         <v>1.191666666670017</v>
       </c>
       <c r="N822">
-        <v>1924.19166666667</v>
+        <v>1909.19166666667</v>
       </c>
     </row>
     <row r="823" spans="1:14">
@@ -29234,7 +29234,7 @@
         <v>1.325000000000045</v>
       </c>
       <c r="N823">
-        <v>1924.325</v>
+        <v>1909.325</v>
       </c>
     </row>
     <row r="824" spans="1:14">
@@ -29269,7 +29269,7 @@
         <v>1.516666666670062</v>
       </c>
       <c r="N824">
-        <v>1924.51666666667</v>
+        <v>1909.51666666667</v>
       </c>
     </row>
     <row r="825" spans="1:14">
@@ -29304,7 +29304,7 @@
         <v>1.200000000000045</v>
       </c>
       <c r="N825">
-        <v>1924.2</v>
+        <v>1909.2</v>
       </c>
     </row>
     <row r="826" spans="1:14">
@@ -29339,7 +29339,7 @@
         <v>1.525000000000091</v>
       </c>
       <c r="N826">
-        <v>1924.525</v>
+        <v>1909.525</v>
       </c>
     </row>
     <row r="827" spans="1:14">
@@ -29374,7 +29374,7 @@
         <v>2.066666666670017</v>
       </c>
       <c r="N827">
-        <v>1925.06666666667</v>
+        <v>1910.06666666667</v>
       </c>
     </row>
     <row r="828" spans="1:14">
@@ -29409,7 +29409,7 @@
         <v>1.558333333329983</v>
       </c>
       <c r="N828">
-        <v>1924.55833333333</v>
+        <v>1909.55833333333</v>
       </c>
     </row>
     <row r="829" spans="1:14">
@@ -29444,7 +29444,7 @@
         <v>1.291666666669926</v>
       </c>
       <c r="N829">
-        <v>1924.29166666667</v>
+        <v>1909.29166666667</v>
       </c>
     </row>
     <row r="830" spans="1:14">
@@ -29479,7 +29479,7 @@
         <v>1.650000000000091</v>
       </c>
       <c r="N830">
-        <v>1924.65</v>
+        <v>1909.65</v>
       </c>
     </row>
     <row r="831" spans="1:14">
@@ -29514,7 +29514,7 @@
         <v>2.183333333329983</v>
       </c>
       <c r="N831">
-        <v>1925.18333333333</v>
+        <v>1910.18333333333</v>
       </c>
     </row>
     <row r="832" spans="1:14">
@@ -29549,7 +29549,7 @@
         <v>2.158333333329892</v>
       </c>
       <c r="N832">
-        <v>1925.15833333333</v>
+        <v>1910.15833333333</v>
       </c>
     </row>
     <row r="833" spans="1:14">
@@ -29584,7 +29584,7 @@
         <v>2.150000000000091</v>
       </c>
       <c r="N833">
-        <v>1925.15</v>
+        <v>1910.15</v>
       </c>
     </row>
     <row r="834" spans="1:14">
@@ -29619,7 +29619,7 @@
         <v>2.816666666670017</v>
       </c>
       <c r="N834">
-        <v>1925.81666666667</v>
+        <v>1910.81666666667</v>
       </c>
     </row>
     <row r="835" spans="1:14">
@@ -29654,7 +29654,7 @@
         <v>2.616666666669971</v>
       </c>
       <c r="N835">
-        <v>1925.61666666667</v>
+        <v>1910.61666666667</v>
       </c>
     </row>
     <row r="836" spans="1:14">
@@ -29689,7 +29689,7 @@
         <v>3.075000000000045</v>
       </c>
       <c r="N836">
-        <v>1926.075</v>
+        <v>1911.075</v>
       </c>
     </row>
     <row r="837" spans="1:14">
@@ -29724,7 +29724,7 @@
         <v>2.991666666669971</v>
       </c>
       <c r="N837">
-        <v>1925.99166666667</v>
+        <v>1910.99166666667</v>
       </c>
     </row>
     <row r="838" spans="1:14">
@@ -29759,7 +29759,7 @@
         <v>3.316666666670017</v>
       </c>
       <c r="N838">
-        <v>1926.31666666667</v>
+        <v>1911.31666666667</v>
       </c>
     </row>
     <row r="839" spans="1:14">
@@ -29794,7 +29794,7 @@
         <v>3.233333333329938</v>
       </c>
       <c r="N839">
-        <v>1926.23333333333</v>
+        <v>1911.23333333333</v>
       </c>
     </row>
     <row r="840" spans="1:14">
@@ -29829,7 +29829,7 @@
         <v>3.933333333329983</v>
       </c>
       <c r="N840">
-        <v>1926.93333333333</v>
+        <v>1911.93333333333</v>
       </c>
     </row>
     <row r="841" spans="1:14">
@@ -29864,7 +29864,7 @@
         <v>3.958333333329847</v>
       </c>
       <c r="N841">
-        <v>1926.95833333333</v>
+        <v>1911.95833333333</v>
       </c>
     </row>
     <row r="842" spans="1:14">
@@ -29899,7 +29899,7 @@
         <v>4.325000000000045</v>
       </c>
       <c r="N842">
-        <v>1927.325</v>
+        <v>1912.325</v>
       </c>
     </row>
     <row r="843" spans="1:14">
@@ -29934,7 +29934,7 @@
         <v>4.408333333329892</v>
       </c>
       <c r="N843">
-        <v>1927.40833333333</v>
+        <v>1912.40833333333</v>
       </c>
     </row>
     <row r="844" spans="1:14">
@@ -29969,7 +29969,7 @@
         <v>4.266666666670062</v>
       </c>
       <c r="N844">
-        <v>1927.26666666667</v>
+        <v>1912.26666666667</v>
       </c>
     </row>
     <row r="845" spans="1:14">
@@ -30004,7 +30004,7 @@
         <v>4.641666666670062</v>
       </c>
       <c r="N845">
-        <v>1927.64166666667</v>
+        <v>1912.64166666667</v>
       </c>
     </row>
     <row r="846" spans="1:14">
@@ -30039,7 +30039,7 @@
         <v>4.716666666670108</v>
       </c>
       <c r="N846">
-        <v>1927.71666666667</v>
+        <v>1912.71666666667</v>
       </c>
     </row>
     <row r="847" spans="1:14">
@@ -30074,7 +30074,7 @@
         <v>4.691666666670017</v>
       </c>
       <c r="N847">
-        <v>1927.69166666667</v>
+        <v>1912.69166666667</v>
       </c>
     </row>
     <row r="848" spans="1:14">
@@ -30109,7 +30109,7 @@
         <v>4.575000000000045</v>
       </c>
       <c r="N848">
-        <v>1927.575</v>
+        <v>1912.575</v>
       </c>
     </row>
     <row r="849" spans="1:14">
@@ -30144,7 +30144,7 @@
         <v>4.858333333329938</v>
       </c>
       <c r="N849">
-        <v>1927.85833333333</v>
+        <v>1912.85833333333</v>
       </c>
     </row>
     <row r="850" spans="1:14">
@@ -30179,7 +30179,7 @@
         <v>5.325000000000045</v>
       </c>
       <c r="N850">
-        <v>1928.325</v>
+        <v>1913.325</v>
       </c>
     </row>
     <row r="851" spans="1:14">
@@ -30214,7 +30214,7 @@
         <v>6.275000000000091</v>
       </c>
       <c r="N851">
-        <v>1929.275</v>
+        <v>1914.275</v>
       </c>
     </row>
     <row r="852" spans="1:14">
@@ -30249,7 +30249,7 @@
         <v>6.150000000000091</v>
       </c>
       <c r="N852">
-        <v>1929.15</v>
+        <v>1914.15</v>
       </c>
     </row>
     <row r="853" spans="1:14">
@@ -30284,7 +30284,7 @@
         <v>6.433333333329983</v>
       </c>
       <c r="N853">
-        <v>1929.43333333333</v>
+        <v>1914.43333333333</v>
       </c>
     </row>
     <row r="854" spans="1:14">
@@ -30319,7 +30319,7 @@
         <v>6.575000000000045</v>
       </c>
       <c r="N854">
-        <v>1929.575</v>
+        <v>1914.575</v>
       </c>
     </row>
     <row r="855" spans="1:14">
@@ -30354,7 +30354,7 @@
         <v>6.700000000000045</v>
       </c>
       <c r="N855">
-        <v>1929.7</v>
+        <v>1914.7</v>
       </c>
     </row>
     <row r="856" spans="1:14">
@@ -30389,7 +30389,7 @@
         <v>6.391666666670062</v>
       </c>
       <c r="N856">
-        <v>1929.39166666667</v>
+        <v>1914.39166666667</v>
       </c>
     </row>
     <row r="857" spans="1:14">
@@ -30424,7 +30424,7 @@
         <v>6.566666666670017</v>
       </c>
       <c r="N857">
-        <v>1929.56666666667</v>
+        <v>1914.56666666667</v>
       </c>
     </row>
     <row r="858" spans="1:14">
@@ -30459,7 +30459,7 @@
         <v>7.349999999999909</v>
       </c>
       <c r="N858">
-        <v>1930.35</v>
+        <v>1915.35</v>
       </c>
     </row>
     <row r="859" spans="1:14">
@@ -30494,7 +30494,7 @@
         <v>7.474999999999909</v>
       </c>
       <c r="N859">
-        <v>1930.475</v>
+        <v>1915.475</v>
       </c>
     </row>
     <row r="860" spans="1:14">
@@ -30529,7 +30529,7 @@
         <v>7.266666666670062</v>
       </c>
       <c r="N860">
-        <v>1930.26666666667</v>
+        <v>1915.26666666667</v>
       </c>
     </row>
     <row r="861" spans="1:14">
@@ -30564,7 +30564,7 @@
         <v>7.558333333329983</v>
       </c>
       <c r="N861">
-        <v>1930.55833333333</v>
+        <v>1915.55833333333</v>
       </c>
     </row>
     <row r="862" spans="1:14">
@@ -30599,7 +30599,7 @@
         <v>7.475000000000136</v>
       </c>
       <c r="N862">
-        <v>1930.475</v>
+        <v>1915.475</v>
       </c>
     </row>
     <row r="863" spans="1:14">
@@ -30634,7 +30634,7 @@
         <v>8.216666666670108</v>
       </c>
       <c r="N863">
-        <v>1931.21666666667</v>
+        <v>1916.21666666667</v>
       </c>
     </row>
     <row r="864" spans="1:14">
@@ -30669,7 +30669,7 @@
         <v>8.091666666670108</v>
       </c>
       <c r="N864">
-        <v>1931.09166666667</v>
+        <v>1916.09166666667</v>
       </c>
     </row>
     <row r="865" spans="1:14">
@@ -30704,7 +30704,7 @@
         <v>7.666666666670153</v>
       </c>
       <c r="N865">
-        <v>1930.66666666667</v>
+        <v>1915.66666666667</v>
       </c>
     </row>
     <row r="866" spans="1:14">
@@ -30739,7 +30739,7 @@
         <v>7.833333333330074</v>
       </c>
       <c r="N866">
-        <v>1930.83333333333</v>
+        <v>1915.83333333333</v>
       </c>
     </row>
     <row r="867" spans="1:14">
@@ -30774,7 +30774,7 @@
         <v>7.466666666670108</v>
       </c>
       <c r="N867">
-        <v>1930.46666666667</v>
+        <v>1915.46666666667</v>
       </c>
     </row>
     <row r="868" spans="1:14">
@@ -30809,7 +30809,7 @@
         <v>7.458333333329847</v>
       </c>
       <c r="N868">
-        <v>1930.45833333333</v>
+        <v>1915.45833333333</v>
       </c>
     </row>
     <row r="869" spans="1:14">
@@ -30844,7 +30844,7 @@
         <v>7.491666666669971</v>
       </c>
       <c r="N869">
-        <v>1930.49166666667</v>
+        <v>1915.49166666667</v>
       </c>
     </row>
     <row r="870" spans="1:14">
@@ -30879,7 +30879,7 @@
         <v>7.408333333329892</v>
       </c>
       <c r="N870">
-        <v>1930.40833333333</v>
+        <v>1915.40833333333</v>
       </c>
     </row>
     <row r="871" spans="1:14">
@@ -30914,7 +30914,7 @@
         <v>7.141666666670062</v>
       </c>
       <c r="N871">
-        <v>1930.14166666667</v>
+        <v>1915.14166666667</v>
       </c>
     </row>
     <row r="872" spans="1:14">
@@ -30949,7 +30949,7 @@
         <v>8.383333333330029</v>
       </c>
       <c r="N872">
-        <v>1931.38333333333</v>
+        <v>1916.38333333333</v>
       </c>
     </row>
     <row r="873" spans="1:14">
@@ -30984,7 +30984,7 @@
         <v>8.150000000000091</v>
       </c>
       <c r="N873">
-        <v>1931.15</v>
+        <v>1916.15</v>
       </c>
     </row>
     <row r="874" spans="1:14">
@@ -31019,7 +31019,7 @@
         <v>8.100000000000136</v>
       </c>
       <c r="N874">
-        <v>1931.1</v>
+        <v>1916.1</v>
       </c>
     </row>
     <row r="875" spans="1:14">
@@ -31054,7 +31054,7 @@
         <v>7.575000000000045</v>
       </c>
       <c r="N875">
-        <v>1930.575</v>
+        <v>1915.575</v>
       </c>
     </row>
     <row r="876" spans="1:14">
@@ -31089,7 +31089,7 @@
         <v>7.941666666670017</v>
       </c>
       <c r="N876">
-        <v>1930.94166666667</v>
+        <v>1915.94166666667</v>
       </c>
     </row>
     <row r="877" spans="1:14">
@@ -31124,7 +31124,7 @@
         <v>8.691666666670017</v>
       </c>
       <c r="N877">
-        <v>1931.69166666667</v>
+        <v>1916.69166666667</v>
       </c>
     </row>
     <row r="878" spans="1:14">
@@ -31159,7 +31159,7 @@
         <v>8.850000000000136</v>
       </c>
       <c r="N878">
-        <v>1931.85</v>
+        <v>1916.85</v>
       </c>
     </row>
     <row r="879" spans="1:14">
@@ -31194,7 +31194,7 @@
         <v>8.149999999999864</v>
       </c>
       <c r="N879">
-        <v>1931.15</v>
+        <v>1916.15</v>
       </c>
     </row>
     <row r="880" spans="1:14">
@@ -31229,7 +31229,7 @@
         <v>8.866666666669971</v>
       </c>
       <c r="N880">
-        <v>1931.86666666667</v>
+        <v>1916.86666666667</v>
       </c>
     </row>
     <row r="881" spans="1:14">
@@ -31264,7 +31264,7 @@
         <v>9.033333333329892</v>
       </c>
       <c r="N881">
-        <v>1932.03333333333</v>
+        <v>1917.03333333333</v>
       </c>
     </row>
     <row r="882" spans="1:14">
@@ -31299,7 +31299,7 @@
         <v>9.224999999999909</v>
       </c>
       <c r="N882">
-        <v>1932.225</v>
+        <v>1917.225</v>
       </c>
     </row>
     <row r="883" spans="1:14">
@@ -31334,7 +31334,7 @@
         <v>8.891666666670062</v>
       </c>
       <c r="N883">
-        <v>1931.89166666667</v>
+        <v>1916.89166666667</v>
       </c>
     </row>
     <row r="884" spans="1:14">
@@ -31369,7 +31369,7 @@
         <v>8.933333333329983</v>
       </c>
       <c r="N884">
-        <v>1931.93333333333</v>
+        <v>1916.93333333333</v>
       </c>
     </row>
     <row r="885" spans="1:14">
@@ -31404,7 +31404,7 @@
         <v>8.566666666670017</v>
       </c>
       <c r="N885">
-        <v>1931.56666666667</v>
+        <v>1916.56666666667</v>
       </c>
     </row>
     <row r="886" spans="1:14">
@@ -31439,7 +31439,7 @@
         <v>8.849999999999909</v>
       </c>
       <c r="N886">
-        <v>1931.85</v>
+        <v>1916.85</v>
       </c>
     </row>
     <row r="887" spans="1:14">
@@ -31474,7 +31474,7 @@
         <v>8.366666666669971</v>
       </c>
       <c r="N887">
-        <v>1931.36666666667</v>
+        <v>1916.36666666667</v>
       </c>
     </row>
     <row r="888" spans="1:14">
@@ -31509,7 +31509,7 @@
         <v>8.541666666669926</v>
       </c>
       <c r="N888">
-        <v>1931.54166666667</v>
+        <v>1916.54166666667</v>
       </c>
     </row>
     <row r="889" spans="1:14">
@@ -31544,7 +31544,7 @@
         <v>8.833333333329847</v>
       </c>
       <c r="N889">
-        <v>1931.83333333333</v>
+        <v>1916.83333333333</v>
       </c>
     </row>
     <row r="890" spans="1:14">
@@ -31579,7 +31579,7 @@
         <v>8.583333333329847</v>
       </c>
       <c r="N890">
-        <v>1931.58333333333</v>
+        <v>1916.58333333333</v>
       </c>
     </row>
     <row r="891" spans="1:14">
@@ -31614,7 +31614,7 @@
         <v>8.983333333329938</v>
       </c>
       <c r="N891">
-        <v>1931.98333333333</v>
+        <v>1916.98333333333</v>
       </c>
     </row>
     <row r="892" spans="1:14">
@@ -31649,7 +31649,7 @@
         <v>8.491666666669971</v>
       </c>
       <c r="N892">
-        <v>1931.49166666667</v>
+        <v>1916.49166666667</v>
       </c>
     </row>
     <row r="893" spans="1:14">
@@ -31684,7 +31684,7 @@
         <v>8.908333333329892</v>
       </c>
       <c r="N893">
-        <v>1931.90833333333</v>
+        <v>1916.90833333333</v>
       </c>
     </row>
     <row r="894" spans="1:14">
@@ -31719,7 +31719,7 @@
         <v>8.533333333329892</v>
       </c>
       <c r="N894">
-        <v>1931.53333333333</v>
+        <v>1916.53333333333</v>
       </c>
     </row>
     <row r="895" spans="1:14">
@@ -31754,7 +31754,7 @@
         <v>8.049999999999955</v>
       </c>
       <c r="N895">
-        <v>1931.05</v>
+        <v>1916.05</v>
       </c>
     </row>
     <row r="896" spans="1:14">
@@ -31789,7 +31789,7 @@
         <v>9.008333333330029</v>
       </c>
       <c r="N896">
-        <v>1932.00833333333</v>
+        <v>1917.00833333333</v>
       </c>
     </row>
   </sheetData>
